--- a/usermods/KBIS26/assets/ESP32 Pins (copy 2).xlsx
+++ b/usermods/KBIS26/assets/ESP32 Pins (copy 2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="341">
   <si>
     <t>Name</t>
   </si>
@@ -736,6 +736,9 @@
     <t>Q3</t>
   </si>
   <si>
+    <t>SDA</t>
+  </si>
+  <si>
     <t>ADC2_CH02</t>
   </si>
   <si>
@@ -844,6 +847,9 @@
     <t>1Wire(tempsensor)</t>
   </si>
   <si>
+    <t>button(backpack)</t>
+  </si>
+  <si>
     <t>ADC2_CH04</t>
   </si>
   <si>
@@ -865,6 +871,9 @@
     <t>Q1</t>
   </si>
   <si>
+    <t>reed switch</t>
+  </si>
+  <si>
     <t>ADC2_CH03</t>
   </si>
   <si>
@@ -877,7 +886,7 @@
     <t>IO16</t>
   </si>
   <si>
-    <t>Q4</t>
+    <t>LED1</t>
   </si>
   <si>
     <t>Not available on WROVER</t>
@@ -974,6 +983,12 @@
   </si>
   <si>
     <t>IO32</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>SCL</t>
   </si>
   <si>
     <t>RTC_GPIO09</t>
@@ -1109,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1155,6 +1170,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1485,9 +1503,9 @@
     <col min="2" max="2" style="8" width="19.719285714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="8.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="16.433571428571426" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="21" width="24.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="8" width="10.005" customWidth="1" bestFit="1"/>
@@ -1502,13 +1520,13 @@
     <col min="19" max="19" style="8" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="8" width="14.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="8" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="19" width="37.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="19" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="19" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="19" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="19" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="20" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="20" width="37.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="20" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="20" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="20" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="20" width="10.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="10">
@@ -1693,7 +1711,9 @@
       <c r="E4" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>228</v>
       </c>
@@ -1701,7 +1721,7 @@
         <v>108</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>107</v>
@@ -1723,7 +1743,7 @@
         <v>110</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
@@ -1738,16 +1758,16 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
@@ -1782,13 +1802,13 @@
         <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="3"/>
@@ -1815,7 +1835,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>123</v>
@@ -1834,16 +1854,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
@@ -1853,7 +1873,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1863,7 +1883,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>168</v>
@@ -1882,13 +1902,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="3"/>
@@ -1905,7 +1925,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>152</v>
@@ -1932,13 +1952,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="3"/>
@@ -1955,7 +1975,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>158</v>
@@ -1982,13 +2002,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="3"/>
@@ -2005,7 +2025,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>163</v>
@@ -2032,13 +2052,13 @@
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="3"/>
@@ -2055,7 +2075,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>138</v>
@@ -2082,7 +2102,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
@@ -2105,7 +2125,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>144</v>
@@ -2132,7 +2152,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
@@ -2155,7 +2175,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>148</v>
@@ -2180,7 +2200,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -2189,7 +2209,7 @@
         <v>77</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="1" t="s">
@@ -2199,7 +2219,7 @@
         <v>80</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>79</v>
@@ -2219,13 +2239,13 @@
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>82</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
@@ -2240,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -2249,15 +2269,17 @@
         <v>88</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>274</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>90</v>
@@ -2277,7 +2299,7 @@
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>93</v>
@@ -2296,7 +2318,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -2311,7 +2333,7 @@
         <v>71</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>70</v>
@@ -2331,7 +2353,7 @@
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>73</v>
@@ -2350,7 +2372,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -2359,15 +2381,17 @@
         <v>97</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>99</v>
@@ -2387,13 +2411,13 @@
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
@@ -2408,7 +2432,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -2417,11 +2441,13 @@
         <v>126</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>249</v>
+      </c>
       <c r="G18" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -2437,13 +2463,13 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>127</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
@@ -2458,7 +2484,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -2469,7 +2495,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="3"/>
       <c r="G19" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -2485,13 +2511,13 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>133</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="V19" s="13"/>
       <c r="W19" s="13"/>
@@ -2506,7 +2532,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -2523,7 +2549,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2534,7 +2560,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="13"/>
@@ -2550,7 +2576,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -2567,7 +2593,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
@@ -2579,7 +2605,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -2596,7 +2622,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -2612,7 +2638,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -2623,7 +2649,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -2640,7 +2666,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -2656,7 +2682,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -2669,7 +2695,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -2686,7 +2712,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
@@ -2703,7 +2729,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2714,7 +2740,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="13"/>
@@ -2730,7 +2756,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -2742,10 +2768,10 @@
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
       <c r="H25" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
@@ -2759,7 +2785,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -2776,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
@@ -2788,10 +2814,10 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
       <c r="H26" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
@@ -2805,7 +2831,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -2822,7 +2848,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -2837,7 +2863,7 @@
         <v>65</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>64</v>
@@ -2851,7 +2877,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -2868,7 +2894,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>8</v>
@@ -2877,15 +2903,17 @@
         <v>41</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>44</v>
@@ -2901,7 +2929,7 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
@@ -2916,7 +2944,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>8</v>
@@ -2928,10 +2956,10 @@
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
       <c r="H29" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>50</v>
@@ -2947,7 +2975,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
@@ -2962,7 +2990,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
@@ -2976,10 +3004,10 @@
         <v>228</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2993,7 +3021,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="V30" s="13"/>
       <c r="W30" s="13"/>
@@ -3008,7 +3036,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
@@ -3022,10 +3050,10 @@
         <v>228</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -3039,7 +3067,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="V31" s="13"/>
       <c r="W31" s="13"/>
@@ -3063,14 +3091,16 @@
         <v>14</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="F32" s="3"/>
+        <v>337</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>228</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>16</v>
@@ -3087,7 +3117,7 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
@@ -3116,10 +3146,10 @@
         <v>228</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -3133,7 +3163,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
@@ -3234,13 +3264,13 @@
       <c r="AB36" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="10">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="17"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -3272,7 +3302,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="18"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3302,7 +3332,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="4"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="18"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3332,7 +3362,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="18"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3362,7 +3392,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="18"/>
+      <c r="I41" s="19"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3392,7 +3422,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="4"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="18"/>
+      <c r="I42" s="19"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3422,7 +3452,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="4"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="18"/>
+      <c r="I43" s="19"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>

--- a/usermods/KBIS26/assets/ESP32 Pins (copy 2).xlsx
+++ b/usermods/KBIS26/assets/ESP32 Pins (copy 2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="343">
   <si>
     <t>Name</t>
   </si>
@@ -736,9 +736,6 @@
     <t>Q3</t>
   </si>
   <si>
-    <t>SDA</t>
-  </si>
-  <si>
     <t>ADC2_CH02</t>
   </si>
   <si>
@@ -767,9 +764,6 @@
   </si>
   <si>
     <t>GPIO05</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>SS/CS</t>
@@ -832,6 +826,9 @@
     <t>Q2</t>
   </si>
   <si>
+    <t>reed</t>
+  </si>
+  <si>
     <t>ADC2_CH05</t>
   </si>
   <si>
@@ -871,7 +868,7 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>reed switch</t>
+    <t>SDA</t>
   </si>
   <si>
     <t>ADC2_CH03</t>
@@ -889,6 +886,9 @@
     <t>LED1</t>
   </si>
   <si>
+    <t>(test LED)</t>
+  </si>
+  <si>
     <t>Not available on WROVER</t>
   </si>
   <si>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t>IO17</t>
+  </si>
+  <si>
+    <t>made to GND</t>
   </si>
   <si>
     <t>EMAC_CLK_OUT_180</t>
@@ -1036,6 +1039,9 @@
     <t>A0</t>
   </si>
   <si>
+    <t>pot(backpack)</t>
+  </si>
+  <si>
     <t>RTC_GPIO00</t>
   </si>
   <si>
@@ -1050,7 +1056,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1068,6 +1074,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1124,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1165,14 +1177,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1185,6 +1191,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1503,9 +1512,9 @@
     <col min="2" max="2" style="8" width="19.719285714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="8.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="21" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="24.005" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="8" width="10.005" customWidth="1" bestFit="1"/>
@@ -1520,13 +1529,13 @@
     <col min="19" max="19" style="8" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="8" width="14.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="8" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="20" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="20" width="37.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="20" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="20" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="20" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="20" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="18" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="18" width="37.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="18" width="10.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="10">
@@ -1545,7 +1554,7 @@
       <c r="E1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>210</v>
       </c>
       <c r="G1" s="12" t="s">
@@ -1615,7 +1624,7 @@
       <c r="E2" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="1" t="s">
         <v>228</v>
       </c>
@@ -1665,7 +1674,7 @@
         <v>233</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="1" t="s">
         <v>228</v>
       </c>
@@ -1711,9 +1720,7 @@
       <c r="E4" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>238</v>
-      </c>
+      <c r="F4" s="14"/>
       <c r="G4" s="1" t="s">
         <v>228</v>
       </c>
@@ -1721,7 +1728,7 @@
         <v>108</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>107</v>
@@ -1743,7 +1750,7 @@
         <v>110</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
@@ -1758,18 +1765,18 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="1" t="s">
         <v>228</v>
       </c>
@@ -1802,16 +1809,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
         <v>121</v>
@@ -1835,7 +1842,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>123</v>
@@ -1854,18 +1861,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>247</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1873,7 +1878,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1883,7 +1888,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>168</v>
@@ -1902,16 +1907,16 @@
         <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="6" t="s">
         <v>228</v>
       </c>
@@ -1925,7 +1930,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>152</v>
@@ -1952,16 +1957,16 @@
         <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="6" t="s">
         <v>228</v>
       </c>
@@ -1975,7 +1980,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>158</v>
@@ -2002,16 +2007,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="6" t="s">
         <v>228</v>
       </c>
@@ -2025,7 +2030,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>163</v>
@@ -2052,16 +2057,16 @@
         <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="6" t="s">
         <v>228</v>
       </c>
@@ -2075,7 +2080,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>138</v>
@@ -2102,7 +2107,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
@@ -2111,7 +2116,7 @@
         <v>143</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="6" t="s">
         <v>228</v>
       </c>
@@ -2125,7 +2130,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>144</v>
@@ -2152,7 +2157,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
@@ -2161,7 +2166,7 @@
         <v>147</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="6" t="s">
         <v>228</v>
       </c>
@@ -2175,7 +2180,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>148</v>
@@ -2200,7 +2205,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -2209,9 +2214,11 @@
         <v>77</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>267</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>268</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>228</v>
       </c>
@@ -2219,7 +2226,7 @@
         <v>80</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>79</v>
@@ -2239,13 +2246,13 @@
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>82</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
@@ -2255,12 +2262,12 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33.75">
       <c r="A15" s="4">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -2269,17 +2276,17 @@
         <v>88</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>90</v>
@@ -2299,7 +2306,7 @@
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>93</v>
@@ -2318,7 +2325,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -2327,13 +2334,13 @@
         <v>68</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>70</v>
@@ -2353,7 +2360,7 @@
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>73</v>
@@ -2372,7 +2379,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -2381,17 +2388,17 @@
         <v>97</v>
       </c>
       <c r="E17" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>282</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>99</v>
@@ -2411,13 +2418,13 @@
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>102</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V17" s="13"/>
       <c r="W17" s="13"/>
@@ -2432,7 +2439,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -2441,10 +2448,10 @@
         <v>126</v>
       </c>
       <c r="E18" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>249</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>289</v>
@@ -2493,7 +2500,9 @@
         <v>132</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="14" t="s">
+        <v>293</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>289</v>
       </c>
@@ -2511,7 +2520,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>133</v>
@@ -2532,7 +2541,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -2541,7 +2550,7 @@
         <v>170</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -2549,7 +2558,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2560,7 +2569,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="13"/>
@@ -2576,7 +2585,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -2585,7 +2594,7 @@
         <v>178</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -2593,7 +2602,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
@@ -2605,7 +2614,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -2622,7 +2631,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -2631,14 +2640,14 @@
         <v>193</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="4"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -2649,7 +2658,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -2666,7 +2675,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -2675,14 +2684,14 @@
         <v>182</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -2695,7 +2704,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -2712,7 +2721,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
@@ -2721,7 +2730,7 @@
         <v>173</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -2729,7 +2738,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2740,7 +2749,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="13"/>
@@ -2756,7 +2765,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -2765,13 +2774,13 @@
         <v>52</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="4"/>
       <c r="H25" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
@@ -2785,7 +2794,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -2802,7 +2811,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
@@ -2811,13 +2820,13 @@
         <v>57</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="4"/>
       <c r="H26" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
@@ -2831,7 +2840,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -2848,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -2857,13 +2866,13 @@
         <v>62</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="4"/>
       <c r="H27" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>64</v>
@@ -2877,7 +2886,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -2894,7 +2903,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>8</v>
@@ -2903,17 +2912,17 @@
         <v>41</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="F28" s="3" t="s">
         <v>322</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>323</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>44</v>
@@ -2929,7 +2938,7 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
@@ -2944,7 +2953,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>8</v>
@@ -2953,13 +2962,13 @@
         <v>47</v>
       </c>
       <c r="E29" s="13"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="4"/>
       <c r="H29" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>50</v>
@@ -2975,7 +2984,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
@@ -2990,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
@@ -2999,15 +3008,15 @@
         <v>33</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="1" t="s">
         <v>228</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -3021,7 +3030,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V30" s="13"/>
       <c r="W30" s="13"/>
@@ -3036,7 +3045,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>13</v>
@@ -3045,15 +3054,15 @@
         <v>37</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="1" t="s">
         <v>228</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -3067,7 +3076,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V31" s="13"/>
       <c r="W31" s="13"/>
@@ -3091,16 +3100,16 @@
         <v>14</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>275</v>
+        <v>338</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>339</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>228</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>16</v>
@@ -3117,7 +3126,7 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
@@ -3141,15 +3150,15 @@
         <v>27</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="1" t="s">
         <v>228</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -3163,7 +3172,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
@@ -3179,7 +3188,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3209,7 +3218,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="4"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -3239,7 +3248,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="4"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3264,13 +3273,13 @@
       <c r="AB36" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="10">
-      <c r="A37" s="17"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="18"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -3299,10 +3308,10 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="4"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3329,10 +3338,10 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="4"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="19"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3359,10 +3368,10 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="4"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="19"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3389,10 +3398,10 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="4"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="19"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3419,10 +3428,10 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="4"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="19"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3449,10 +3458,10 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="4"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="19"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3479,7 +3488,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="13"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="4"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -3509,7 +3518,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -3539,7 +3548,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="4"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -3569,7 +3578,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="3"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="4"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -3599,7 +3608,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="4"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -3629,7 +3638,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="3"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="4"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -3659,7 +3668,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="13"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="4"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -3689,7 +3698,7 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="13"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="4"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -3719,7 +3728,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="4"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -3749,7 +3758,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="13"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -3779,7 +3788,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="13"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="4"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -3809,7 +3818,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="14"/>
       <c r="G55" s="4"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -3839,7 +3848,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="13"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="4"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -3869,7 +3878,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="13"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="4"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -3899,7 +3908,7 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="13"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="4"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -3929,7 +3938,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="13"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="4"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -3959,7 +3968,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="13"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="4"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -3989,7 +3998,7 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="13"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="4"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -4019,7 +4028,7 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="13"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="14"/>
       <c r="G62" s="4"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -4049,7 +4058,7 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="13"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="14"/>
       <c r="G63" s="4"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -4079,7 +4088,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="13"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="14"/>
       <c r="G64" s="4"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -4109,7 +4118,7 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="13"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="14"/>
       <c r="G65" s="4"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -4139,7 +4148,7 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="3"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="4"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -4169,7 +4178,7 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="3"/>
+      <c r="F67" s="14"/>
       <c r="G67" s="4"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -4199,7 +4208,7 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="3"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="4"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -4229,7 +4238,7 @@
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="13"/>
-      <c r="F69" s="3"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="4"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -4259,7 +4268,7 @@
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="13"/>
-      <c r="F70" s="3"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="4"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -4289,7 +4298,7 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="13"/>
-      <c r="F71" s="3"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="4"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -4319,7 +4328,7 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="13"/>
-      <c r="F72" s="3"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="4"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -4349,7 +4358,7 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="13"/>
-      <c r="F73" s="3"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="4"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -4379,7 +4388,7 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="13"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="4"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -4409,7 +4418,7 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="13"/>
-      <c r="F75" s="3"/>
+      <c r="F75" s="14"/>
       <c r="G75" s="4"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -4439,7 +4448,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="13"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="14"/>
       <c r="G76" s="4"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -4469,7 +4478,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="13"/>
-      <c r="F77" s="3"/>
+      <c r="F77" s="14"/>
       <c r="G77" s="4"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -4499,7 +4508,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="13"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="14"/>
       <c r="G78" s="4"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -4529,7 +4538,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="13"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="14"/>
       <c r="G79" s="4"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -4559,7 +4568,7 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="13"/>
-      <c r="F80" s="3"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="4"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -4589,7 +4598,7 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="13"/>
-      <c r="F81" s="3"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="4"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -4619,7 +4628,7 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="13"/>
-      <c r="F82" s="3"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="4"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4649,7 +4658,7 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="13"/>
-      <c r="F83" s="3"/>
+      <c r="F83" s="14"/>
       <c r="G83" s="4"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -4679,7 +4688,7 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="13"/>
-      <c r="F84" s="3"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="4"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -4709,7 +4718,7 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="13"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="4"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -4739,7 +4748,7 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="13"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="14"/>
       <c r="G86" s="4"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -4769,7 +4778,7 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="13"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="14"/>
       <c r="G87" s="4"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -4799,7 +4808,7 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="13"/>
-      <c r="F88" s="3"/>
+      <c r="F88" s="14"/>
       <c r="G88" s="4"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -4829,7 +4838,7 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="13"/>
-      <c r="F89" s="3"/>
+      <c r="F89" s="14"/>
       <c r="G89" s="4"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -4859,7 +4868,7 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="13"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="4"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -4889,7 +4898,7 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="13"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="14"/>
       <c r="G91" s="4"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4919,7 +4928,7 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="13"/>
-      <c r="F92" s="3"/>
+      <c r="F92" s="14"/>
       <c r="G92" s="4"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -4949,7 +4958,7 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="13"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="4"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4979,7 +4988,7 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="13"/>
-      <c r="F94" s="3"/>
+      <c r="F94" s="14"/>
       <c r="G94" s="4"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -5009,7 +5018,7 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="13"/>
-      <c r="F95" s="3"/>
+      <c r="F95" s="14"/>
       <c r="G95" s="4"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -5039,7 +5048,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="13"/>
-      <c r="F96" s="3"/>
+      <c r="F96" s="14"/>
       <c r="G96" s="4"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -5069,7 +5078,7 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="13"/>
-      <c r="F97" s="3"/>
+      <c r="F97" s="14"/>
       <c r="G97" s="4"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -5099,7 +5108,7 @@
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="13"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="14"/>
       <c r="G98" s="4"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -5129,7 +5138,7 @@
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="13"/>
-      <c r="F99" s="3"/>
+      <c r="F99" s="14"/>
       <c r="G99" s="4"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -5159,7 +5168,7 @@
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="13"/>
-      <c r="F100" s="3"/>
+      <c r="F100" s="14"/>
       <c r="G100" s="4"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -5189,7 +5198,7 @@
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="13"/>
-      <c r="F101" s="3"/>
+      <c r="F101" s="14"/>
       <c r="G101" s="4"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -5219,7 +5228,7 @@
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="13"/>
-      <c r="F102" s="3"/>
+      <c r="F102" s="14"/>
       <c r="G102" s="4"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -5249,7 +5258,7 @@
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="13"/>
-      <c r="F103" s="3"/>
+      <c r="F103" s="14"/>
       <c r="G103" s="4"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -5279,7 +5288,7 @@
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="13"/>
-      <c r="F104" s="3"/>
+      <c r="F104" s="14"/>
       <c r="G104" s="4"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -5309,7 +5318,7 @@
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="13"/>
-      <c r="F105" s="3"/>
+      <c r="F105" s="14"/>
       <c r="G105" s="4"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -5339,7 +5348,7 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="13"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="4"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -5369,7 +5378,7 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="13"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="14"/>
       <c r="G107" s="4"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -5399,7 +5408,7 @@
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="13"/>
-      <c r="F108" s="3"/>
+      <c r="F108" s="14"/>
       <c r="G108" s="4"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -5429,7 +5438,7 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="13"/>
-      <c r="F109" s="3"/>
+      <c r="F109" s="14"/>
       <c r="G109" s="4"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -5459,7 +5468,7 @@
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="13"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="14"/>
       <c r="G110" s="4"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -5489,7 +5498,7 @@
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="13"/>
-      <c r="F111" s="3"/>
+      <c r="F111" s="14"/>
       <c r="G111" s="4"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -5519,7 +5528,7 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="13"/>
-      <c r="F112" s="3"/>
+      <c r="F112" s="14"/>
       <c r="G112" s="4"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -5549,7 +5558,7 @@
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="13"/>
-      <c r="F113" s="3"/>
+      <c r="F113" s="14"/>
       <c r="G113" s="4"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -5579,7 +5588,7 @@
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="13"/>
-      <c r="F114" s="3"/>
+      <c r="F114" s="14"/>
       <c r="G114" s="4"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -5609,7 +5618,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="13"/>
-      <c r="F115" s="3"/>
+      <c r="F115" s="14"/>
       <c r="G115" s="4"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -5639,7 +5648,7 @@
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="13"/>
-      <c r="F116" s="3"/>
+      <c r="F116" s="14"/>
       <c r="G116" s="4"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -5669,7 +5678,7 @@
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="13"/>
-      <c r="F117" s="3"/>
+      <c r="F117" s="14"/>
       <c r="G117" s="4"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -5699,7 +5708,7 @@
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="13"/>
-      <c r="F118" s="3"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="4"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -5729,7 +5738,7 @@
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="13"/>
-      <c r="F119" s="3"/>
+      <c r="F119" s="14"/>
       <c r="G119" s="4"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -5759,7 +5768,7 @@
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="13"/>
-      <c r="F120" s="3"/>
+      <c r="F120" s="14"/>
       <c r="G120" s="4"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -5789,7 +5798,7 @@
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="13"/>
-      <c r="F121" s="3"/>
+      <c r="F121" s="14"/>
       <c r="G121" s="4"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -5819,7 +5828,7 @@
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="13"/>
-      <c r="F122" s="3"/>
+      <c r="F122" s="14"/>
       <c r="G122" s="4"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -5849,7 +5858,7 @@
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="13"/>
-      <c r="F123" s="3"/>
+      <c r="F123" s="14"/>
       <c r="G123" s="4"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -5879,7 +5888,7 @@
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="13"/>
-      <c r="F124" s="3"/>
+      <c r="F124" s="14"/>
       <c r="G124" s="4"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -5909,7 +5918,7 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="13"/>
-      <c r="F125" s="3"/>
+      <c r="F125" s="14"/>
       <c r="G125" s="4"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
@@ -5939,7 +5948,7 @@
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="13"/>
-      <c r="F126" s="3"/>
+      <c r="F126" s="14"/>
       <c r="G126" s="4"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -5969,7 +5978,7 @@
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="13"/>
-      <c r="F127" s="3"/>
+      <c r="F127" s="14"/>
       <c r="G127" s="4"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -5999,7 +6008,7 @@
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="13"/>
-      <c r="F128" s="3"/>
+      <c r="F128" s="14"/>
       <c r="G128" s="4"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -6029,7 +6038,7 @@
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="13"/>
-      <c r="F129" s="3"/>
+      <c r="F129" s="14"/>
       <c r="G129" s="4"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -6059,7 +6068,7 @@
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="13"/>
-      <c r="F130" s="3"/>
+      <c r="F130" s="14"/>
       <c r="G130" s="4"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -6089,7 +6098,7 @@
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="13"/>
-      <c r="F131" s="3"/>
+      <c r="F131" s="14"/>
       <c r="G131" s="4"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -6119,7 +6128,7 @@
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="13"/>
-      <c r="F132" s="3"/>
+      <c r="F132" s="14"/>
       <c r="G132" s="4"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -6149,7 +6158,7 @@
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="13"/>
-      <c r="F133" s="3"/>
+      <c r="F133" s="14"/>
       <c r="G133" s="4"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -6179,7 +6188,7 @@
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="13"/>
-      <c r="F134" s="3"/>
+      <c r="F134" s="14"/>
       <c r="G134" s="4"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -6209,7 +6218,7 @@
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="13"/>
-      <c r="F135" s="3"/>
+      <c r="F135" s="14"/>
       <c r="G135" s="4"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -6239,7 +6248,7 @@
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="13"/>
-      <c r="F136" s="3"/>
+      <c r="F136" s="14"/>
       <c r="G136" s="4"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -6269,7 +6278,7 @@
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="13"/>
-      <c r="F137" s="3"/>
+      <c r="F137" s="14"/>
       <c r="G137" s="4"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -6299,7 +6308,7 @@
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="13"/>
-      <c r="F138" s="3"/>
+      <c r="F138" s="14"/>
       <c r="G138" s="4"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
@@ -6329,7 +6338,7 @@
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="13"/>
-      <c r="F139" s="3"/>
+      <c r="F139" s="14"/>
       <c r="G139" s="4"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -6359,7 +6368,7 @@
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="13"/>
-      <c r="F140" s="3"/>
+      <c r="F140" s="14"/>
       <c r="G140" s="4"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
@@ -6389,7 +6398,7 @@
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="13"/>
-      <c r="F141" s="3"/>
+      <c r="F141" s="14"/>
       <c r="G141" s="4"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -6419,7 +6428,7 @@
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="13"/>
-      <c r="F142" s="3"/>
+      <c r="F142" s="14"/>
       <c r="G142" s="4"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -6449,7 +6458,7 @@
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="13"/>
-      <c r="F143" s="3"/>
+      <c r="F143" s="14"/>
       <c r="G143" s="4"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
@@ -6479,7 +6488,7 @@
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="13"/>
-      <c r="F144" s="3"/>
+      <c r="F144" s="14"/>
       <c r="G144" s="4"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
@@ -6509,7 +6518,7 @@
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="13"/>
-      <c r="F145" s="3"/>
+      <c r="F145" s="14"/>
       <c r="G145" s="4"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
@@ -6539,7 +6548,7 @@
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="13"/>
-      <c r="F146" s="3"/>
+      <c r="F146" s="14"/>
       <c r="G146" s="4"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
@@ -6569,7 +6578,7 @@
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="13"/>
-      <c r="F147" s="3"/>
+      <c r="F147" s="14"/>
       <c r="G147" s="4"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
@@ -6599,7 +6608,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="13"/>
-      <c r="F148" s="3"/>
+      <c r="F148" s="14"/>
       <c r="G148" s="4"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -6629,7 +6638,7 @@
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="13"/>
-      <c r="F149" s="3"/>
+      <c r="F149" s="14"/>
       <c r="G149" s="4"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
@@ -6659,7 +6668,7 @@
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="13"/>
-      <c r="F150" s="3"/>
+      <c r="F150" s="14"/>
       <c r="G150" s="4"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
@@ -6689,7 +6698,7 @@
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="13"/>
-      <c r="F151" s="3"/>
+      <c r="F151" s="14"/>
       <c r="G151" s="4"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -6719,7 +6728,7 @@
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="13"/>
-      <c r="F152" s="3"/>
+      <c r="F152" s="14"/>
       <c r="G152" s="4"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
@@ -6749,7 +6758,7 @@
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="13"/>
-      <c r="F153" s="3"/>
+      <c r="F153" s="14"/>
       <c r="G153" s="4"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
@@ -6779,7 +6788,7 @@
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="13"/>
-      <c r="F154" s="3"/>
+      <c r="F154" s="14"/>
       <c r="G154" s="4"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -6809,7 +6818,7 @@
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="13"/>
-      <c r="F155" s="3"/>
+      <c r="F155" s="14"/>
       <c r="G155" s="4"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
@@ -6839,7 +6848,7 @@
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="13"/>
-      <c r="F156" s="3"/>
+      <c r="F156" s="14"/>
       <c r="G156" s="4"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -6869,7 +6878,7 @@
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="13"/>
-      <c r="F157" s="3"/>
+      <c r="F157" s="14"/>
       <c r="G157" s="4"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
@@ -6899,7 +6908,7 @@
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="13"/>
-      <c r="F158" s="3"/>
+      <c r="F158" s="14"/>
       <c r="G158" s="4"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -6929,7 +6938,7 @@
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="13"/>
-      <c r="F159" s="3"/>
+      <c r="F159" s="14"/>
       <c r="G159" s="4"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
@@ -6959,7 +6968,7 @@
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="13"/>
-      <c r="F160" s="3"/>
+      <c r="F160" s="14"/>
       <c r="G160" s="4"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -6989,7 +6998,7 @@
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="13"/>
-      <c r="F161" s="3"/>
+      <c r="F161" s="14"/>
       <c r="G161" s="4"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
@@ -7019,7 +7028,7 @@
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="13"/>
-      <c r="F162" s="3"/>
+      <c r="F162" s="14"/>
       <c r="G162" s="4"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -7049,7 +7058,7 @@
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="13"/>
-      <c r="F163" s="3"/>
+      <c r="F163" s="14"/>
       <c r="G163" s="4"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -7079,7 +7088,7 @@
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="13"/>
-      <c r="F164" s="3"/>
+      <c r="F164" s="14"/>
       <c r="G164" s="4"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -7109,7 +7118,7 @@
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="13"/>
-      <c r="F165" s="3"/>
+      <c r="F165" s="14"/>
       <c r="G165" s="4"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
@@ -7139,7 +7148,7 @@
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="13"/>
-      <c r="F166" s="3"/>
+      <c r="F166" s="14"/>
       <c r="G166" s="4"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -7169,7 +7178,7 @@
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="13"/>
-      <c r="F167" s="3"/>
+      <c r="F167" s="14"/>
       <c r="G167" s="4"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -7199,7 +7208,7 @@
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="13"/>
-      <c r="F168" s="3"/>
+      <c r="F168" s="14"/>
       <c r="G168" s="4"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -7229,7 +7238,7 @@
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="13"/>
-      <c r="F169" s="3"/>
+      <c r="F169" s="14"/>
       <c r="G169" s="4"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -7259,7 +7268,7 @@
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="13"/>
-      <c r="F170" s="3"/>
+      <c r="F170" s="14"/>
       <c r="G170" s="4"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
@@ -7289,7 +7298,7 @@
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="13"/>
-      <c r="F171" s="3"/>
+      <c r="F171" s="14"/>
       <c r="G171" s="4"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
@@ -7319,7 +7328,7 @@
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="13"/>
-      <c r="F172" s="3"/>
+      <c r="F172" s="14"/>
       <c r="G172" s="4"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -7349,7 +7358,7 @@
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="13"/>
-      <c r="F173" s="3"/>
+      <c r="F173" s="14"/>
       <c r="G173" s="4"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
@@ -7379,7 +7388,7 @@
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="13"/>
-      <c r="F174" s="3"/>
+      <c r="F174" s="14"/>
       <c r="G174" s="4"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
@@ -7409,7 +7418,7 @@
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="13"/>
-      <c r="F175" s="3"/>
+      <c r="F175" s="14"/>
       <c r="G175" s="4"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
@@ -7439,7 +7448,7 @@
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="13"/>
-      <c r="F176" s="3"/>
+      <c r="F176" s="14"/>
       <c r="G176" s="4"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -7469,7 +7478,7 @@
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="13"/>
-      <c r="F177" s="3"/>
+      <c r="F177" s="14"/>
       <c r="G177" s="4"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
@@ -7499,7 +7508,7 @@
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="13"/>
-      <c r="F178" s="3"/>
+      <c r="F178" s="14"/>
       <c r="G178" s="4"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
@@ -7529,7 +7538,7 @@
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="13"/>
-      <c r="F179" s="3"/>
+      <c r="F179" s="14"/>
       <c r="G179" s="4"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
@@ -7559,7 +7568,7 @@
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="13"/>
-      <c r="F180" s="3"/>
+      <c r="F180" s="14"/>
       <c r="G180" s="4"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
@@ -7589,7 +7598,7 @@
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="13"/>
-      <c r="F181" s="3"/>
+      <c r="F181" s="14"/>
       <c r="G181" s="4"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
@@ -7619,7 +7628,7 @@
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="13"/>
-      <c r="F182" s="3"/>
+      <c r="F182" s="14"/>
       <c r="G182" s="4"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
@@ -7649,7 +7658,7 @@
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="13"/>
-      <c r="F183" s="3"/>
+      <c r="F183" s="14"/>
       <c r="G183" s="4"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
@@ -7679,7 +7688,7 @@
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="13"/>
-      <c r="F184" s="3"/>
+      <c r="F184" s="14"/>
       <c r="G184" s="4"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
@@ -7709,7 +7718,7 @@
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="13"/>
-      <c r="F185" s="3"/>
+      <c r="F185" s="14"/>
       <c r="G185" s="4"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
@@ -7739,7 +7748,7 @@
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="13"/>
-      <c r="F186" s="3"/>
+      <c r="F186" s="14"/>
       <c r="G186" s="4"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
@@ -7769,7 +7778,7 @@
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="13"/>
-      <c r="F187" s="3"/>
+      <c r="F187" s="14"/>
       <c r="G187" s="4"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
@@ -7799,7 +7808,7 @@
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="13"/>
-      <c r="F188" s="3"/>
+      <c r="F188" s="14"/>
       <c r="G188" s="4"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
@@ -7829,7 +7838,7 @@
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="13"/>
-      <c r="F189" s="3"/>
+      <c r="F189" s="14"/>
       <c r="G189" s="4"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
@@ -7859,7 +7868,7 @@
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="13"/>
-      <c r="F190" s="3"/>
+      <c r="F190" s="14"/>
       <c r="G190" s="4"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
@@ -7889,7 +7898,7 @@
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="13"/>
-      <c r="F191" s="3"/>
+      <c r="F191" s="14"/>
       <c r="G191" s="4"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
@@ -7919,7 +7928,7 @@
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="13"/>
-      <c r="F192" s="3"/>
+      <c r="F192" s="14"/>
       <c r="G192" s="4"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -7949,7 +7958,7 @@
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="13"/>
-      <c r="F193" s="3"/>
+      <c r="F193" s="14"/>
       <c r="G193" s="4"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
@@ -7979,7 +7988,7 @@
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="13"/>
-      <c r="F194" s="3"/>
+      <c r="F194" s="14"/>
       <c r="G194" s="4"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
@@ -8009,7 +8018,7 @@
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="13"/>
-      <c r="F195" s="3"/>
+      <c r="F195" s="14"/>
       <c r="G195" s="4"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
@@ -8039,7 +8048,7 @@
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="13"/>
-      <c r="F196" s="3"/>
+      <c r="F196" s="14"/>
       <c r="G196" s="4"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
@@ -8069,7 +8078,7 @@
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="13"/>
-      <c r="F197" s="3"/>
+      <c r="F197" s="14"/>
       <c r="G197" s="4"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
@@ -8099,7 +8108,7 @@
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="13"/>
-      <c r="F198" s="3"/>
+      <c r="F198" s="14"/>
       <c r="G198" s="4"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -8129,7 +8138,7 @@
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="13"/>
-      <c r="F199" s="3"/>
+      <c r="F199" s="14"/>
       <c r="G199" s="4"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
@@ -8159,7 +8168,7 @@
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="13"/>
-      <c r="F200" s="3"/>
+      <c r="F200" s="14"/>
       <c r="G200" s="4"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
@@ -8189,7 +8198,7 @@
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="13"/>
-      <c r="F201" s="3"/>
+      <c r="F201" s="14"/>
       <c r="G201" s="4"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
@@ -8219,7 +8228,7 @@
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="13"/>
-      <c r="F202" s="3"/>
+      <c r="F202" s="14"/>
       <c r="G202" s="4"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
@@ -8249,7 +8258,7 @@
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="13"/>
-      <c r="F203" s="3"/>
+      <c r="F203" s="14"/>
       <c r="G203" s="4"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
@@ -8279,7 +8288,7 @@
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="13"/>
-      <c r="F204" s="3"/>
+      <c r="F204" s="14"/>
       <c r="G204" s="4"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
@@ -8309,7 +8318,7 @@
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="13"/>
-      <c r="F205" s="3"/>
+      <c r="F205" s="14"/>
       <c r="G205" s="4"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
@@ -8339,7 +8348,7 @@
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="13"/>
-      <c r="F206" s="3"/>
+      <c r="F206" s="14"/>
       <c r="G206" s="4"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
@@ -8369,7 +8378,7 @@
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="13"/>
-      <c r="F207" s="3"/>
+      <c r="F207" s="14"/>
       <c r="G207" s="4"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
@@ -8399,7 +8408,7 @@
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="13"/>
-      <c r="F208" s="3"/>
+      <c r="F208" s="14"/>
       <c r="G208" s="4"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
@@ -8429,7 +8438,7 @@
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="13"/>
-      <c r="F209" s="3"/>
+      <c r="F209" s="14"/>
       <c r="G209" s="4"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
@@ -8459,7 +8468,7 @@
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="13"/>
-      <c r="F210" s="3"/>
+      <c r="F210" s="14"/>
       <c r="G210" s="4"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
@@ -8489,7 +8498,7 @@
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="13"/>
-      <c r="F211" s="3"/>
+      <c r="F211" s="14"/>
       <c r="G211" s="4"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
@@ -8519,7 +8528,7 @@
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="13"/>
-      <c r="F212" s="3"/>
+      <c r="F212" s="14"/>
       <c r="G212" s="4"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
@@ -8549,7 +8558,7 @@
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="13"/>
-      <c r="F213" s="3"/>
+      <c r="F213" s="14"/>
       <c r="G213" s="4"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
@@ -8579,7 +8588,7 @@
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="13"/>
-      <c r="F214" s="3"/>
+      <c r="F214" s="14"/>
       <c r="G214" s="4"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
@@ -8609,7 +8618,7 @@
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="13"/>
-      <c r="F215" s="3"/>
+      <c r="F215" s="14"/>
       <c r="G215" s="4"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
@@ -8639,7 +8648,7 @@
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="13"/>
-      <c r="F216" s="3"/>
+      <c r="F216" s="14"/>
       <c r="G216" s="4"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
@@ -8669,7 +8678,7 @@
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="13"/>
-      <c r="F217" s="3"/>
+      <c r="F217" s="14"/>
       <c r="G217" s="4"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
@@ -8699,7 +8708,7 @@
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="13"/>
-      <c r="F218" s="3"/>
+      <c r="F218" s="14"/>
       <c r="G218" s="4"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
@@ -8729,7 +8738,7 @@
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="13"/>
-      <c r="F219" s="3"/>
+      <c r="F219" s="14"/>
       <c r="G219" s="4"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
@@ -8759,7 +8768,7 @@
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="13"/>
-      <c r="F220" s="3"/>
+      <c r="F220" s="14"/>
       <c r="G220" s="4"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
@@ -8789,7 +8798,7 @@
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="13"/>
-      <c r="F221" s="3"/>
+      <c r="F221" s="14"/>
       <c r="G221" s="4"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
@@ -8819,7 +8828,7 @@
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="13"/>
-      <c r="F222" s="3"/>
+      <c r="F222" s="14"/>
       <c r="G222" s="4"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
@@ -8849,7 +8858,7 @@
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="13"/>
-      <c r="F223" s="3"/>
+      <c r="F223" s="14"/>
       <c r="G223" s="4"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
@@ -8879,7 +8888,7 @@
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="13"/>
-      <c r="F224" s="3"/>
+      <c r="F224" s="14"/>
       <c r="G224" s="4"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
@@ -8909,7 +8918,7 @@
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="13"/>
-      <c r="F225" s="3"/>
+      <c r="F225" s="14"/>
       <c r="G225" s="4"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
@@ -8939,7 +8948,7 @@
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="13"/>
-      <c r="F226" s="3"/>
+      <c r="F226" s="14"/>
       <c r="G226" s="4"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
@@ -8969,7 +8978,7 @@
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="13"/>
-      <c r="F227" s="3"/>
+      <c r="F227" s="14"/>
       <c r="G227" s="4"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
@@ -8999,7 +9008,7 @@
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="13"/>
-      <c r="F228" s="3"/>
+      <c r="F228" s="14"/>
       <c r="G228" s="4"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
@@ -9029,7 +9038,7 @@
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="13"/>
-      <c r="F229" s="3"/>
+      <c r="F229" s="14"/>
       <c r="G229" s="4"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
@@ -9059,7 +9068,7 @@
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="13"/>
-      <c r="F230" s="3"/>
+      <c r="F230" s="14"/>
       <c r="G230" s="4"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
@@ -9089,7 +9098,7 @@
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="13"/>
-      <c r="F231" s="3"/>
+      <c r="F231" s="14"/>
       <c r="G231" s="4"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
@@ -9119,7 +9128,7 @@
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="13"/>
-      <c r="F232" s="3"/>
+      <c r="F232" s="14"/>
       <c r="G232" s="4"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
@@ -9149,7 +9158,7 @@
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="13"/>
-      <c r="F233" s="3"/>
+      <c r="F233" s="14"/>
       <c r="G233" s="4"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
@@ -9179,7 +9188,7 @@
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="13"/>
-      <c r="F234" s="3"/>
+      <c r="F234" s="14"/>
       <c r="G234" s="4"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
@@ -9209,7 +9218,7 @@
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="13"/>
-      <c r="F235" s="3"/>
+      <c r="F235" s="14"/>
       <c r="G235" s="4"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
@@ -9239,7 +9248,7 @@
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="13"/>
-      <c r="F236" s="3"/>
+      <c r="F236" s="14"/>
       <c r="G236" s="4"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
@@ -9269,7 +9278,7 @@
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="13"/>
-      <c r="F237" s="3"/>
+      <c r="F237" s="14"/>
       <c r="G237" s="4"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
@@ -9299,7 +9308,7 @@
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="13"/>
-      <c r="F238" s="3"/>
+      <c r="F238" s="14"/>
       <c r="G238" s="4"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
@@ -9329,7 +9338,7 @@
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="13"/>
-      <c r="F239" s="3"/>
+      <c r="F239" s="14"/>
       <c r="G239" s="4"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
@@ -9359,7 +9368,7 @@
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="13"/>
-      <c r="F240" s="3"/>
+      <c r="F240" s="14"/>
       <c r="G240" s="4"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
@@ -9389,7 +9398,7 @@
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="13"/>
-      <c r="F241" s="3"/>
+      <c r="F241" s="14"/>
       <c r="G241" s="4"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
@@ -9419,7 +9428,7 @@
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="13"/>
-      <c r="F242" s="3"/>
+      <c r="F242" s="14"/>
       <c r="G242" s="4"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
@@ -9449,7 +9458,7 @@
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="13"/>
-      <c r="F243" s="3"/>
+      <c r="F243" s="14"/>
       <c r="G243" s="4"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
@@ -9479,7 +9488,7 @@
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="13"/>
-      <c r="F244" s="3"/>
+      <c r="F244" s="14"/>
       <c r="G244" s="4"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
@@ -9509,7 +9518,7 @@
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="13"/>
-      <c r="F245" s="3"/>
+      <c r="F245" s="14"/>
       <c r="G245" s="4"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
@@ -9539,7 +9548,7 @@
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="13"/>
-      <c r="F246" s="3"/>
+      <c r="F246" s="14"/>
       <c r="G246" s="4"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
@@ -9569,7 +9578,7 @@
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="13"/>
-      <c r="F247" s="3"/>
+      <c r="F247" s="14"/>
       <c r="G247" s="4"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
@@ -9599,7 +9608,7 @@
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="13"/>
-      <c r="F248" s="3"/>
+      <c r="F248" s="14"/>
       <c r="G248" s="4"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
@@ -9629,7 +9638,7 @@
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="13"/>
-      <c r="F249" s="3"/>
+      <c r="F249" s="14"/>
       <c r="G249" s="4"/>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
@@ -9659,7 +9668,7 @@
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="13"/>
-      <c r="F250" s="3"/>
+      <c r="F250" s="14"/>
       <c r="G250" s="4"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
@@ -9689,7 +9698,7 @@
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="13"/>
-      <c r="F251" s="3"/>
+      <c r="F251" s="14"/>
       <c r="G251" s="4"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
@@ -9719,7 +9728,7 @@
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="13"/>
-      <c r="F252" s="3"/>
+      <c r="F252" s="14"/>
       <c r="G252" s="4"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
@@ -9749,7 +9758,7 @@
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="13"/>
-      <c r="F253" s="3"/>
+      <c r="F253" s="14"/>
       <c r="G253" s="4"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
@@ -9779,7 +9788,7 @@
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="13"/>
-      <c r="F254" s="3"/>
+      <c r="F254" s="14"/>
       <c r="G254" s="4"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
@@ -9809,7 +9818,7 @@
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="13"/>
-      <c r="F255" s="3"/>
+      <c r="F255" s="14"/>
       <c r="G255" s="4"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
@@ -9839,7 +9848,7 @@
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="13"/>
-      <c r="F256" s="3"/>
+      <c r="F256" s="14"/>
       <c r="G256" s="4"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
@@ -9869,7 +9878,7 @@
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="13"/>
-      <c r="F257" s="3"/>
+      <c r="F257" s="14"/>
       <c r="G257" s="4"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
@@ -9899,7 +9908,7 @@
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="13"/>
-      <c r="F258" s="3"/>
+      <c r="F258" s="14"/>
       <c r="G258" s="4"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
@@ -9929,7 +9938,7 @@
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="13"/>
-      <c r="F259" s="3"/>
+      <c r="F259" s="14"/>
       <c r="G259" s="4"/>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
@@ -9959,7 +9968,7 @@
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="13"/>
-      <c r="F260" s="3"/>
+      <c r="F260" s="14"/>
       <c r="G260" s="4"/>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
@@ -9989,7 +9998,7 @@
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="13"/>
-      <c r="F261" s="3"/>
+      <c r="F261" s="14"/>
       <c r="G261" s="4"/>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
@@ -10019,7 +10028,7 @@
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="13"/>
-      <c r="F262" s="3"/>
+      <c r="F262" s="14"/>
       <c r="G262" s="4"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
@@ -10049,7 +10058,7 @@
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="13"/>
-      <c r="F263" s="3"/>
+      <c r="F263" s="14"/>
       <c r="G263" s="4"/>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
@@ -10079,7 +10088,7 @@
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="13"/>
-      <c r="F264" s="3"/>
+      <c r="F264" s="14"/>
       <c r="G264" s="4"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
@@ -10109,7 +10118,7 @@
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="13"/>
-      <c r="F265" s="3"/>
+      <c r="F265" s="14"/>
       <c r="G265" s="4"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
@@ -10139,7 +10148,7 @@
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="13"/>
-      <c r="F266" s="3"/>
+      <c r="F266" s="14"/>
       <c r="G266" s="4"/>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
@@ -10169,7 +10178,7 @@
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="13"/>
-      <c r="F267" s="3"/>
+      <c r="F267" s="14"/>
       <c r="G267" s="4"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
@@ -10199,7 +10208,7 @@
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="13"/>
-      <c r="F268" s="3"/>
+      <c r="F268" s="14"/>
       <c r="G268" s="4"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
@@ -10229,7 +10238,7 @@
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="13"/>
-      <c r="F269" s="3"/>
+      <c r="F269" s="14"/>
       <c r="G269" s="4"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
@@ -10259,7 +10268,7 @@
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="13"/>
-      <c r="F270" s="3"/>
+      <c r="F270" s="14"/>
       <c r="G270" s="4"/>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
@@ -10289,7 +10298,7 @@
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="13"/>
-      <c r="F271" s="3"/>
+      <c r="F271" s="14"/>
       <c r="G271" s="4"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
@@ -10319,7 +10328,7 @@
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="13"/>
-      <c r="F272" s="3"/>
+      <c r="F272" s="14"/>
       <c r="G272" s="4"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
@@ -10349,7 +10358,7 @@
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="13"/>
-      <c r="F273" s="3"/>
+      <c r="F273" s="14"/>
       <c r="G273" s="4"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
@@ -10379,7 +10388,7 @@
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="13"/>
-      <c r="F274" s="3"/>
+      <c r="F274" s="14"/>
       <c r="G274" s="4"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
@@ -10409,7 +10418,7 @@
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="13"/>
-      <c r="F275" s="3"/>
+      <c r="F275" s="14"/>
       <c r="G275" s="4"/>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
@@ -10439,7 +10448,7 @@
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="13"/>
-      <c r="F276" s="3"/>
+      <c r="F276" s="14"/>
       <c r="G276" s="4"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
@@ -10469,7 +10478,7 @@
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="13"/>
-      <c r="F277" s="3"/>
+      <c r="F277" s="14"/>
       <c r="G277" s="4"/>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
@@ -10499,7 +10508,7 @@
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="13"/>
-      <c r="F278" s="3"/>
+      <c r="F278" s="14"/>
       <c r="G278" s="4"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
@@ -10529,7 +10538,7 @@
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="13"/>
-      <c r="F279" s="3"/>
+      <c r="F279" s="14"/>
       <c r="G279" s="4"/>
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
@@ -10559,7 +10568,7 @@
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="13"/>
-      <c r="F280" s="3"/>
+      <c r="F280" s="14"/>
       <c r="G280" s="4"/>
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
@@ -10589,7 +10598,7 @@
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="13"/>
-      <c r="F281" s="3"/>
+      <c r="F281" s="14"/>
       <c r="G281" s="4"/>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
@@ -10619,7 +10628,7 @@
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="13"/>
-      <c r="F282" s="3"/>
+      <c r="F282" s="14"/>
       <c r="G282" s="4"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
@@ -10649,7 +10658,7 @@
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="13"/>
-      <c r="F283" s="3"/>
+      <c r="F283" s="14"/>
       <c r="G283" s="4"/>
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
@@ -10679,7 +10688,7 @@
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="13"/>
-      <c r="F284" s="3"/>
+      <c r="F284" s="14"/>
       <c r="G284" s="4"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
@@ -10709,7 +10718,7 @@
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="13"/>
-      <c r="F285" s="3"/>
+      <c r="F285" s="14"/>
       <c r="G285" s="4"/>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
@@ -10739,7 +10748,7 @@
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="13"/>
-      <c r="F286" s="3"/>
+      <c r="F286" s="14"/>
       <c r="G286" s="4"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
@@ -10769,7 +10778,7 @@
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="13"/>
-      <c r="F287" s="3"/>
+      <c r="F287" s="14"/>
       <c r="G287" s="4"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
@@ -10799,7 +10808,7 @@
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="13"/>
-      <c r="F288" s="3"/>
+      <c r="F288" s="14"/>
       <c r="G288" s="4"/>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
@@ -10829,7 +10838,7 @@
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="13"/>
-      <c r="F289" s="3"/>
+      <c r="F289" s="14"/>
       <c r="G289" s="4"/>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
@@ -10859,7 +10868,7 @@
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="13"/>
-      <c r="F290" s="3"/>
+      <c r="F290" s="14"/>
       <c r="G290" s="4"/>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
@@ -10889,7 +10898,7 @@
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="13"/>
-      <c r="F291" s="3"/>
+      <c r="F291" s="14"/>
       <c r="G291" s="4"/>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
@@ -10919,7 +10928,7 @@
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="13"/>
-      <c r="F292" s="3"/>
+      <c r="F292" s="14"/>
       <c r="G292" s="4"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
@@ -10949,7 +10958,7 @@
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="13"/>
-      <c r="F293" s="3"/>
+      <c r="F293" s="14"/>
       <c r="G293" s="4"/>
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
@@ -10979,7 +10988,7 @@
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="13"/>
-      <c r="F294" s="3"/>
+      <c r="F294" s="14"/>
       <c r="G294" s="4"/>
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
@@ -11009,7 +11018,7 @@
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="13"/>
-      <c r="F295" s="3"/>
+      <c r="F295" s="14"/>
       <c r="G295" s="4"/>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
@@ -11039,7 +11048,7 @@
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="13"/>
-      <c r="F296" s="3"/>
+      <c r="F296" s="14"/>
       <c r="G296" s="4"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
@@ -11069,7 +11078,7 @@
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="13"/>
-      <c r="F297" s="3"/>
+      <c r="F297" s="14"/>
       <c r="G297" s="4"/>
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
@@ -11099,7 +11108,7 @@
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="13"/>
-      <c r="F298" s="3"/>
+      <c r="F298" s="14"/>
       <c r="G298" s="4"/>
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
@@ -11129,7 +11138,7 @@
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="13"/>
-      <c r="F299" s="3"/>
+      <c r="F299" s="14"/>
       <c r="G299" s="4"/>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
@@ -11159,7 +11168,7 @@
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="13"/>
-      <c r="F300" s="3"/>
+      <c r="F300" s="14"/>
       <c r="G300" s="4"/>
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
@@ -11189,7 +11198,7 @@
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="13"/>
-      <c r="F301" s="3"/>
+      <c r="F301" s="14"/>
       <c r="G301" s="4"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
@@ -11219,7 +11228,7 @@
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="13"/>
-      <c r="F302" s="3"/>
+      <c r="F302" s="14"/>
       <c r="G302" s="4"/>
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
@@ -11249,7 +11258,7 @@
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="13"/>
-      <c r="F303" s="3"/>
+      <c r="F303" s="14"/>
       <c r="G303" s="4"/>
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
@@ -11279,7 +11288,7 @@
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="13"/>
-      <c r="F304" s="3"/>
+      <c r="F304" s="14"/>
       <c r="G304" s="4"/>
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
@@ -11309,7 +11318,7 @@
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="13"/>
-      <c r="F305" s="3"/>
+      <c r="F305" s="14"/>
       <c r="G305" s="4"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
@@ -11339,7 +11348,7 @@
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="13"/>
-      <c r="F306" s="3"/>
+      <c r="F306" s="14"/>
       <c r="G306" s="4"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
@@ -11369,7 +11378,7 @@
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="13"/>
-      <c r="F307" s="3"/>
+      <c r="F307" s="14"/>
       <c r="G307" s="4"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
@@ -11399,7 +11408,7 @@
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="13"/>
-      <c r="F308" s="3"/>
+      <c r="F308" s="14"/>
       <c r="G308" s="4"/>
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
@@ -11429,7 +11438,7 @@
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="13"/>
-      <c r="F309" s="3"/>
+      <c r="F309" s="14"/>
       <c r="G309" s="4"/>
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
@@ -11459,7 +11468,7 @@
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="13"/>
-      <c r="F310" s="3"/>
+      <c r="F310" s="14"/>
       <c r="G310" s="4"/>
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
@@ -11489,7 +11498,7 @@
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="13"/>
-      <c r="F311" s="3"/>
+      <c r="F311" s="14"/>
       <c r="G311" s="4"/>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
@@ -11519,7 +11528,7 @@
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="13"/>
-      <c r="F312" s="3"/>
+      <c r="F312" s="14"/>
       <c r="G312" s="4"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
@@ -11549,7 +11558,7 @@
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="13"/>
-      <c r="F313" s="3"/>
+      <c r="F313" s="14"/>
       <c r="G313" s="4"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
@@ -11579,7 +11588,7 @@
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="13"/>
-      <c r="F314" s="3"/>
+      <c r="F314" s="14"/>
       <c r="G314" s="4"/>
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
@@ -11609,7 +11618,7 @@
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="13"/>
-      <c r="F315" s="3"/>
+      <c r="F315" s="14"/>
       <c r="G315" s="4"/>
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
@@ -11639,7 +11648,7 @@
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="13"/>
-      <c r="F316" s="3"/>
+      <c r="F316" s="14"/>
       <c r="G316" s="4"/>
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
@@ -11669,7 +11678,7 @@
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="13"/>
-      <c r="F317" s="3"/>
+      <c r="F317" s="14"/>
       <c r="G317" s="4"/>
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
@@ -11699,7 +11708,7 @@
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="13"/>
-      <c r="F318" s="3"/>
+      <c r="F318" s="14"/>
       <c r="G318" s="4"/>
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
@@ -11729,7 +11738,7 @@
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="13"/>
-      <c r="F319" s="3"/>
+      <c r="F319" s="14"/>
       <c r="G319" s="4"/>
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
@@ -11759,7 +11768,7 @@
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="13"/>
-      <c r="F320" s="3"/>
+      <c r="F320" s="14"/>
       <c r="G320" s="4"/>
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
@@ -11789,7 +11798,7 @@
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="13"/>
-      <c r="F321" s="3"/>
+      <c r="F321" s="14"/>
       <c r="G321" s="4"/>
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
@@ -11819,7 +11828,7 @@
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="13"/>
-      <c r="F322" s="3"/>
+      <c r="F322" s="14"/>
       <c r="G322" s="4"/>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
@@ -11849,7 +11858,7 @@
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="13"/>
-      <c r="F323" s="3"/>
+      <c r="F323" s="14"/>
       <c r="G323" s="4"/>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
@@ -11879,7 +11888,7 @@
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="13"/>
-      <c r="F324" s="3"/>
+      <c r="F324" s="14"/>
       <c r="G324" s="4"/>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
@@ -11909,7 +11918,7 @@
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="13"/>
-      <c r="F325" s="3"/>
+      <c r="F325" s="14"/>
       <c r="G325" s="4"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
@@ -11939,7 +11948,7 @@
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="13"/>
-      <c r="F326" s="3"/>
+      <c r="F326" s="14"/>
       <c r="G326" s="4"/>
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
@@ -11969,7 +11978,7 @@
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="13"/>
-      <c r="F327" s="3"/>
+      <c r="F327" s="14"/>
       <c r="G327" s="4"/>
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
@@ -11999,7 +12008,7 @@
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="13"/>
-      <c r="F328" s="3"/>
+      <c r="F328" s="14"/>
       <c r="G328" s="4"/>
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
@@ -12029,7 +12038,7 @@
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="13"/>
-      <c r="F329" s="3"/>
+      <c r="F329" s="14"/>
       <c r="G329" s="4"/>
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
@@ -12059,7 +12068,7 @@
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="13"/>
-      <c r="F330" s="3"/>
+      <c r="F330" s="14"/>
       <c r="G330" s="4"/>
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
@@ -12089,7 +12098,7 @@
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="13"/>
-      <c r="F331" s="3"/>
+      <c r="F331" s="14"/>
       <c r="G331" s="4"/>
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
@@ -12119,7 +12128,7 @@
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="13"/>
-      <c r="F332" s="3"/>
+      <c r="F332" s="14"/>
       <c r="G332" s="4"/>
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
@@ -12149,7 +12158,7 @@
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="13"/>
-      <c r="F333" s="3"/>
+      <c r="F333" s="14"/>
       <c r="G333" s="4"/>
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
@@ -12179,7 +12188,7 @@
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="13"/>
-      <c r="F334" s="3"/>
+      <c r="F334" s="14"/>
       <c r="G334" s="4"/>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
@@ -12209,7 +12218,7 @@
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="13"/>
-      <c r="F335" s="3"/>
+      <c r="F335" s="14"/>
       <c r="G335" s="4"/>
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
@@ -12239,7 +12248,7 @@
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="13"/>
-      <c r="F336" s="3"/>
+      <c r="F336" s="14"/>
       <c r="G336" s="4"/>
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
@@ -12269,7 +12278,7 @@
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="13"/>
-      <c r="F337" s="3"/>
+      <c r="F337" s="14"/>
       <c r="G337" s="4"/>
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
@@ -12299,7 +12308,7 @@
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="13"/>
-      <c r="F338" s="3"/>
+      <c r="F338" s="14"/>
       <c r="G338" s="4"/>
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
@@ -12329,7 +12338,7 @@
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="13"/>
-      <c r="F339" s="3"/>
+      <c r="F339" s="14"/>
       <c r="G339" s="4"/>
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
@@ -12359,7 +12368,7 @@
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="13"/>
-      <c r="F340" s="3"/>
+      <c r="F340" s="14"/>
       <c r="G340" s="4"/>
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
@@ -12389,7 +12398,7 @@
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="13"/>
-      <c r="F341" s="3"/>
+      <c r="F341" s="14"/>
       <c r="G341" s="4"/>
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
@@ -12419,7 +12428,7 @@
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="13"/>
-      <c r="F342" s="3"/>
+      <c r="F342" s="14"/>
       <c r="G342" s="4"/>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
@@ -12449,7 +12458,7 @@
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="13"/>
-      <c r="F343" s="3"/>
+      <c r="F343" s="14"/>
       <c r="G343" s="4"/>
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
@@ -12479,7 +12488,7 @@
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="13"/>
-      <c r="F344" s="3"/>
+      <c r="F344" s="14"/>
       <c r="G344" s="4"/>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
@@ -12509,7 +12518,7 @@
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="13"/>
-      <c r="F345" s="3"/>
+      <c r="F345" s="14"/>
       <c r="G345" s="4"/>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
@@ -12539,7 +12548,7 @@
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="13"/>
-      <c r="F346" s="3"/>
+      <c r="F346" s="14"/>
       <c r="G346" s="4"/>
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
@@ -12569,7 +12578,7 @@
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="13"/>
-      <c r="F347" s="3"/>
+      <c r="F347" s="14"/>
       <c r="G347" s="4"/>
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
@@ -12599,7 +12608,7 @@
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="13"/>
-      <c r="F348" s="3"/>
+      <c r="F348" s="14"/>
       <c r="G348" s="4"/>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
@@ -12629,7 +12638,7 @@
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="13"/>
-      <c r="F349" s="3"/>
+      <c r="F349" s="14"/>
       <c r="G349" s="4"/>
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
@@ -12659,7 +12668,7 @@
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="13"/>
-      <c r="F350" s="3"/>
+      <c r="F350" s="14"/>
       <c r="G350" s="4"/>
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
@@ -12689,7 +12698,7 @@
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="13"/>
-      <c r="F351" s="3"/>
+      <c r="F351" s="14"/>
       <c r="G351" s="4"/>
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
@@ -12719,7 +12728,7 @@
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="13"/>
-      <c r="F352" s="3"/>
+      <c r="F352" s="14"/>
       <c r="G352" s="4"/>
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
@@ -12749,7 +12758,7 @@
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="13"/>
-      <c r="F353" s="3"/>
+      <c r="F353" s="14"/>
       <c r="G353" s="4"/>
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
@@ -12779,7 +12788,7 @@
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="13"/>
-      <c r="F354" s="3"/>
+      <c r="F354" s="14"/>
       <c r="G354" s="4"/>
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
@@ -12809,7 +12818,7 @@
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="13"/>
-      <c r="F355" s="3"/>
+      <c r="F355" s="14"/>
       <c r="G355" s="4"/>
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
@@ -12839,7 +12848,7 @@
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="13"/>
-      <c r="F356" s="3"/>
+      <c r="F356" s="14"/>
       <c r="G356" s="4"/>
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
@@ -12869,7 +12878,7 @@
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="13"/>
-      <c r="F357" s="3"/>
+      <c r="F357" s="14"/>
       <c r="G357" s="4"/>
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
@@ -12899,7 +12908,7 @@
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="13"/>
-      <c r="F358" s="3"/>
+      <c r="F358" s="14"/>
       <c r="G358" s="4"/>
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
@@ -12929,7 +12938,7 @@
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="13"/>
-      <c r="F359" s="3"/>
+      <c r="F359" s="14"/>
       <c r="G359" s="4"/>
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
@@ -12959,7 +12968,7 @@
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="13"/>
-      <c r="F360" s="3"/>
+      <c r="F360" s="14"/>
       <c r="G360" s="4"/>
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
@@ -12989,7 +12998,7 @@
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="13"/>
-      <c r="F361" s="3"/>
+      <c r="F361" s="14"/>
       <c r="G361" s="4"/>
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
@@ -13019,7 +13028,7 @@
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="13"/>
-      <c r="F362" s="3"/>
+      <c r="F362" s="14"/>
       <c r="G362" s="4"/>
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
@@ -13049,7 +13058,7 @@
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="13"/>
-      <c r="F363" s="3"/>
+      <c r="F363" s="14"/>
       <c r="G363" s="4"/>
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
@@ -13079,7 +13088,7 @@
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="13"/>
-      <c r="F364" s="3"/>
+      <c r="F364" s="14"/>
       <c r="G364" s="4"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
@@ -13109,7 +13118,7 @@
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="13"/>
-      <c r="F365" s="3"/>
+      <c r="F365" s="14"/>
       <c r="G365" s="4"/>
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
@@ -13139,7 +13148,7 @@
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="13"/>
-      <c r="F366" s="3"/>
+      <c r="F366" s="14"/>
       <c r="G366" s="4"/>
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
@@ -13169,7 +13178,7 @@
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="13"/>
-      <c r="F367" s="3"/>
+      <c r="F367" s="14"/>
       <c r="G367" s="4"/>
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
@@ -13199,7 +13208,7 @@
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="13"/>
-      <c r="F368" s="3"/>
+      <c r="F368" s="14"/>
       <c r="G368" s="4"/>
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
@@ -13229,7 +13238,7 @@
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="13"/>
-      <c r="F369" s="3"/>
+      <c r="F369" s="14"/>
       <c r="G369" s="4"/>
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
@@ -13259,7 +13268,7 @@
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="13"/>
-      <c r="F370" s="3"/>
+      <c r="F370" s="14"/>
       <c r="G370" s="4"/>
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
@@ -13289,7 +13298,7 @@
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="13"/>
-      <c r="F371" s="3"/>
+      <c r="F371" s="14"/>
       <c r="G371" s="4"/>
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
@@ -13319,7 +13328,7 @@
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="13"/>
-      <c r="F372" s="3"/>
+      <c r="F372" s="14"/>
       <c r="G372" s="4"/>
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
@@ -13349,7 +13358,7 @@
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="13"/>
-      <c r="F373" s="3"/>
+      <c r="F373" s="14"/>
       <c r="G373" s="4"/>
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
@@ -13379,7 +13388,7 @@
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="13"/>
-      <c r="F374" s="3"/>
+      <c r="F374" s="14"/>
       <c r="G374" s="4"/>
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
@@ -13409,7 +13418,7 @@
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="13"/>
-      <c r="F375" s="3"/>
+      <c r="F375" s="14"/>
       <c r="G375" s="4"/>
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
@@ -13439,7 +13448,7 @@
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="13"/>
-      <c r="F376" s="3"/>
+      <c r="F376" s="14"/>
       <c r="G376" s="4"/>
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
@@ -13469,7 +13478,7 @@
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="13"/>
-      <c r="F377" s="3"/>
+      <c r="F377" s="14"/>
       <c r="G377" s="4"/>
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
@@ -13499,7 +13508,7 @@
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="13"/>
-      <c r="F378" s="3"/>
+      <c r="F378" s="14"/>
       <c r="G378" s="4"/>
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
@@ -13529,7 +13538,7 @@
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="13"/>
-      <c r="F379" s="3"/>
+      <c r="F379" s="14"/>
       <c r="G379" s="4"/>
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
@@ -13559,7 +13568,7 @@
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="13"/>
-      <c r="F380" s="3"/>
+      <c r="F380" s="14"/>
       <c r="G380" s="4"/>
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
@@ -13589,7 +13598,7 @@
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="13"/>
-      <c r="F381" s="3"/>
+      <c r="F381" s="14"/>
       <c r="G381" s="4"/>
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
@@ -13619,7 +13628,7 @@
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="13"/>
-      <c r="F382" s="3"/>
+      <c r="F382" s="14"/>
       <c r="G382" s="4"/>
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
@@ -13649,7 +13658,7 @@
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="13"/>
-      <c r="F383" s="3"/>
+      <c r="F383" s="14"/>
       <c r="G383" s="4"/>
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
@@ -13679,7 +13688,7 @@
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="13"/>
-      <c r="F384" s="3"/>
+      <c r="F384" s="14"/>
       <c r="G384" s="4"/>
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
@@ -13709,7 +13718,7 @@
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="13"/>
-      <c r="F385" s="3"/>
+      <c r="F385" s="14"/>
       <c r="G385" s="4"/>
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
@@ -13739,7 +13748,7 @@
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="13"/>
-      <c r="F386" s="3"/>
+      <c r="F386" s="14"/>
       <c r="G386" s="4"/>
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
@@ -13769,7 +13778,7 @@
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="13"/>
-      <c r="F387" s="3"/>
+      <c r="F387" s="14"/>
       <c r="G387" s="4"/>
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
@@ -13799,7 +13808,7 @@
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="13"/>
-      <c r="F388" s="3"/>
+      <c r="F388" s="14"/>
       <c r="G388" s="4"/>
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
@@ -13829,7 +13838,7 @@
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="13"/>
-      <c r="F389" s="3"/>
+      <c r="F389" s="14"/>
       <c r="G389" s="4"/>
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
@@ -13859,7 +13868,7 @@
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="13"/>
-      <c r="F390" s="3"/>
+      <c r="F390" s="14"/>
       <c r="G390" s="4"/>
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
@@ -13889,7 +13898,7 @@
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="13"/>
-      <c r="F391" s="3"/>
+      <c r="F391" s="14"/>
       <c r="G391" s="4"/>
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
@@ -13919,7 +13928,7 @@
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="13"/>
-      <c r="F392" s="3"/>
+      <c r="F392" s="14"/>
       <c r="G392" s="4"/>
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
@@ -13949,7 +13958,7 @@
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="13"/>
-      <c r="F393" s="3"/>
+      <c r="F393" s="14"/>
       <c r="G393" s="4"/>
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
@@ -13979,7 +13988,7 @@
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="13"/>
-      <c r="F394" s="3"/>
+      <c r="F394" s="14"/>
       <c r="G394" s="4"/>
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
@@ -14009,7 +14018,7 @@
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="13"/>
-      <c r="F395" s="3"/>
+      <c r="F395" s="14"/>
       <c r="G395" s="4"/>
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
@@ -14039,7 +14048,7 @@
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="13"/>
-      <c r="F396" s="3"/>
+      <c r="F396" s="14"/>
       <c r="G396" s="4"/>
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
@@ -14069,7 +14078,7 @@
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="13"/>
-      <c r="F397" s="3"/>
+      <c r="F397" s="14"/>
       <c r="G397" s="4"/>
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
@@ -14099,7 +14108,7 @@
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="13"/>
-      <c r="F398" s="3"/>
+      <c r="F398" s="14"/>
       <c r="G398" s="4"/>
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
@@ -14129,7 +14138,7 @@
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="13"/>
-      <c r="F399" s="3"/>
+      <c r="F399" s="14"/>
       <c r="G399" s="4"/>
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
@@ -14159,7 +14168,7 @@
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="13"/>
-      <c r="F400" s="3"/>
+      <c r="F400" s="14"/>
       <c r="G400" s="4"/>
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
@@ -14189,7 +14198,7 @@
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="13"/>
-      <c r="F401" s="3"/>
+      <c r="F401" s="14"/>
       <c r="G401" s="4"/>
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
@@ -14219,7 +14228,7 @@
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="13"/>
-      <c r="F402" s="3"/>
+      <c r="F402" s="14"/>
       <c r="G402" s="4"/>
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
@@ -14249,7 +14258,7 @@
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="13"/>
-      <c r="F403" s="3"/>
+      <c r="F403" s="14"/>
       <c r="G403" s="4"/>
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
@@ -14279,7 +14288,7 @@
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="13"/>
-      <c r="F404" s="3"/>
+      <c r="F404" s="14"/>
       <c r="G404" s="4"/>
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
@@ -14309,7 +14318,7 @@
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="13"/>
-      <c r="F405" s="3"/>
+      <c r="F405" s="14"/>
       <c r="G405" s="4"/>
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
@@ -14339,7 +14348,7 @@
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="13"/>
-      <c r="F406" s="3"/>
+      <c r="F406" s="14"/>
       <c r="G406" s="4"/>
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
@@ -14369,7 +14378,7 @@
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="13"/>
-      <c r="F407" s="3"/>
+      <c r="F407" s="14"/>
       <c r="G407" s="4"/>
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
@@ -14399,7 +14408,7 @@
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="13"/>
-      <c r="F408" s="3"/>
+      <c r="F408" s="14"/>
       <c r="G408" s="4"/>
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
@@ -14429,7 +14438,7 @@
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="13"/>
-      <c r="F409" s="3"/>
+      <c r="F409" s="14"/>
       <c r="G409" s="4"/>
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
@@ -14459,7 +14468,7 @@
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="13"/>
-      <c r="F410" s="3"/>
+      <c r="F410" s="14"/>
       <c r="G410" s="4"/>
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
@@ -14489,7 +14498,7 @@
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="13"/>
-      <c r="F411" s="3"/>
+      <c r="F411" s="14"/>
       <c r="G411" s="4"/>
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
@@ -14519,7 +14528,7 @@
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="13"/>
-      <c r="F412" s="3"/>
+      <c r="F412" s="14"/>
       <c r="G412" s="4"/>
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
@@ -14549,7 +14558,7 @@
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="13"/>
-      <c r="F413" s="3"/>
+      <c r="F413" s="14"/>
       <c r="G413" s="4"/>
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
@@ -14579,7 +14588,7 @@
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="13"/>
-      <c r="F414" s="3"/>
+      <c r="F414" s="14"/>
       <c r="G414" s="4"/>
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
@@ -14609,7 +14618,7 @@
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="13"/>
-      <c r="F415" s="3"/>
+      <c r="F415" s="14"/>
       <c r="G415" s="4"/>
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
@@ -14639,7 +14648,7 @@
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="13"/>
-      <c r="F416" s="3"/>
+      <c r="F416" s="14"/>
       <c r="G416" s="4"/>
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
@@ -14669,7 +14678,7 @@
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="13"/>
-      <c r="F417" s="3"/>
+      <c r="F417" s="14"/>
       <c r="G417" s="4"/>
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
@@ -14699,7 +14708,7 @@
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="13"/>
-      <c r="F418" s="3"/>
+      <c r="F418" s="14"/>
       <c r="G418" s="4"/>
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
@@ -14729,7 +14738,7 @@
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="13"/>
-      <c r="F419" s="3"/>
+      <c r="F419" s="14"/>
       <c r="G419" s="4"/>
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
@@ -14759,7 +14768,7 @@
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="13"/>
-      <c r="F420" s="3"/>
+      <c r="F420" s="14"/>
       <c r="G420" s="4"/>
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
@@ -14789,7 +14798,7 @@
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="13"/>
-      <c r="F421" s="3"/>
+      <c r="F421" s="14"/>
       <c r="G421" s="4"/>
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
@@ -14819,7 +14828,7 @@
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="13"/>
-      <c r="F422" s="3"/>
+      <c r="F422" s="14"/>
       <c r="G422" s="4"/>
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
@@ -14849,7 +14858,7 @@
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="13"/>
-      <c r="F423" s="3"/>
+      <c r="F423" s="14"/>
       <c r="G423" s="4"/>
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
@@ -14879,7 +14888,7 @@
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="13"/>
-      <c r="F424" s="3"/>
+      <c r="F424" s="14"/>
       <c r="G424" s="4"/>
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
@@ -14909,7 +14918,7 @@
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="13"/>
-      <c r="F425" s="3"/>
+      <c r="F425" s="14"/>
       <c r="G425" s="4"/>
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
@@ -14939,7 +14948,7 @@
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="13"/>
-      <c r="F426" s="3"/>
+      <c r="F426" s="14"/>
       <c r="G426" s="4"/>
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
@@ -14969,7 +14978,7 @@
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="13"/>
-      <c r="F427" s="3"/>
+      <c r="F427" s="14"/>
       <c r="G427" s="4"/>
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
@@ -14999,7 +15008,7 @@
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="13"/>
-      <c r="F428" s="3"/>
+      <c r="F428" s="14"/>
       <c r="G428" s="4"/>
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
@@ -15029,7 +15038,7 @@
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="13"/>
-      <c r="F429" s="3"/>
+      <c r="F429" s="14"/>
       <c r="G429" s="4"/>
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
@@ -15059,7 +15068,7 @@
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="13"/>
-      <c r="F430" s="3"/>
+      <c r="F430" s="14"/>
       <c r="G430" s="4"/>
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
@@ -15089,7 +15098,7 @@
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="13"/>
-      <c r="F431" s="3"/>
+      <c r="F431" s="14"/>
       <c r="G431" s="4"/>
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
@@ -15119,7 +15128,7 @@
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="13"/>
-      <c r="F432" s="3"/>
+      <c r="F432" s="14"/>
       <c r="G432" s="4"/>
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
@@ -15149,7 +15158,7 @@
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="13"/>
-      <c r="F433" s="3"/>
+      <c r="F433" s="14"/>
       <c r="G433" s="4"/>
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
@@ -15179,7 +15188,7 @@
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="13"/>
-      <c r="F434" s="3"/>
+      <c r="F434" s="14"/>
       <c r="G434" s="4"/>
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
@@ -15209,7 +15218,7 @@
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="13"/>
-      <c r="F435" s="3"/>
+      <c r="F435" s="14"/>
       <c r="G435" s="4"/>
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
@@ -15239,7 +15248,7 @@
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="13"/>
-      <c r="F436" s="3"/>
+      <c r="F436" s="14"/>
       <c r="G436" s="4"/>
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
@@ -15269,7 +15278,7 @@
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="13"/>
-      <c r="F437" s="3"/>
+      <c r="F437" s="14"/>
       <c r="G437" s="4"/>
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
@@ -15299,7 +15308,7 @@
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="13"/>
-      <c r="F438" s="3"/>
+      <c r="F438" s="14"/>
       <c r="G438" s="4"/>
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
@@ -15329,7 +15338,7 @@
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="13"/>
-      <c r="F439" s="3"/>
+      <c r="F439" s="14"/>
       <c r="G439" s="4"/>
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
@@ -15359,7 +15368,7 @@
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="13"/>
-      <c r="F440" s="3"/>
+      <c r="F440" s="14"/>
       <c r="G440" s="4"/>
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
@@ -15389,7 +15398,7 @@
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="13"/>
-      <c r="F441" s="3"/>
+      <c r="F441" s="14"/>
       <c r="G441" s="4"/>
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
@@ -15419,7 +15428,7 @@
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="13"/>
-      <c r="F442" s="3"/>
+      <c r="F442" s="14"/>
       <c r="G442" s="4"/>
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
@@ -15449,7 +15458,7 @@
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="13"/>
-      <c r="F443" s="3"/>
+      <c r="F443" s="14"/>
       <c r="G443" s="4"/>
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
@@ -15479,7 +15488,7 @@
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="13"/>
-      <c r="F444" s="3"/>
+      <c r="F444" s="14"/>
       <c r="G444" s="4"/>
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
@@ -15509,7 +15518,7 @@
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="13"/>
-      <c r="F445" s="3"/>
+      <c r="F445" s="14"/>
       <c r="G445" s="4"/>
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
@@ -15539,7 +15548,7 @@
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="13"/>
-      <c r="F446" s="3"/>
+      <c r="F446" s="14"/>
       <c r="G446" s="4"/>
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
@@ -15569,7 +15578,7 @@
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="13"/>
-      <c r="F447" s="3"/>
+      <c r="F447" s="14"/>
       <c r="G447" s="4"/>
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
@@ -15599,7 +15608,7 @@
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="13"/>
-      <c r="F448" s="3"/>
+      <c r="F448" s="14"/>
       <c r="G448" s="4"/>
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
@@ -15629,7 +15638,7 @@
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="13"/>
-      <c r="F449" s="3"/>
+      <c r="F449" s="14"/>
       <c r="G449" s="4"/>
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
@@ -15659,7 +15668,7 @@
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="13"/>
-      <c r="F450" s="3"/>
+      <c r="F450" s="14"/>
       <c r="G450" s="4"/>
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
@@ -15689,7 +15698,7 @@
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="13"/>
-      <c r="F451" s="3"/>
+      <c r="F451" s="14"/>
       <c r="G451" s="4"/>
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
@@ -15719,7 +15728,7 @@
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="13"/>
-      <c r="F452" s="3"/>
+      <c r="F452" s="14"/>
       <c r="G452" s="4"/>
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
@@ -15749,7 +15758,7 @@
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="13"/>
-      <c r="F453" s="3"/>
+      <c r="F453" s="14"/>
       <c r="G453" s="4"/>
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
@@ -15779,7 +15788,7 @@
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="13"/>
-      <c r="F454" s="3"/>
+      <c r="F454" s="14"/>
       <c r="G454" s="4"/>
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
@@ -15809,7 +15818,7 @@
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="13"/>
-      <c r="F455" s="3"/>
+      <c r="F455" s="14"/>
       <c r="G455" s="4"/>
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
@@ -15839,7 +15848,7 @@
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="13"/>
-      <c r="F456" s="3"/>
+      <c r="F456" s="14"/>
       <c r="G456" s="4"/>
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
@@ -15869,7 +15878,7 @@
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="13"/>
-      <c r="F457" s="3"/>
+      <c r="F457" s="14"/>
       <c r="G457" s="4"/>
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
@@ -15899,7 +15908,7 @@
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="13"/>
-      <c r="F458" s="3"/>
+      <c r="F458" s="14"/>
       <c r="G458" s="4"/>
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
@@ -15929,7 +15938,7 @@
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="13"/>
-      <c r="F459" s="3"/>
+      <c r="F459" s="14"/>
       <c r="G459" s="4"/>
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
@@ -15959,7 +15968,7 @@
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="13"/>
-      <c r="F460" s="3"/>
+      <c r="F460" s="14"/>
       <c r="G460" s="4"/>
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
@@ -15989,7 +15998,7 @@
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="13"/>
-      <c r="F461" s="3"/>
+      <c r="F461" s="14"/>
       <c r="G461" s="4"/>
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
@@ -16019,7 +16028,7 @@
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="13"/>
-      <c r="F462" s="3"/>
+      <c r="F462" s="14"/>
       <c r="G462" s="4"/>
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
@@ -16049,7 +16058,7 @@
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="13"/>
-      <c r="F463" s="3"/>
+      <c r="F463" s="14"/>
       <c r="G463" s="4"/>
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
@@ -16079,7 +16088,7 @@
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="13"/>
-      <c r="F464" s="3"/>
+      <c r="F464" s="14"/>
       <c r="G464" s="4"/>
       <c r="H464" s="3"/>
       <c r="I464" s="3"/>
@@ -16109,7 +16118,7 @@
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="13"/>
-      <c r="F465" s="3"/>
+      <c r="F465" s="14"/>
       <c r="G465" s="4"/>
       <c r="H465" s="3"/>
       <c r="I465" s="3"/>
@@ -16139,7 +16148,7 @@
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="13"/>
-      <c r="F466" s="3"/>
+      <c r="F466" s="14"/>
       <c r="G466" s="4"/>
       <c r="H466" s="3"/>
       <c r="I466" s="3"/>
@@ -16169,7 +16178,7 @@
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="13"/>
-      <c r="F467" s="3"/>
+      <c r="F467" s="14"/>
       <c r="G467" s="4"/>
       <c r="H467" s="3"/>
       <c r="I467" s="3"/>
@@ -16199,7 +16208,7 @@
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="13"/>
-      <c r="F468" s="3"/>
+      <c r="F468" s="14"/>
       <c r="G468" s="4"/>
       <c r="H468" s="3"/>
       <c r="I468" s="3"/>
@@ -16229,7 +16238,7 @@
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="13"/>
-      <c r="F469" s="3"/>
+      <c r="F469" s="14"/>
       <c r="G469" s="4"/>
       <c r="H469" s="3"/>
       <c r="I469" s="3"/>
@@ -16259,7 +16268,7 @@
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="13"/>
-      <c r="F470" s="3"/>
+      <c r="F470" s="14"/>
       <c r="G470" s="4"/>
       <c r="H470" s="3"/>
       <c r="I470" s="3"/>
@@ -16289,7 +16298,7 @@
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="13"/>
-      <c r="F471" s="3"/>
+      <c r="F471" s="14"/>
       <c r="G471" s="4"/>
       <c r="H471" s="3"/>
       <c r="I471" s="3"/>
@@ -16319,7 +16328,7 @@
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="13"/>
-      <c r="F472" s="3"/>
+      <c r="F472" s="14"/>
       <c r="G472" s="4"/>
       <c r="H472" s="3"/>
       <c r="I472" s="3"/>
@@ -16349,7 +16358,7 @@
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="13"/>
-      <c r="F473" s="3"/>
+      <c r="F473" s="14"/>
       <c r="G473" s="4"/>
       <c r="H473" s="3"/>
       <c r="I473" s="3"/>
@@ -16379,7 +16388,7 @@
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="13"/>
-      <c r="F474" s="3"/>
+      <c r="F474" s="14"/>
       <c r="G474" s="4"/>
       <c r="H474" s="3"/>
       <c r="I474" s="3"/>
@@ -16409,7 +16418,7 @@
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="13"/>
-      <c r="F475" s="3"/>
+      <c r="F475" s="14"/>
       <c r="G475" s="4"/>
       <c r="H475" s="3"/>
       <c r="I475" s="3"/>
@@ -16439,7 +16448,7 @@
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="13"/>
-      <c r="F476" s="3"/>
+      <c r="F476" s="14"/>
       <c r="G476" s="4"/>
       <c r="H476" s="3"/>
       <c r="I476" s="3"/>
@@ -16469,7 +16478,7 @@
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="13"/>
-      <c r="F477" s="3"/>
+      <c r="F477" s="14"/>
       <c r="G477" s="4"/>
       <c r="H477" s="3"/>
       <c r="I477" s="3"/>
@@ -16499,7 +16508,7 @@
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="13"/>
-      <c r="F478" s="3"/>
+      <c r="F478" s="14"/>
       <c r="G478" s="4"/>
       <c r="H478" s="3"/>
       <c r="I478" s="3"/>
@@ -16529,7 +16538,7 @@
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="13"/>
-      <c r="F479" s="3"/>
+      <c r="F479" s="14"/>
       <c r="G479" s="4"/>
       <c r="H479" s="3"/>
       <c r="I479" s="3"/>
@@ -16559,7 +16568,7 @@
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="13"/>
-      <c r="F480" s="3"/>
+      <c r="F480" s="14"/>
       <c r="G480" s="4"/>
       <c r="H480" s="3"/>
       <c r="I480" s="3"/>
@@ -16589,7 +16598,7 @@
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="13"/>
-      <c r="F481" s="3"/>
+      <c r="F481" s="14"/>
       <c r="G481" s="4"/>
       <c r="H481" s="3"/>
       <c r="I481" s="3"/>
@@ -16619,7 +16628,7 @@
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="13"/>
-      <c r="F482" s="3"/>
+      <c r="F482" s="14"/>
       <c r="G482" s="4"/>
       <c r="H482" s="3"/>
       <c r="I482" s="3"/>
@@ -16649,7 +16658,7 @@
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="13"/>
-      <c r="F483" s="3"/>
+      <c r="F483" s="14"/>
       <c r="G483" s="4"/>
       <c r="H483" s="3"/>
       <c r="I483" s="3"/>
@@ -16679,7 +16688,7 @@
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="13"/>
-      <c r="F484" s="3"/>
+      <c r="F484" s="14"/>
       <c r="G484" s="4"/>
       <c r="H484" s="3"/>
       <c r="I484" s="3"/>
@@ -16709,7 +16718,7 @@
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="13"/>
-      <c r="F485" s="3"/>
+      <c r="F485" s="14"/>
       <c r="G485" s="4"/>
       <c r="H485" s="3"/>
       <c r="I485" s="3"/>
@@ -16739,7 +16748,7 @@
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="13"/>
-      <c r="F486" s="3"/>
+      <c r="F486" s="14"/>
       <c r="G486" s="4"/>
       <c r="H486" s="3"/>
       <c r="I486" s="3"/>
@@ -16769,7 +16778,7 @@
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="13"/>
-      <c r="F487" s="3"/>
+      <c r="F487" s="14"/>
       <c r="G487" s="4"/>
       <c r="H487" s="3"/>
       <c r="I487" s="3"/>
@@ -16799,7 +16808,7 @@
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="13"/>
-      <c r="F488" s="3"/>
+      <c r="F488" s="14"/>
       <c r="G488" s="4"/>
       <c r="H488" s="3"/>
       <c r="I488" s="3"/>
@@ -16829,7 +16838,7 @@
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="13"/>
-      <c r="F489" s="3"/>
+      <c r="F489" s="14"/>
       <c r="G489" s="4"/>
       <c r="H489" s="3"/>
       <c r="I489" s="3"/>
@@ -16859,7 +16868,7 @@
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="13"/>
-      <c r="F490" s="3"/>
+      <c r="F490" s="14"/>
       <c r="G490" s="4"/>
       <c r="H490" s="3"/>
       <c r="I490" s="3"/>
@@ -16889,7 +16898,7 @@
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="13"/>
-      <c r="F491" s="3"/>
+      <c r="F491" s="14"/>
       <c r="G491" s="4"/>
       <c r="H491" s="3"/>
       <c r="I491" s="3"/>
@@ -16919,7 +16928,7 @@
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="13"/>
-      <c r="F492" s="3"/>
+      <c r="F492" s="14"/>
       <c r="G492" s="4"/>
       <c r="H492" s="3"/>
       <c r="I492" s="3"/>
@@ -16949,7 +16958,7 @@
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="13"/>
-      <c r="F493" s="3"/>
+      <c r="F493" s="14"/>
       <c r="G493" s="4"/>
       <c r="H493" s="3"/>
       <c r="I493" s="3"/>
@@ -16979,7 +16988,7 @@
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="13"/>
-      <c r="F494" s="3"/>
+      <c r="F494" s="14"/>
       <c r="G494" s="4"/>
       <c r="H494" s="3"/>
       <c r="I494" s="3"/>
@@ -17009,7 +17018,7 @@
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="13"/>
-      <c r="F495" s="3"/>
+      <c r="F495" s="14"/>
       <c r="G495" s="4"/>
       <c r="H495" s="3"/>
       <c r="I495" s="3"/>
@@ -17039,7 +17048,7 @@
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="13"/>
-      <c r="F496" s="3"/>
+      <c r="F496" s="14"/>
       <c r="G496" s="4"/>
       <c r="H496" s="3"/>
       <c r="I496" s="3"/>
@@ -17069,7 +17078,7 @@
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="13"/>
-      <c r="F497" s="3"/>
+      <c r="F497" s="14"/>
       <c r="G497" s="4"/>
       <c r="H497" s="3"/>
       <c r="I497" s="3"/>
@@ -17099,7 +17108,7 @@
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="13"/>
-      <c r="F498" s="3"/>
+      <c r="F498" s="14"/>
       <c r="G498" s="4"/>
       <c r="H498" s="3"/>
       <c r="I498" s="3"/>
@@ -17129,7 +17138,7 @@
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="13"/>
-      <c r="F499" s="3"/>
+      <c r="F499" s="14"/>
       <c r="G499" s="4"/>
       <c r="H499" s="3"/>
       <c r="I499" s="3"/>
@@ -17159,7 +17168,7 @@
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="13"/>
-      <c r="F500" s="3"/>
+      <c r="F500" s="14"/>
       <c r="G500" s="4"/>
       <c r="H500" s="3"/>
       <c r="I500" s="3"/>
@@ -17189,7 +17198,7 @@
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="13"/>
-      <c r="F501" s="3"/>
+      <c r="F501" s="14"/>
       <c r="G501" s="4"/>
       <c r="H501" s="3"/>
       <c r="I501" s="3"/>
@@ -17219,7 +17228,7 @@
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="13"/>
-      <c r="F502" s="3"/>
+      <c r="F502" s="14"/>
       <c r="G502" s="4"/>
       <c r="H502" s="3"/>
       <c r="I502" s="3"/>
@@ -17249,7 +17258,7 @@
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="13"/>
-      <c r="F503" s="3"/>
+      <c r="F503" s="14"/>
       <c r="G503" s="4"/>
       <c r="H503" s="3"/>
       <c r="I503" s="3"/>
@@ -17279,7 +17288,7 @@
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="13"/>
-      <c r="F504" s="3"/>
+      <c r="F504" s="14"/>
       <c r="G504" s="4"/>
       <c r="H504" s="3"/>
       <c r="I504" s="3"/>
@@ -17309,7 +17318,7 @@
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="13"/>
-      <c r="F505" s="3"/>
+      <c r="F505" s="14"/>
       <c r="G505" s="4"/>
       <c r="H505" s="3"/>
       <c r="I505" s="3"/>
@@ -17339,7 +17348,7 @@
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="13"/>
-      <c r="F506" s="3"/>
+      <c r="F506" s="14"/>
       <c r="G506" s="4"/>
       <c r="H506" s="3"/>
       <c r="I506" s="3"/>
@@ -17369,7 +17378,7 @@
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="13"/>
-      <c r="F507" s="3"/>
+      <c r="F507" s="14"/>
       <c r="G507" s="4"/>
       <c r="H507" s="3"/>
       <c r="I507" s="3"/>
@@ -17399,7 +17408,7 @@
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="13"/>
-      <c r="F508" s="3"/>
+      <c r="F508" s="14"/>
       <c r="G508" s="4"/>
       <c r="H508" s="3"/>
       <c r="I508" s="3"/>
@@ -17429,7 +17438,7 @@
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="13"/>
-      <c r="F509" s="3"/>
+      <c r="F509" s="14"/>
       <c r="G509" s="4"/>
       <c r="H509" s="3"/>
       <c r="I509" s="3"/>
@@ -17459,7 +17468,7 @@
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="13"/>
-      <c r="F510" s="3"/>
+      <c r="F510" s="14"/>
       <c r="G510" s="4"/>
       <c r="H510" s="3"/>
       <c r="I510" s="3"/>
@@ -17489,7 +17498,7 @@
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="13"/>
-      <c r="F511" s="3"/>
+      <c r="F511" s="14"/>
       <c r="G511" s="4"/>
       <c r="H511" s="3"/>
       <c r="I511" s="3"/>
@@ -17519,7 +17528,7 @@
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="13"/>
-      <c r="F512" s="3"/>
+      <c r="F512" s="14"/>
       <c r="G512" s="4"/>
       <c r="H512" s="3"/>
       <c r="I512" s="3"/>
@@ -17549,7 +17558,7 @@
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="13"/>
-      <c r="F513" s="3"/>
+      <c r="F513" s="14"/>
       <c r="G513" s="4"/>
       <c r="H513" s="3"/>
       <c r="I513" s="3"/>
@@ -17579,7 +17588,7 @@
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="13"/>
-      <c r="F514" s="3"/>
+      <c r="F514" s="14"/>
       <c r="G514" s="4"/>
       <c r="H514" s="3"/>
       <c r="I514" s="3"/>
@@ -17609,7 +17618,7 @@
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="13"/>
-      <c r="F515" s="3"/>
+      <c r="F515" s="14"/>
       <c r="G515" s="4"/>
       <c r="H515" s="3"/>
       <c r="I515" s="3"/>
@@ -17639,7 +17648,7 @@
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="13"/>
-      <c r="F516" s="3"/>
+      <c r="F516" s="14"/>
       <c r="G516" s="4"/>
       <c r="H516" s="3"/>
       <c r="I516" s="3"/>
@@ -17669,7 +17678,7 @@
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="13"/>
-      <c r="F517" s="3"/>
+      <c r="F517" s="14"/>
       <c r="G517" s="4"/>
       <c r="H517" s="3"/>
       <c r="I517" s="3"/>
@@ -17699,7 +17708,7 @@
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="13"/>
-      <c r="F518" s="3"/>
+      <c r="F518" s="14"/>
       <c r="G518" s="4"/>
       <c r="H518" s="3"/>
       <c r="I518" s="3"/>
@@ -17729,7 +17738,7 @@
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="13"/>
-      <c r="F519" s="3"/>
+      <c r="F519" s="14"/>
       <c r="G519" s="4"/>
       <c r="H519" s="3"/>
       <c r="I519" s="3"/>
@@ -17759,7 +17768,7 @@
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="13"/>
-      <c r="F520" s="3"/>
+      <c r="F520" s="14"/>
       <c r="G520" s="4"/>
       <c r="H520" s="3"/>
       <c r="I520" s="3"/>
@@ -17789,7 +17798,7 @@
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="13"/>
-      <c r="F521" s="3"/>
+      <c r="F521" s="14"/>
       <c r="G521" s="4"/>
       <c r="H521" s="3"/>
       <c r="I521" s="3"/>
@@ -17819,7 +17828,7 @@
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="13"/>
-      <c r="F522" s="3"/>
+      <c r="F522" s="14"/>
       <c r="G522" s="4"/>
       <c r="H522" s="3"/>
       <c r="I522" s="3"/>
@@ -17849,7 +17858,7 @@
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="13"/>
-      <c r="F523" s="3"/>
+      <c r="F523" s="14"/>
       <c r="G523" s="4"/>
       <c r="H523" s="3"/>
       <c r="I523" s="3"/>
@@ -17879,7 +17888,7 @@
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="13"/>
-      <c r="F524" s="3"/>
+      <c r="F524" s="14"/>
       <c r="G524" s="4"/>
       <c r="H524" s="3"/>
       <c r="I524" s="3"/>
@@ -17909,7 +17918,7 @@
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="13"/>
-      <c r="F525" s="3"/>
+      <c r="F525" s="14"/>
       <c r="G525" s="4"/>
       <c r="H525" s="3"/>
       <c r="I525" s="3"/>
@@ -17939,7 +17948,7 @@
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="13"/>
-      <c r="F526" s="3"/>
+      <c r="F526" s="14"/>
       <c r="G526" s="4"/>
       <c r="H526" s="3"/>
       <c r="I526" s="3"/>
@@ -17969,7 +17978,7 @@
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="13"/>
-      <c r="F527" s="3"/>
+      <c r="F527" s="14"/>
       <c r="G527" s="4"/>
       <c r="H527" s="3"/>
       <c r="I527" s="3"/>
@@ -17999,7 +18008,7 @@
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="13"/>
-      <c r="F528" s="3"/>
+      <c r="F528" s="14"/>
       <c r="G528" s="4"/>
       <c r="H528" s="3"/>
       <c r="I528" s="3"/>
@@ -18029,7 +18038,7 @@
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="13"/>
-      <c r="F529" s="3"/>
+      <c r="F529" s="14"/>
       <c r="G529" s="4"/>
       <c r="H529" s="3"/>
       <c r="I529" s="3"/>
@@ -18059,7 +18068,7 @@
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="13"/>
-      <c r="F530" s="3"/>
+      <c r="F530" s="14"/>
       <c r="G530" s="4"/>
       <c r="H530" s="3"/>
       <c r="I530" s="3"/>
@@ -18089,7 +18098,7 @@
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="13"/>
-      <c r="F531" s="3"/>
+      <c r="F531" s="14"/>
       <c r="G531" s="4"/>
       <c r="H531" s="3"/>
       <c r="I531" s="3"/>
@@ -18119,7 +18128,7 @@
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="13"/>
-      <c r="F532" s="3"/>
+      <c r="F532" s="14"/>
       <c r="G532" s="4"/>
       <c r="H532" s="3"/>
       <c r="I532" s="3"/>
@@ -18149,7 +18158,7 @@
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="13"/>
-      <c r="F533" s="3"/>
+      <c r="F533" s="14"/>
       <c r="G533" s="4"/>
       <c r="H533" s="3"/>
       <c r="I533" s="3"/>
@@ -18179,7 +18188,7 @@
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="13"/>
-      <c r="F534" s="3"/>
+      <c r="F534" s="14"/>
       <c r="G534" s="4"/>
       <c r="H534" s="3"/>
       <c r="I534" s="3"/>
@@ -18209,7 +18218,7 @@
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="13"/>
-      <c r="F535" s="3"/>
+      <c r="F535" s="14"/>
       <c r="G535" s="4"/>
       <c r="H535" s="3"/>
       <c r="I535" s="3"/>
@@ -18239,7 +18248,7 @@
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="13"/>
-      <c r="F536" s="3"/>
+      <c r="F536" s="14"/>
       <c r="G536" s="4"/>
       <c r="H536" s="3"/>
       <c r="I536" s="3"/>
@@ -18269,7 +18278,7 @@
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="13"/>
-      <c r="F537" s="3"/>
+      <c r="F537" s="14"/>
       <c r="G537" s="4"/>
       <c r="H537" s="3"/>
       <c r="I537" s="3"/>
@@ -18299,7 +18308,7 @@
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="13"/>
-      <c r="F538" s="3"/>
+      <c r="F538" s="14"/>
       <c r="G538" s="4"/>
       <c r="H538" s="3"/>
       <c r="I538" s="3"/>
@@ -18329,7 +18338,7 @@
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="13"/>
-      <c r="F539" s="3"/>
+      <c r="F539" s="14"/>
       <c r="G539" s="4"/>
       <c r="H539" s="3"/>
       <c r="I539" s="3"/>
@@ -18359,7 +18368,7 @@
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="13"/>
-      <c r="F540" s="3"/>
+      <c r="F540" s="14"/>
       <c r="G540" s="4"/>
       <c r="H540" s="3"/>
       <c r="I540" s="3"/>
@@ -18389,7 +18398,7 @@
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="13"/>
-      <c r="F541" s="3"/>
+      <c r="F541" s="14"/>
       <c r="G541" s="4"/>
       <c r="H541" s="3"/>
       <c r="I541" s="3"/>
@@ -18419,7 +18428,7 @@
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="13"/>
-      <c r="F542" s="3"/>
+      <c r="F542" s="14"/>
       <c r="G542" s="4"/>
       <c r="H542" s="3"/>
       <c r="I542" s="3"/>
@@ -18449,7 +18458,7 @@
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="13"/>
-      <c r="F543" s="3"/>
+      <c r="F543" s="14"/>
       <c r="G543" s="4"/>
       <c r="H543" s="3"/>
       <c r="I543" s="3"/>
@@ -18479,7 +18488,7 @@
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="13"/>
-      <c r="F544" s="3"/>
+      <c r="F544" s="14"/>
       <c r="G544" s="4"/>
       <c r="H544" s="3"/>
       <c r="I544" s="3"/>
@@ -18509,7 +18518,7 @@
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="13"/>
-      <c r="F545" s="3"/>
+      <c r="F545" s="14"/>
       <c r="G545" s="4"/>
       <c r="H545" s="3"/>
       <c r="I545" s="3"/>
@@ -18539,7 +18548,7 @@
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="13"/>
-      <c r="F546" s="3"/>
+      <c r="F546" s="14"/>
       <c r="G546" s="4"/>
       <c r="H546" s="3"/>
       <c r="I546" s="3"/>
@@ -18569,7 +18578,7 @@
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="13"/>
-      <c r="F547" s="3"/>
+      <c r="F547" s="14"/>
       <c r="G547" s="4"/>
       <c r="H547" s="3"/>
       <c r="I547" s="3"/>
@@ -18599,7 +18608,7 @@
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="13"/>
-      <c r="F548" s="3"/>
+      <c r="F548" s="14"/>
       <c r="G548" s="4"/>
       <c r="H548" s="3"/>
       <c r="I548" s="3"/>
@@ -18629,7 +18638,7 @@
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="E549" s="13"/>
-      <c r="F549" s="3"/>
+      <c r="F549" s="14"/>
       <c r="G549" s="4"/>
       <c r="H549" s="3"/>
       <c r="I549" s="3"/>
@@ -18659,7 +18668,7 @@
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="E550" s="13"/>
-      <c r="F550" s="3"/>
+      <c r="F550" s="14"/>
       <c r="G550" s="4"/>
       <c r="H550" s="3"/>
       <c r="I550" s="3"/>
@@ -18689,7 +18698,7 @@
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="E551" s="13"/>
-      <c r="F551" s="3"/>
+      <c r="F551" s="14"/>
       <c r="G551" s="4"/>
       <c r="H551" s="3"/>
       <c r="I551" s="3"/>
@@ -18719,7 +18728,7 @@
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="E552" s="13"/>
-      <c r="F552" s="3"/>
+      <c r="F552" s="14"/>
       <c r="G552" s="4"/>
       <c r="H552" s="3"/>
       <c r="I552" s="3"/>
@@ -18749,7 +18758,7 @@
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="E553" s="13"/>
-      <c r="F553" s="3"/>
+      <c r="F553" s="14"/>
       <c r="G553" s="4"/>
       <c r="H553" s="3"/>
       <c r="I553" s="3"/>
@@ -18779,7 +18788,7 @@
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="E554" s="13"/>
-      <c r="F554" s="3"/>
+      <c r="F554" s="14"/>
       <c r="G554" s="4"/>
       <c r="H554" s="3"/>
       <c r="I554" s="3"/>
@@ -18809,7 +18818,7 @@
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="E555" s="13"/>
-      <c r="F555" s="3"/>
+      <c r="F555" s="14"/>
       <c r="G555" s="4"/>
       <c r="H555" s="3"/>
       <c r="I555" s="3"/>
@@ -18839,7 +18848,7 @@
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="E556" s="13"/>
-      <c r="F556" s="3"/>
+      <c r="F556" s="14"/>
       <c r="G556" s="4"/>
       <c r="H556" s="3"/>
       <c r="I556" s="3"/>
@@ -18869,7 +18878,7 @@
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="E557" s="13"/>
-      <c r="F557" s="3"/>
+      <c r="F557" s="14"/>
       <c r="G557" s="4"/>
       <c r="H557" s="3"/>
       <c r="I557" s="3"/>
@@ -18899,7 +18908,7 @@
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="13"/>
-      <c r="F558" s="3"/>
+      <c r="F558" s="14"/>
       <c r="G558" s="4"/>
       <c r="H558" s="3"/>
       <c r="I558" s="3"/>
@@ -18929,7 +18938,7 @@
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="E559" s="13"/>
-      <c r="F559" s="3"/>
+      <c r="F559" s="14"/>
       <c r="G559" s="4"/>
       <c r="H559" s="3"/>
       <c r="I559" s="3"/>
@@ -18959,7 +18968,7 @@
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="E560" s="13"/>
-      <c r="F560" s="3"/>
+      <c r="F560" s="14"/>
       <c r="G560" s="4"/>
       <c r="H560" s="3"/>
       <c r="I560" s="3"/>
@@ -18989,7 +18998,7 @@
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
       <c r="E561" s="13"/>
-      <c r="F561" s="3"/>
+      <c r="F561" s="14"/>
       <c r="G561" s="4"/>
       <c r="H561" s="3"/>
       <c r="I561" s="3"/>
@@ -19019,7 +19028,7 @@
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
       <c r="E562" s="13"/>
-      <c r="F562" s="3"/>
+      <c r="F562" s="14"/>
       <c r="G562" s="4"/>
       <c r="H562" s="3"/>
       <c r="I562" s="3"/>
@@ -19049,7 +19058,7 @@
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
       <c r="E563" s="13"/>
-      <c r="F563" s="3"/>
+      <c r="F563" s="14"/>
       <c r="G563" s="4"/>
       <c r="H563" s="3"/>
       <c r="I563" s="3"/>
@@ -19079,7 +19088,7 @@
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
       <c r="E564" s="13"/>
-      <c r="F564" s="3"/>
+      <c r="F564" s="14"/>
       <c r="G564" s="4"/>
       <c r="H564" s="3"/>
       <c r="I564" s="3"/>
@@ -19109,7 +19118,7 @@
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
       <c r="E565" s="13"/>
-      <c r="F565" s="3"/>
+      <c r="F565" s="14"/>
       <c r="G565" s="4"/>
       <c r="H565" s="3"/>
       <c r="I565" s="3"/>
@@ -19139,7 +19148,7 @@
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
       <c r="E566" s="13"/>
-      <c r="F566" s="3"/>
+      <c r="F566" s="14"/>
       <c r="G566" s="4"/>
       <c r="H566" s="3"/>
       <c r="I566" s="3"/>
@@ -19169,7 +19178,7 @@
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
       <c r="E567" s="13"/>
-      <c r="F567" s="3"/>
+      <c r="F567" s="14"/>
       <c r="G567" s="4"/>
       <c r="H567" s="3"/>
       <c r="I567" s="3"/>
@@ -19199,7 +19208,7 @@
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
       <c r="E568" s="13"/>
-      <c r="F568" s="3"/>
+      <c r="F568" s="14"/>
       <c r="G568" s="4"/>
       <c r="H568" s="3"/>
       <c r="I568" s="3"/>
@@ -19229,7 +19238,7 @@
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
       <c r="E569" s="13"/>
-      <c r="F569" s="3"/>
+      <c r="F569" s="14"/>
       <c r="G569" s="4"/>
       <c r="H569" s="3"/>
       <c r="I569" s="3"/>
@@ -19259,7 +19268,7 @@
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
       <c r="E570" s="13"/>
-      <c r="F570" s="3"/>
+      <c r="F570" s="14"/>
       <c r="G570" s="4"/>
       <c r="H570" s="3"/>
       <c r="I570" s="3"/>
@@ -19289,7 +19298,7 @@
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
       <c r="E571" s="13"/>
-      <c r="F571" s="3"/>
+      <c r="F571" s="14"/>
       <c r="G571" s="4"/>
       <c r="H571" s="3"/>
       <c r="I571" s="3"/>
@@ -19319,7 +19328,7 @@
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
       <c r="E572" s="13"/>
-      <c r="F572" s="3"/>
+      <c r="F572" s="14"/>
       <c r="G572" s="4"/>
       <c r="H572" s="3"/>
       <c r="I572" s="3"/>
@@ -19349,7 +19358,7 @@
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
       <c r="E573" s="13"/>
-      <c r="F573" s="3"/>
+      <c r="F573" s="14"/>
       <c r="G573" s="4"/>
       <c r="H573" s="3"/>
       <c r="I573" s="3"/>
@@ -19379,7 +19388,7 @@
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
       <c r="E574" s="13"/>
-      <c r="F574" s="3"/>
+      <c r="F574" s="14"/>
       <c r="G574" s="4"/>
       <c r="H574" s="3"/>
       <c r="I574" s="3"/>
@@ -19409,7 +19418,7 @@
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
       <c r="E575" s="13"/>
-      <c r="F575" s="3"/>
+      <c r="F575" s="14"/>
       <c r="G575" s="4"/>
       <c r="H575" s="3"/>
       <c r="I575" s="3"/>
@@ -19439,7 +19448,7 @@
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
       <c r="E576" s="13"/>
-      <c r="F576" s="3"/>
+      <c r="F576" s="14"/>
       <c r="G576" s="4"/>
       <c r="H576" s="3"/>
       <c r="I576" s="3"/>
@@ -19469,7 +19478,7 @@
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
       <c r="E577" s="13"/>
-      <c r="F577" s="3"/>
+      <c r="F577" s="14"/>
       <c r="G577" s="4"/>
       <c r="H577" s="3"/>
       <c r="I577" s="3"/>
@@ -19499,7 +19508,7 @@
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
       <c r="E578" s="13"/>
-      <c r="F578" s="3"/>
+      <c r="F578" s="14"/>
       <c r="G578" s="4"/>
       <c r="H578" s="3"/>
       <c r="I578" s="3"/>
@@ -19529,7 +19538,7 @@
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
       <c r="E579" s="13"/>
-      <c r="F579" s="3"/>
+      <c r="F579" s="14"/>
       <c r="G579" s="4"/>
       <c r="H579" s="3"/>
       <c r="I579" s="3"/>
@@ -19559,7 +19568,7 @@
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
       <c r="E580" s="13"/>
-      <c r="F580" s="3"/>
+      <c r="F580" s="14"/>
       <c r="G580" s="4"/>
       <c r="H580" s="3"/>
       <c r="I580" s="3"/>
@@ -19589,7 +19598,7 @@
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
       <c r="E581" s="13"/>
-      <c r="F581" s="3"/>
+      <c r="F581" s="14"/>
       <c r="G581" s="4"/>
       <c r="H581" s="3"/>
       <c r="I581" s="3"/>
@@ -19619,7 +19628,7 @@
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
       <c r="E582" s="13"/>
-      <c r="F582" s="3"/>
+      <c r="F582" s="14"/>
       <c r="G582" s="4"/>
       <c r="H582" s="3"/>
       <c r="I582" s="3"/>
@@ -19649,7 +19658,7 @@
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
       <c r="E583" s="13"/>
-      <c r="F583" s="3"/>
+      <c r="F583" s="14"/>
       <c r="G583" s="4"/>
       <c r="H583" s="3"/>
       <c r="I583" s="3"/>
@@ -19679,7 +19688,7 @@
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
       <c r="E584" s="13"/>
-      <c r="F584" s="3"/>
+      <c r="F584" s="14"/>
       <c r="G584" s="4"/>
       <c r="H584" s="3"/>
       <c r="I584" s="3"/>
@@ -19709,7 +19718,7 @@
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
       <c r="E585" s="13"/>
-      <c r="F585" s="3"/>
+      <c r="F585" s="14"/>
       <c r="G585" s="4"/>
       <c r="H585" s="3"/>
       <c r="I585" s="3"/>
@@ -19739,7 +19748,7 @@
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
       <c r="E586" s="13"/>
-      <c r="F586" s="3"/>
+      <c r="F586" s="14"/>
       <c r="G586" s="4"/>
       <c r="H586" s="3"/>
       <c r="I586" s="3"/>
@@ -19769,7 +19778,7 @@
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
       <c r="E587" s="13"/>
-      <c r="F587" s="3"/>
+      <c r="F587" s="14"/>
       <c r="G587" s="4"/>
       <c r="H587" s="3"/>
       <c r="I587" s="3"/>
@@ -19799,7 +19808,7 @@
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
       <c r="E588" s="13"/>
-      <c r="F588" s="3"/>
+      <c r="F588" s="14"/>
       <c r="G588" s="4"/>
       <c r="H588" s="3"/>
       <c r="I588" s="3"/>
@@ -19829,7 +19838,7 @@
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
       <c r="E589" s="13"/>
-      <c r="F589" s="3"/>
+      <c r="F589" s="14"/>
       <c r="G589" s="4"/>
       <c r="H589" s="3"/>
       <c r="I589" s="3"/>
@@ -19859,7 +19868,7 @@
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
       <c r="E590" s="13"/>
-      <c r="F590" s="3"/>
+      <c r="F590" s="14"/>
       <c r="G590" s="4"/>
       <c r="H590" s="3"/>
       <c r="I590" s="3"/>
@@ -19889,7 +19898,7 @@
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
       <c r="E591" s="13"/>
-      <c r="F591" s="3"/>
+      <c r="F591" s="14"/>
       <c r="G591" s="4"/>
       <c r="H591" s="3"/>
       <c r="I591" s="3"/>
@@ -19919,7 +19928,7 @@
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
       <c r="E592" s="13"/>
-      <c r="F592" s="3"/>
+      <c r="F592" s="14"/>
       <c r="G592" s="4"/>
       <c r="H592" s="3"/>
       <c r="I592" s="3"/>
@@ -19949,7 +19958,7 @@
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
       <c r="E593" s="13"/>
-      <c r="F593" s="3"/>
+      <c r="F593" s="14"/>
       <c r="G593" s="4"/>
       <c r="H593" s="3"/>
       <c r="I593" s="3"/>
@@ -19979,7 +19988,7 @@
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
       <c r="E594" s="13"/>
-      <c r="F594" s="3"/>
+      <c r="F594" s="14"/>
       <c r="G594" s="4"/>
       <c r="H594" s="3"/>
       <c r="I594" s="3"/>
@@ -20009,7 +20018,7 @@
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
       <c r="E595" s="13"/>
-      <c r="F595" s="3"/>
+      <c r="F595" s="14"/>
       <c r="G595" s="4"/>
       <c r="H595" s="3"/>
       <c r="I595" s="3"/>
@@ -20039,7 +20048,7 @@
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
       <c r="E596" s="13"/>
-      <c r="F596" s="3"/>
+      <c r="F596" s="14"/>
       <c r="G596" s="4"/>
       <c r="H596" s="3"/>
       <c r="I596" s="3"/>
@@ -20069,7 +20078,7 @@
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
       <c r="E597" s="13"/>
-      <c r="F597" s="3"/>
+      <c r="F597" s="14"/>
       <c r="G597" s="4"/>
       <c r="H597" s="3"/>
       <c r="I597" s="3"/>
@@ -20099,7 +20108,7 @@
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
       <c r="E598" s="13"/>
-      <c r="F598" s="3"/>
+      <c r="F598" s="14"/>
       <c r="G598" s="4"/>
       <c r="H598" s="3"/>
       <c r="I598" s="3"/>
@@ -20129,7 +20138,7 @@
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
       <c r="E599" s="13"/>
-      <c r="F599" s="3"/>
+      <c r="F599" s="14"/>
       <c r="G599" s="4"/>
       <c r="H599" s="3"/>
       <c r="I599" s="3"/>
@@ -20159,7 +20168,7 @@
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
       <c r="E600" s="13"/>
-      <c r="F600" s="3"/>
+      <c r="F600" s="14"/>
       <c r="G600" s="4"/>
       <c r="H600" s="3"/>
       <c r="I600" s="3"/>
@@ -20189,7 +20198,7 @@
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
       <c r="E601" s="13"/>
-      <c r="F601" s="3"/>
+      <c r="F601" s="14"/>
       <c r="G601" s="4"/>
       <c r="H601" s="3"/>
       <c r="I601" s="3"/>
@@ -20219,7 +20228,7 @@
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
       <c r="E602" s="13"/>
-      <c r="F602" s="3"/>
+      <c r="F602" s="14"/>
       <c r="G602" s="4"/>
       <c r="H602" s="3"/>
       <c r="I602" s="3"/>
@@ -20249,7 +20258,7 @@
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
       <c r="E603" s="13"/>
-      <c r="F603" s="3"/>
+      <c r="F603" s="14"/>
       <c r="G603" s="4"/>
       <c r="H603" s="3"/>
       <c r="I603" s="3"/>
@@ -20279,7 +20288,7 @@
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
       <c r="E604" s="13"/>
-      <c r="F604" s="3"/>
+      <c r="F604" s="14"/>
       <c r="G604" s="4"/>
       <c r="H604" s="3"/>
       <c r="I604" s="3"/>
@@ -20309,7 +20318,7 @@
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
       <c r="E605" s="13"/>
-      <c r="F605" s="3"/>
+      <c r="F605" s="14"/>
       <c r="G605" s="4"/>
       <c r="H605" s="3"/>
       <c r="I605" s="3"/>
@@ -20339,7 +20348,7 @@
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
       <c r="E606" s="13"/>
-      <c r="F606" s="3"/>
+      <c r="F606" s="14"/>
       <c r="G606" s="4"/>
       <c r="H606" s="3"/>
       <c r="I606" s="3"/>
@@ -20369,7 +20378,7 @@
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
       <c r="E607" s="13"/>
-      <c r="F607" s="3"/>
+      <c r="F607" s="14"/>
       <c r="G607" s="4"/>
       <c r="H607" s="3"/>
       <c r="I607" s="3"/>
@@ -20399,7 +20408,7 @@
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
       <c r="E608" s="13"/>
-      <c r="F608" s="3"/>
+      <c r="F608" s="14"/>
       <c r="G608" s="4"/>
       <c r="H608" s="3"/>
       <c r="I608" s="3"/>
@@ -20429,7 +20438,7 @@
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
       <c r="E609" s="13"/>
-      <c r="F609" s="3"/>
+      <c r="F609" s="14"/>
       <c r="G609" s="4"/>
       <c r="H609" s="3"/>
       <c r="I609" s="3"/>
@@ -20459,7 +20468,7 @@
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
       <c r="E610" s="13"/>
-      <c r="F610" s="3"/>
+      <c r="F610" s="14"/>
       <c r="G610" s="4"/>
       <c r="H610" s="3"/>
       <c r="I610" s="3"/>
@@ -20489,7 +20498,7 @@
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
       <c r="E611" s="13"/>
-      <c r="F611" s="3"/>
+      <c r="F611" s="14"/>
       <c r="G611" s="4"/>
       <c r="H611" s="3"/>
       <c r="I611" s="3"/>
@@ -20519,7 +20528,7 @@
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
       <c r="E612" s="13"/>
-      <c r="F612" s="3"/>
+      <c r="F612" s="14"/>
       <c r="G612" s="4"/>
       <c r="H612" s="3"/>
       <c r="I612" s="3"/>
@@ -20549,7 +20558,7 @@
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
       <c r="E613" s="13"/>
-      <c r="F613" s="3"/>
+      <c r="F613" s="14"/>
       <c r="G613" s="4"/>
       <c r="H613" s="3"/>
       <c r="I613" s="3"/>
@@ -20579,7 +20588,7 @@
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
       <c r="E614" s="13"/>
-      <c r="F614" s="3"/>
+      <c r="F614" s="14"/>
       <c r="G614" s="4"/>
       <c r="H614" s="3"/>
       <c r="I614" s="3"/>
@@ -20609,7 +20618,7 @@
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
       <c r="E615" s="13"/>
-      <c r="F615" s="3"/>
+      <c r="F615" s="14"/>
       <c r="G615" s="4"/>
       <c r="H615" s="3"/>
       <c r="I615" s="3"/>
@@ -20639,7 +20648,7 @@
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
       <c r="E616" s="13"/>
-      <c r="F616" s="3"/>
+      <c r="F616" s="14"/>
       <c r="G616" s="4"/>
       <c r="H616" s="3"/>
       <c r="I616" s="3"/>
@@ -20669,7 +20678,7 @@
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
       <c r="E617" s="13"/>
-      <c r="F617" s="3"/>
+      <c r="F617" s="14"/>
       <c r="G617" s="4"/>
       <c r="H617" s="3"/>
       <c r="I617" s="3"/>
@@ -20699,7 +20708,7 @@
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
       <c r="E618" s="13"/>
-      <c r="F618" s="3"/>
+      <c r="F618" s="14"/>
       <c r="G618" s="4"/>
       <c r="H618" s="3"/>
       <c r="I618" s="3"/>
@@ -20729,7 +20738,7 @@
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
       <c r="E619" s="13"/>
-      <c r="F619" s="3"/>
+      <c r="F619" s="14"/>
       <c r="G619" s="4"/>
       <c r="H619" s="3"/>
       <c r="I619" s="3"/>
@@ -20759,7 +20768,7 @@
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
       <c r="E620" s="13"/>
-      <c r="F620" s="3"/>
+      <c r="F620" s="14"/>
       <c r="G620" s="4"/>
       <c r="H620" s="3"/>
       <c r="I620" s="3"/>
@@ -20789,7 +20798,7 @@
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
       <c r="E621" s="13"/>
-      <c r="F621" s="3"/>
+      <c r="F621" s="14"/>
       <c r="G621" s="4"/>
       <c r="H621" s="3"/>
       <c r="I621" s="3"/>
@@ -20819,7 +20828,7 @@
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
       <c r="E622" s="13"/>
-      <c r="F622" s="3"/>
+      <c r="F622" s="14"/>
       <c r="G622" s="4"/>
       <c r="H622" s="3"/>
       <c r="I622" s="3"/>
@@ -20849,7 +20858,7 @@
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
       <c r="E623" s="13"/>
-      <c r="F623" s="3"/>
+      <c r="F623" s="14"/>
       <c r="G623" s="4"/>
       <c r="H623" s="3"/>
       <c r="I623" s="3"/>
@@ -20879,7 +20888,7 @@
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
       <c r="E624" s="13"/>
-      <c r="F624" s="3"/>
+      <c r="F624" s="14"/>
       <c r="G624" s="4"/>
       <c r="H624" s="3"/>
       <c r="I624" s="3"/>
@@ -20909,7 +20918,7 @@
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
       <c r="E625" s="13"/>
-      <c r="F625" s="3"/>
+      <c r="F625" s="14"/>
       <c r="G625" s="4"/>
       <c r="H625" s="3"/>
       <c r="I625" s="3"/>
@@ -20939,7 +20948,7 @@
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
       <c r="E626" s="13"/>
-      <c r="F626" s="3"/>
+      <c r="F626" s="14"/>
       <c r="G626" s="4"/>
       <c r="H626" s="3"/>
       <c r="I626" s="3"/>
@@ -20969,7 +20978,7 @@
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
       <c r="E627" s="13"/>
-      <c r="F627" s="3"/>
+      <c r="F627" s="14"/>
       <c r="G627" s="4"/>
       <c r="H627" s="3"/>
       <c r="I627" s="3"/>
@@ -20999,7 +21008,7 @@
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
       <c r="E628" s="13"/>
-      <c r="F628" s="3"/>
+      <c r="F628" s="14"/>
       <c r="G628" s="4"/>
       <c r="H628" s="3"/>
       <c r="I628" s="3"/>
@@ -21029,7 +21038,7 @@
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
       <c r="E629" s="13"/>
-      <c r="F629" s="3"/>
+      <c r="F629" s="14"/>
       <c r="G629" s="4"/>
       <c r="H629" s="3"/>
       <c r="I629" s="3"/>
@@ -21059,7 +21068,7 @@
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
       <c r="E630" s="13"/>
-      <c r="F630" s="3"/>
+      <c r="F630" s="14"/>
       <c r="G630" s="4"/>
       <c r="H630" s="3"/>
       <c r="I630" s="3"/>
@@ -21089,7 +21098,7 @@
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
       <c r="E631" s="13"/>
-      <c r="F631" s="3"/>
+      <c r="F631" s="14"/>
       <c r="G631" s="4"/>
       <c r="H631" s="3"/>
       <c r="I631" s="3"/>
@@ -21119,7 +21128,7 @@
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
       <c r="E632" s="13"/>
-      <c r="F632" s="3"/>
+      <c r="F632" s="14"/>
       <c r="G632" s="4"/>
       <c r="H632" s="3"/>
       <c r="I632" s="3"/>
@@ -21149,7 +21158,7 @@
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
       <c r="E633" s="13"/>
-      <c r="F633" s="3"/>
+      <c r="F633" s="14"/>
       <c r="G633" s="4"/>
       <c r="H633" s="3"/>
       <c r="I633" s="3"/>
@@ -21179,7 +21188,7 @@
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
       <c r="E634" s="13"/>
-      <c r="F634" s="3"/>
+      <c r="F634" s="14"/>
       <c r="G634" s="4"/>
       <c r="H634" s="3"/>
       <c r="I634" s="3"/>
@@ -21209,7 +21218,7 @@
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
       <c r="E635" s="13"/>
-      <c r="F635" s="3"/>
+      <c r="F635" s="14"/>
       <c r="G635" s="4"/>
       <c r="H635" s="3"/>
       <c r="I635" s="3"/>
@@ -21239,7 +21248,7 @@
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
       <c r="E636" s="13"/>
-      <c r="F636" s="3"/>
+      <c r="F636" s="14"/>
       <c r="G636" s="4"/>
       <c r="H636" s="3"/>
       <c r="I636" s="3"/>
@@ -21269,7 +21278,7 @@
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
       <c r="E637" s="13"/>
-      <c r="F637" s="3"/>
+      <c r="F637" s="14"/>
       <c r="G637" s="4"/>
       <c r="H637" s="3"/>
       <c r="I637" s="3"/>
@@ -21299,7 +21308,7 @@
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
       <c r="E638" s="13"/>
-      <c r="F638" s="3"/>
+      <c r="F638" s="14"/>
       <c r="G638" s="4"/>
       <c r="H638" s="3"/>
       <c r="I638" s="3"/>
@@ -21329,7 +21338,7 @@
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
       <c r="E639" s="13"/>
-      <c r="F639" s="3"/>
+      <c r="F639" s="14"/>
       <c r="G639" s="4"/>
       <c r="H639" s="3"/>
       <c r="I639" s="3"/>
@@ -21359,7 +21368,7 @@
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
       <c r="E640" s="13"/>
-      <c r="F640" s="3"/>
+      <c r="F640" s="14"/>
       <c r="G640" s="4"/>
       <c r="H640" s="3"/>
       <c r="I640" s="3"/>
@@ -21389,7 +21398,7 @@
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
       <c r="E641" s="13"/>
-      <c r="F641" s="3"/>
+      <c r="F641" s="14"/>
       <c r="G641" s="4"/>
       <c r="H641" s="3"/>
       <c r="I641" s="3"/>
@@ -21419,7 +21428,7 @@
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
       <c r="E642" s="13"/>
-      <c r="F642" s="3"/>
+      <c r="F642" s="14"/>
       <c r="G642" s="4"/>
       <c r="H642" s="3"/>
       <c r="I642" s="3"/>
@@ -21449,7 +21458,7 @@
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
       <c r="E643" s="13"/>
-      <c r="F643" s="3"/>
+      <c r="F643" s="14"/>
       <c r="G643" s="4"/>
       <c r="H643" s="3"/>
       <c r="I643" s="3"/>
@@ -21479,7 +21488,7 @@
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
       <c r="E644" s="13"/>
-      <c r="F644" s="3"/>
+      <c r="F644" s="14"/>
       <c r="G644" s="4"/>
       <c r="H644" s="3"/>
       <c r="I644" s="3"/>
@@ -21509,7 +21518,7 @@
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
       <c r="E645" s="13"/>
-      <c r="F645" s="3"/>
+      <c r="F645" s="14"/>
       <c r="G645" s="4"/>
       <c r="H645" s="3"/>
       <c r="I645" s="3"/>
@@ -21539,7 +21548,7 @@
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
       <c r="E646" s="13"/>
-      <c r="F646" s="3"/>
+      <c r="F646" s="14"/>
       <c r="G646" s="4"/>
       <c r="H646" s="3"/>
       <c r="I646" s="3"/>
@@ -21569,7 +21578,7 @@
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
       <c r="E647" s="13"/>
-      <c r="F647" s="3"/>
+      <c r="F647" s="14"/>
       <c r="G647" s="4"/>
       <c r="H647" s="3"/>
       <c r="I647" s="3"/>
@@ -21599,7 +21608,7 @@
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
       <c r="E648" s="13"/>
-      <c r="F648" s="3"/>
+      <c r="F648" s="14"/>
       <c r="G648" s="4"/>
       <c r="H648" s="3"/>
       <c r="I648" s="3"/>
@@ -21629,7 +21638,7 @@
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
       <c r="E649" s="13"/>
-      <c r="F649" s="3"/>
+      <c r="F649" s="14"/>
       <c r="G649" s="4"/>
       <c r="H649" s="3"/>
       <c r="I649" s="3"/>
@@ -21659,7 +21668,7 @@
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
       <c r="E650" s="13"/>
-      <c r="F650" s="3"/>
+      <c r="F650" s="14"/>
       <c r="G650" s="4"/>
       <c r="H650" s="3"/>
       <c r="I650" s="3"/>
@@ -21689,7 +21698,7 @@
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
       <c r="E651" s="13"/>
-      <c r="F651" s="3"/>
+      <c r="F651" s="14"/>
       <c r="G651" s="4"/>
       <c r="H651" s="3"/>
       <c r="I651" s="3"/>
@@ -21719,7 +21728,7 @@
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
       <c r="E652" s="13"/>
-      <c r="F652" s="3"/>
+      <c r="F652" s="14"/>
       <c r="G652" s="4"/>
       <c r="H652" s="3"/>
       <c r="I652" s="3"/>
@@ -21749,7 +21758,7 @@
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
       <c r="E653" s="13"/>
-      <c r="F653" s="3"/>
+      <c r="F653" s="14"/>
       <c r="G653" s="4"/>
       <c r="H653" s="3"/>
       <c r="I653" s="3"/>
@@ -21779,7 +21788,7 @@
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
       <c r="E654" s="13"/>
-      <c r="F654" s="3"/>
+      <c r="F654" s="14"/>
       <c r="G654" s="4"/>
       <c r="H654" s="3"/>
       <c r="I654" s="3"/>
@@ -21809,7 +21818,7 @@
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
       <c r="E655" s="13"/>
-      <c r="F655" s="3"/>
+      <c r="F655" s="14"/>
       <c r="G655" s="4"/>
       <c r="H655" s="3"/>
       <c r="I655" s="3"/>
@@ -21839,7 +21848,7 @@
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
       <c r="E656" s="13"/>
-      <c r="F656" s="3"/>
+      <c r="F656" s="14"/>
       <c r="G656" s="4"/>
       <c r="H656" s="3"/>
       <c r="I656" s="3"/>
@@ -21869,7 +21878,7 @@
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
       <c r="E657" s="13"/>
-      <c r="F657" s="3"/>
+      <c r="F657" s="14"/>
       <c r="G657" s="4"/>
       <c r="H657" s="3"/>
       <c r="I657" s="3"/>
@@ -21899,7 +21908,7 @@
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
       <c r="E658" s="13"/>
-      <c r="F658" s="3"/>
+      <c r="F658" s="14"/>
       <c r="G658" s="4"/>
       <c r="H658" s="3"/>
       <c r="I658" s="3"/>
@@ -21929,7 +21938,7 @@
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
       <c r="E659" s="13"/>
-      <c r="F659" s="3"/>
+      <c r="F659" s="14"/>
       <c r="G659" s="4"/>
       <c r="H659" s="3"/>
       <c r="I659" s="3"/>
@@ -21959,7 +21968,7 @@
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
       <c r="E660" s="13"/>
-      <c r="F660" s="3"/>
+      <c r="F660" s="14"/>
       <c r="G660" s="4"/>
       <c r="H660" s="3"/>
       <c r="I660" s="3"/>
@@ -21989,7 +21998,7 @@
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
       <c r="E661" s="13"/>
-      <c r="F661" s="3"/>
+      <c r="F661" s="14"/>
       <c r="G661" s="4"/>
       <c r="H661" s="3"/>
       <c r="I661" s="3"/>
@@ -22019,7 +22028,7 @@
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
       <c r="E662" s="13"/>
-      <c r="F662" s="3"/>
+      <c r="F662" s="14"/>
       <c r="G662" s="4"/>
       <c r="H662" s="3"/>
       <c r="I662" s="3"/>
@@ -22049,7 +22058,7 @@
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
       <c r="E663" s="13"/>
-      <c r="F663" s="3"/>
+      <c r="F663" s="14"/>
       <c r="G663" s="4"/>
       <c r="H663" s="3"/>
       <c r="I663" s="3"/>
@@ -22079,7 +22088,7 @@
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
       <c r="E664" s="13"/>
-      <c r="F664" s="3"/>
+      <c r="F664" s="14"/>
       <c r="G664" s="4"/>
       <c r="H664" s="3"/>
       <c r="I664" s="3"/>
@@ -22109,7 +22118,7 @@
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
       <c r="E665" s="13"/>
-      <c r="F665" s="3"/>
+      <c r="F665" s="14"/>
       <c r="G665" s="4"/>
       <c r="H665" s="3"/>
       <c r="I665" s="3"/>
@@ -22139,7 +22148,7 @@
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
       <c r="E666" s="13"/>
-      <c r="F666" s="3"/>
+      <c r="F666" s="14"/>
       <c r="G666" s="4"/>
       <c r="H666" s="3"/>
       <c r="I666" s="3"/>
@@ -22169,7 +22178,7 @@
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
       <c r="E667" s="13"/>
-      <c r="F667" s="3"/>
+      <c r="F667" s="14"/>
       <c r="G667" s="4"/>
       <c r="H667" s="3"/>
       <c r="I667" s="3"/>
@@ -22199,7 +22208,7 @@
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
       <c r="E668" s="13"/>
-      <c r="F668" s="3"/>
+      <c r="F668" s="14"/>
       <c r="G668" s="4"/>
       <c r="H668" s="3"/>
       <c r="I668" s="3"/>
@@ -22229,7 +22238,7 @@
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
       <c r="E669" s="13"/>
-      <c r="F669" s="3"/>
+      <c r="F669" s="14"/>
       <c r="G669" s="4"/>
       <c r="H669" s="3"/>
       <c r="I669" s="3"/>
@@ -22259,7 +22268,7 @@
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
       <c r="E670" s="13"/>
-      <c r="F670" s="3"/>
+      <c r="F670" s="14"/>
       <c r="G670" s="4"/>
       <c r="H670" s="3"/>
       <c r="I670" s="3"/>
@@ -22289,7 +22298,7 @@
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
       <c r="E671" s="13"/>
-      <c r="F671" s="3"/>
+      <c r="F671" s="14"/>
       <c r="G671" s="4"/>
       <c r="H671" s="3"/>
       <c r="I671" s="3"/>
@@ -22319,7 +22328,7 @@
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
       <c r="E672" s="13"/>
-      <c r="F672" s="3"/>
+      <c r="F672" s="14"/>
       <c r="G672" s="4"/>
       <c r="H672" s="3"/>
       <c r="I672" s="3"/>
@@ -22349,7 +22358,7 @@
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
       <c r="E673" s="13"/>
-      <c r="F673" s="3"/>
+      <c r="F673" s="14"/>
       <c r="G673" s="4"/>
       <c r="H673" s="3"/>
       <c r="I673" s="3"/>
@@ -22379,7 +22388,7 @@
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
       <c r="E674" s="13"/>
-      <c r="F674" s="3"/>
+      <c r="F674" s="14"/>
       <c r="G674" s="4"/>
       <c r="H674" s="3"/>
       <c r="I674" s="3"/>
@@ -22409,7 +22418,7 @@
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
       <c r="E675" s="13"/>
-      <c r="F675" s="3"/>
+      <c r="F675" s="14"/>
       <c r="G675" s="4"/>
       <c r="H675" s="3"/>
       <c r="I675" s="3"/>
@@ -22439,7 +22448,7 @@
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
       <c r="E676" s="13"/>
-      <c r="F676" s="3"/>
+      <c r="F676" s="14"/>
       <c r="G676" s="4"/>
       <c r="H676" s="3"/>
       <c r="I676" s="3"/>
@@ -22469,7 +22478,7 @@
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
       <c r="E677" s="13"/>
-      <c r="F677" s="3"/>
+      <c r="F677" s="14"/>
       <c r="G677" s="4"/>
       <c r="H677" s="3"/>
       <c r="I677" s="3"/>
@@ -22499,7 +22508,7 @@
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
       <c r="E678" s="13"/>
-      <c r="F678" s="3"/>
+      <c r="F678" s="14"/>
       <c r="G678" s="4"/>
       <c r="H678" s="3"/>
       <c r="I678" s="3"/>
@@ -22529,7 +22538,7 @@
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
       <c r="E679" s="13"/>
-      <c r="F679" s="3"/>
+      <c r="F679" s="14"/>
       <c r="G679" s="4"/>
       <c r="H679" s="3"/>
       <c r="I679" s="3"/>
@@ -22559,7 +22568,7 @@
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
       <c r="E680" s="13"/>
-      <c r="F680" s="3"/>
+      <c r="F680" s="14"/>
       <c r="G680" s="4"/>
       <c r="H680" s="3"/>
       <c r="I680" s="3"/>
@@ -22589,7 +22598,7 @@
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
       <c r="E681" s="13"/>
-      <c r="F681" s="3"/>
+      <c r="F681" s="14"/>
       <c r="G681" s="4"/>
       <c r="H681" s="3"/>
       <c r="I681" s="3"/>
@@ -22619,7 +22628,7 @@
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
       <c r="E682" s="13"/>
-      <c r="F682" s="3"/>
+      <c r="F682" s="14"/>
       <c r="G682" s="4"/>
       <c r="H682" s="3"/>
       <c r="I682" s="3"/>
@@ -22649,7 +22658,7 @@
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
       <c r="E683" s="13"/>
-      <c r="F683" s="3"/>
+      <c r="F683" s="14"/>
       <c r="G683" s="4"/>
       <c r="H683" s="3"/>
       <c r="I683" s="3"/>
@@ -22679,7 +22688,7 @@
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
       <c r="E684" s="13"/>
-      <c r="F684" s="3"/>
+      <c r="F684" s="14"/>
       <c r="G684" s="4"/>
       <c r="H684" s="3"/>
       <c r="I684" s="3"/>
@@ -22709,7 +22718,7 @@
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
       <c r="E685" s="13"/>
-      <c r="F685" s="3"/>
+      <c r="F685" s="14"/>
       <c r="G685" s="4"/>
       <c r="H685" s="3"/>
       <c r="I685" s="3"/>
@@ -22739,7 +22748,7 @@
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
       <c r="E686" s="13"/>
-      <c r="F686" s="3"/>
+      <c r="F686" s="14"/>
       <c r="G686" s="4"/>
       <c r="H686" s="3"/>
       <c r="I686" s="3"/>
@@ -22769,7 +22778,7 @@
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
       <c r="E687" s="13"/>
-      <c r="F687" s="3"/>
+      <c r="F687" s="14"/>
       <c r="G687" s="4"/>
       <c r="H687" s="3"/>
       <c r="I687" s="3"/>
@@ -22799,7 +22808,7 @@
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
       <c r="E688" s="13"/>
-      <c r="F688" s="3"/>
+      <c r="F688" s="14"/>
       <c r="G688" s="4"/>
       <c r="H688" s="3"/>
       <c r="I688" s="3"/>
@@ -22829,7 +22838,7 @@
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
       <c r="E689" s="13"/>
-      <c r="F689" s="3"/>
+      <c r="F689" s="14"/>
       <c r="G689" s="4"/>
       <c r="H689" s="3"/>
       <c r="I689" s="3"/>
@@ -22859,7 +22868,7 @@
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
       <c r="E690" s="13"/>
-      <c r="F690" s="3"/>
+      <c r="F690" s="14"/>
       <c r="G690" s="4"/>
       <c r="H690" s="3"/>
       <c r="I690" s="3"/>
@@ -22889,7 +22898,7 @@
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
       <c r="E691" s="13"/>
-      <c r="F691" s="3"/>
+      <c r="F691" s="14"/>
       <c r="G691" s="4"/>
       <c r="H691" s="3"/>
       <c r="I691" s="3"/>
@@ -22919,7 +22928,7 @@
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
       <c r="E692" s="13"/>
-      <c r="F692" s="3"/>
+      <c r="F692" s="14"/>
       <c r="G692" s="4"/>
       <c r="H692" s="3"/>
       <c r="I692" s="3"/>
@@ -22949,7 +22958,7 @@
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
       <c r="E693" s="13"/>
-      <c r="F693" s="3"/>
+      <c r="F693" s="14"/>
       <c r="G693" s="4"/>
       <c r="H693" s="3"/>
       <c r="I693" s="3"/>
@@ -22979,7 +22988,7 @@
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
       <c r="E694" s="13"/>
-      <c r="F694" s="3"/>
+      <c r="F694" s="14"/>
       <c r="G694" s="4"/>
       <c r="H694" s="3"/>
       <c r="I694" s="3"/>
@@ -23009,7 +23018,7 @@
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
       <c r="E695" s="13"/>
-      <c r="F695" s="3"/>
+      <c r="F695" s="14"/>
       <c r="G695" s="4"/>
       <c r="H695" s="3"/>
       <c r="I695" s="3"/>
@@ -23039,7 +23048,7 @@
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
       <c r="E696" s="13"/>
-      <c r="F696" s="3"/>
+      <c r="F696" s="14"/>
       <c r="G696" s="4"/>
       <c r="H696" s="3"/>
       <c r="I696" s="3"/>
@@ -23069,7 +23078,7 @@
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
       <c r="E697" s="13"/>
-      <c r="F697" s="3"/>
+      <c r="F697" s="14"/>
       <c r="G697" s="4"/>
       <c r="H697" s="3"/>
       <c r="I697" s="3"/>
@@ -23099,7 +23108,7 @@
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
       <c r="E698" s="13"/>
-      <c r="F698" s="3"/>
+      <c r="F698" s="14"/>
       <c r="G698" s="4"/>
       <c r="H698" s="3"/>
       <c r="I698" s="3"/>
@@ -23129,7 +23138,7 @@
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
       <c r="E699" s="13"/>
-      <c r="F699" s="3"/>
+      <c r="F699" s="14"/>
       <c r="G699" s="4"/>
       <c r="H699" s="3"/>
       <c r="I699" s="3"/>
@@ -23159,7 +23168,7 @@
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
       <c r="E700" s="13"/>
-      <c r="F700" s="3"/>
+      <c r="F700" s="14"/>
       <c r="G700" s="4"/>
       <c r="H700" s="3"/>
       <c r="I700" s="3"/>
@@ -23189,7 +23198,7 @@
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
       <c r="E701" s="13"/>
-      <c r="F701" s="3"/>
+      <c r="F701" s="14"/>
       <c r="G701" s="4"/>
       <c r="H701" s="3"/>
       <c r="I701" s="3"/>
@@ -23219,7 +23228,7 @@
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
       <c r="E702" s="13"/>
-      <c r="F702" s="3"/>
+      <c r="F702" s="14"/>
       <c r="G702" s="4"/>
       <c r="H702" s="3"/>
       <c r="I702" s="3"/>
@@ -23249,7 +23258,7 @@
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
       <c r="E703" s="13"/>
-      <c r="F703" s="3"/>
+      <c r="F703" s="14"/>
       <c r="G703" s="4"/>
       <c r="H703" s="3"/>
       <c r="I703" s="3"/>
@@ -23279,7 +23288,7 @@
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
       <c r="E704" s="13"/>
-      <c r="F704" s="3"/>
+      <c r="F704" s="14"/>
       <c r="G704" s="4"/>
       <c r="H704" s="3"/>
       <c r="I704" s="3"/>
@@ -23309,7 +23318,7 @@
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
       <c r="E705" s="13"/>
-      <c r="F705" s="3"/>
+      <c r="F705" s="14"/>
       <c r="G705" s="4"/>
       <c r="H705" s="3"/>
       <c r="I705" s="3"/>
@@ -23339,7 +23348,7 @@
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
       <c r="E706" s="13"/>
-      <c r="F706" s="3"/>
+      <c r="F706" s="14"/>
       <c r="G706" s="4"/>
       <c r="H706" s="3"/>
       <c r="I706" s="3"/>
@@ -23369,7 +23378,7 @@
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
       <c r="E707" s="13"/>
-      <c r="F707" s="3"/>
+      <c r="F707" s="14"/>
       <c r="G707" s="4"/>
       <c r="H707" s="3"/>
       <c r="I707" s="3"/>
@@ -23399,7 +23408,7 @@
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
       <c r="E708" s="13"/>
-      <c r="F708" s="3"/>
+      <c r="F708" s="14"/>
       <c r="G708" s="4"/>
       <c r="H708" s="3"/>
       <c r="I708" s="3"/>
@@ -23429,7 +23438,7 @@
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
       <c r="E709" s="13"/>
-      <c r="F709" s="3"/>
+      <c r="F709" s="14"/>
       <c r="G709" s="4"/>
       <c r="H709" s="3"/>
       <c r="I709" s="3"/>
@@ -23459,7 +23468,7 @@
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
       <c r="E710" s="13"/>
-      <c r="F710" s="3"/>
+      <c r="F710" s="14"/>
       <c r="G710" s="4"/>
       <c r="H710" s="3"/>
       <c r="I710" s="3"/>
@@ -23489,7 +23498,7 @@
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
       <c r="E711" s="13"/>
-      <c r="F711" s="3"/>
+      <c r="F711" s="14"/>
       <c r="G711" s="4"/>
       <c r="H711" s="3"/>
       <c r="I711" s="3"/>
@@ -23519,7 +23528,7 @@
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
       <c r="E712" s="13"/>
-      <c r="F712" s="3"/>
+      <c r="F712" s="14"/>
       <c r="G712" s="4"/>
       <c r="H712" s="3"/>
       <c r="I712" s="3"/>
@@ -23549,7 +23558,7 @@
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
       <c r="E713" s="13"/>
-      <c r="F713" s="3"/>
+      <c r="F713" s="14"/>
       <c r="G713" s="4"/>
       <c r="H713" s="3"/>
       <c r="I713" s="3"/>
@@ -23579,7 +23588,7 @@
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
       <c r="E714" s="13"/>
-      <c r="F714" s="3"/>
+      <c r="F714" s="14"/>
       <c r="G714" s="4"/>
       <c r="H714" s="3"/>
       <c r="I714" s="3"/>
@@ -23609,7 +23618,7 @@
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
       <c r="E715" s="13"/>
-      <c r="F715" s="3"/>
+      <c r="F715" s="14"/>
       <c r="G715" s="4"/>
       <c r="H715" s="3"/>
       <c r="I715" s="3"/>
@@ -23639,7 +23648,7 @@
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
       <c r="E716" s="13"/>
-      <c r="F716" s="3"/>
+      <c r="F716" s="14"/>
       <c r="G716" s="4"/>
       <c r="H716" s="3"/>
       <c r="I716" s="3"/>
@@ -23669,7 +23678,7 @@
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
       <c r="E717" s="13"/>
-      <c r="F717" s="3"/>
+      <c r="F717" s="14"/>
       <c r="G717" s="4"/>
       <c r="H717" s="3"/>
       <c r="I717" s="3"/>
@@ -23699,7 +23708,7 @@
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
       <c r="E718" s="13"/>
-      <c r="F718" s="3"/>
+      <c r="F718" s="14"/>
       <c r="G718" s="4"/>
       <c r="H718" s="3"/>
       <c r="I718" s="3"/>
@@ -23729,7 +23738,7 @@
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
       <c r="E719" s="13"/>
-      <c r="F719" s="3"/>
+      <c r="F719" s="14"/>
       <c r="G719" s="4"/>
       <c r="H719" s="3"/>
       <c r="I719" s="3"/>
@@ -23759,7 +23768,7 @@
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
       <c r="E720" s="13"/>
-      <c r="F720" s="3"/>
+      <c r="F720" s="14"/>
       <c r="G720" s="4"/>
       <c r="H720" s="3"/>
       <c r="I720" s="3"/>
@@ -23789,7 +23798,7 @@
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
       <c r="E721" s="13"/>
-      <c r="F721" s="3"/>
+      <c r="F721" s="14"/>
       <c r="G721" s="4"/>
       <c r="H721" s="3"/>
       <c r="I721" s="3"/>
@@ -23819,7 +23828,7 @@
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
       <c r="E722" s="13"/>
-      <c r="F722" s="3"/>
+      <c r="F722" s="14"/>
       <c r="G722" s="4"/>
       <c r="H722" s="3"/>
       <c r="I722" s="3"/>
@@ -23849,7 +23858,7 @@
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
       <c r="E723" s="13"/>
-      <c r="F723" s="3"/>
+      <c r="F723" s="14"/>
       <c r="G723" s="4"/>
       <c r="H723" s="3"/>
       <c r="I723" s="3"/>
@@ -23879,7 +23888,7 @@
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
       <c r="E724" s="13"/>
-      <c r="F724" s="3"/>
+      <c r="F724" s="14"/>
       <c r="G724" s="4"/>
       <c r="H724" s="3"/>
       <c r="I724" s="3"/>
@@ -23909,7 +23918,7 @@
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
       <c r="E725" s="13"/>
-      <c r="F725" s="3"/>
+      <c r="F725" s="14"/>
       <c r="G725" s="4"/>
       <c r="H725" s="3"/>
       <c r="I725" s="3"/>
@@ -23939,7 +23948,7 @@
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
       <c r="E726" s="13"/>
-      <c r="F726" s="3"/>
+      <c r="F726" s="14"/>
       <c r="G726" s="4"/>
       <c r="H726" s="3"/>
       <c r="I726" s="3"/>
@@ -23969,7 +23978,7 @@
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
       <c r="E727" s="13"/>
-      <c r="F727" s="3"/>
+      <c r="F727" s="14"/>
       <c r="G727" s="4"/>
       <c r="H727" s="3"/>
       <c r="I727" s="3"/>
@@ -23999,7 +24008,7 @@
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
       <c r="E728" s="13"/>
-      <c r="F728" s="3"/>
+      <c r="F728" s="14"/>
       <c r="G728" s="4"/>
       <c r="H728" s="3"/>
       <c r="I728" s="3"/>
@@ -24029,7 +24038,7 @@
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
       <c r="E729" s="13"/>
-      <c r="F729" s="3"/>
+      <c r="F729" s="14"/>
       <c r="G729" s="4"/>
       <c r="H729" s="3"/>
       <c r="I729" s="3"/>
@@ -24059,7 +24068,7 @@
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
       <c r="E730" s="13"/>
-      <c r="F730" s="3"/>
+      <c r="F730" s="14"/>
       <c r="G730" s="4"/>
       <c r="H730" s="3"/>
       <c r="I730" s="3"/>
@@ -24089,7 +24098,7 @@
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
       <c r="E731" s="13"/>
-      <c r="F731" s="3"/>
+      <c r="F731" s="14"/>
       <c r="G731" s="4"/>
       <c r="H731" s="3"/>
       <c r="I731" s="3"/>
@@ -24119,7 +24128,7 @@
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
       <c r="E732" s="13"/>
-      <c r="F732" s="3"/>
+      <c r="F732" s="14"/>
       <c r="G732" s="4"/>
       <c r="H732" s="3"/>
       <c r="I732" s="3"/>
@@ -24149,7 +24158,7 @@
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
       <c r="E733" s="13"/>
-      <c r="F733" s="3"/>
+      <c r="F733" s="14"/>
       <c r="G733" s="4"/>
       <c r="H733" s="3"/>
       <c r="I733" s="3"/>
@@ -24179,7 +24188,7 @@
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
       <c r="E734" s="13"/>
-      <c r="F734" s="3"/>
+      <c r="F734" s="14"/>
       <c r="G734" s="4"/>
       <c r="H734" s="3"/>
       <c r="I734" s="3"/>
@@ -24209,7 +24218,7 @@
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
       <c r="E735" s="13"/>
-      <c r="F735" s="3"/>
+      <c r="F735" s="14"/>
       <c r="G735" s="4"/>
       <c r="H735" s="3"/>
       <c r="I735" s="3"/>
@@ -24239,7 +24248,7 @@
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
       <c r="E736" s="13"/>
-      <c r="F736" s="3"/>
+      <c r="F736" s="14"/>
       <c r="G736" s="4"/>
       <c r="H736" s="3"/>
       <c r="I736" s="3"/>
@@ -24269,7 +24278,7 @@
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
       <c r="E737" s="13"/>
-      <c r="F737" s="3"/>
+      <c r="F737" s="14"/>
       <c r="G737" s="4"/>
       <c r="H737" s="3"/>
       <c r="I737" s="3"/>
@@ -24299,7 +24308,7 @@
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
       <c r="E738" s="13"/>
-      <c r="F738" s="3"/>
+      <c r="F738" s="14"/>
       <c r="G738" s="4"/>
       <c r="H738" s="3"/>
       <c r="I738" s="3"/>
@@ -24329,7 +24338,7 @@
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
       <c r="E739" s="13"/>
-      <c r="F739" s="3"/>
+      <c r="F739" s="14"/>
       <c r="G739" s="4"/>
       <c r="H739" s="3"/>
       <c r="I739" s="3"/>
@@ -24359,7 +24368,7 @@
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
       <c r="E740" s="13"/>
-      <c r="F740" s="3"/>
+      <c r="F740" s="14"/>
       <c r="G740" s="4"/>
       <c r="H740" s="3"/>
       <c r="I740" s="3"/>
@@ -24389,7 +24398,7 @@
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
       <c r="E741" s="13"/>
-      <c r="F741" s="3"/>
+      <c r="F741" s="14"/>
       <c r="G741" s="4"/>
       <c r="H741" s="3"/>
       <c r="I741" s="3"/>
@@ -24419,7 +24428,7 @@
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
       <c r="E742" s="13"/>
-      <c r="F742" s="3"/>
+      <c r="F742" s="14"/>
       <c r="G742" s="4"/>
       <c r="H742" s="3"/>
       <c r="I742" s="3"/>
@@ -24449,7 +24458,7 @@
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
       <c r="E743" s="13"/>
-      <c r="F743" s="3"/>
+      <c r="F743" s="14"/>
       <c r="G743" s="4"/>
       <c r="H743" s="3"/>
       <c r="I743" s="3"/>
@@ -24479,7 +24488,7 @@
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
       <c r="E744" s="13"/>
-      <c r="F744" s="3"/>
+      <c r="F744" s="14"/>
       <c r="G744" s="4"/>
       <c r="H744" s="3"/>
       <c r="I744" s="3"/>
@@ -24509,7 +24518,7 @@
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
       <c r="E745" s="13"/>
-      <c r="F745" s="3"/>
+      <c r="F745" s="14"/>
       <c r="G745" s="4"/>
       <c r="H745" s="3"/>
       <c r="I745" s="3"/>
@@ -24539,7 +24548,7 @@
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
       <c r="E746" s="13"/>
-      <c r="F746" s="3"/>
+      <c r="F746" s="14"/>
       <c r="G746" s="4"/>
       <c r="H746" s="3"/>
       <c r="I746" s="3"/>
@@ -24569,7 +24578,7 @@
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
       <c r="E747" s="13"/>
-      <c r="F747" s="3"/>
+      <c r="F747" s="14"/>
       <c r="G747" s="4"/>
       <c r="H747" s="3"/>
       <c r="I747" s="3"/>
@@ -24599,7 +24608,7 @@
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
       <c r="E748" s="13"/>
-      <c r="F748" s="3"/>
+      <c r="F748" s="14"/>
       <c r="G748" s="4"/>
       <c r="H748" s="3"/>
       <c r="I748" s="3"/>
@@ -24629,7 +24638,7 @@
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
       <c r="E749" s="13"/>
-      <c r="F749" s="3"/>
+      <c r="F749" s="14"/>
       <c r="G749" s="4"/>
       <c r="H749" s="3"/>
       <c r="I749" s="3"/>
@@ -24659,7 +24668,7 @@
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
       <c r="E750" s="13"/>
-      <c r="F750" s="3"/>
+      <c r="F750" s="14"/>
       <c r="G750" s="4"/>
       <c r="H750" s="3"/>
       <c r="I750" s="3"/>
@@ -24689,7 +24698,7 @@
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
       <c r="E751" s="13"/>
-      <c r="F751" s="3"/>
+      <c r="F751" s="14"/>
       <c r="G751" s="4"/>
       <c r="H751" s="3"/>
       <c r="I751" s="3"/>
@@ -24719,7 +24728,7 @@
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
       <c r="E752" s="13"/>
-      <c r="F752" s="3"/>
+      <c r="F752" s="14"/>
       <c r="G752" s="4"/>
       <c r="H752" s="3"/>
       <c r="I752" s="3"/>
@@ -24749,7 +24758,7 @@
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
       <c r="E753" s="13"/>
-      <c r="F753" s="3"/>
+      <c r="F753" s="14"/>
       <c r="G753" s="4"/>
       <c r="H753" s="3"/>
       <c r="I753" s="3"/>
@@ -24779,7 +24788,7 @@
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
       <c r="E754" s="13"/>
-      <c r="F754" s="3"/>
+      <c r="F754" s="14"/>
       <c r="G754" s="4"/>
       <c r="H754" s="3"/>
       <c r="I754" s="3"/>
@@ -24809,7 +24818,7 @@
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
       <c r="E755" s="13"/>
-      <c r="F755" s="3"/>
+      <c r="F755" s="14"/>
       <c r="G755" s="4"/>
       <c r="H755" s="3"/>
       <c r="I755" s="3"/>
@@ -24839,7 +24848,7 @@
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
       <c r="E756" s="13"/>
-      <c r="F756" s="3"/>
+      <c r="F756" s="14"/>
       <c r="G756" s="4"/>
       <c r="H756" s="3"/>
       <c r="I756" s="3"/>
@@ -24869,7 +24878,7 @@
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
       <c r="E757" s="13"/>
-      <c r="F757" s="3"/>
+      <c r="F757" s="14"/>
       <c r="G757" s="4"/>
       <c r="H757" s="3"/>
       <c r="I757" s="3"/>
@@ -24899,7 +24908,7 @@
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
       <c r="E758" s="13"/>
-      <c r="F758" s="3"/>
+      <c r="F758" s="14"/>
       <c r="G758" s="4"/>
       <c r="H758" s="3"/>
       <c r="I758" s="3"/>
@@ -24929,7 +24938,7 @@
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
       <c r="E759" s="13"/>
-      <c r="F759" s="3"/>
+      <c r="F759" s="14"/>
       <c r="G759" s="4"/>
       <c r="H759" s="3"/>
       <c r="I759" s="3"/>
@@ -24959,7 +24968,7 @@
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
       <c r="E760" s="13"/>
-      <c r="F760" s="3"/>
+      <c r="F760" s="14"/>
       <c r="G760" s="4"/>
       <c r="H760" s="3"/>
       <c r="I760" s="3"/>
@@ -24989,7 +24998,7 @@
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
       <c r="E761" s="13"/>
-      <c r="F761" s="3"/>
+      <c r="F761" s="14"/>
       <c r="G761" s="4"/>
       <c r="H761" s="3"/>
       <c r="I761" s="3"/>
@@ -25019,7 +25028,7 @@
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
       <c r="E762" s="13"/>
-      <c r="F762" s="3"/>
+      <c r="F762" s="14"/>
       <c r="G762" s="4"/>
       <c r="H762" s="3"/>
       <c r="I762" s="3"/>
@@ -25049,7 +25058,7 @@
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
       <c r="E763" s="13"/>
-      <c r="F763" s="3"/>
+      <c r="F763" s="14"/>
       <c r="G763" s="4"/>
       <c r="H763" s="3"/>
       <c r="I763" s="3"/>
@@ -25079,7 +25088,7 @@
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
       <c r="E764" s="13"/>
-      <c r="F764" s="3"/>
+      <c r="F764" s="14"/>
       <c r="G764" s="4"/>
       <c r="H764" s="3"/>
       <c r="I764" s="3"/>
@@ -25109,7 +25118,7 @@
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
       <c r="E765" s="13"/>
-      <c r="F765" s="3"/>
+      <c r="F765" s="14"/>
       <c r="G765" s="4"/>
       <c r="H765" s="3"/>
       <c r="I765" s="3"/>
@@ -25139,7 +25148,7 @@
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
       <c r="E766" s="13"/>
-      <c r="F766" s="3"/>
+      <c r="F766" s="14"/>
       <c r="G766" s="4"/>
       <c r="H766" s="3"/>
       <c r="I766" s="3"/>
@@ -25169,7 +25178,7 @@
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
       <c r="E767" s="13"/>
-      <c r="F767" s="3"/>
+      <c r="F767" s="14"/>
       <c r="G767" s="4"/>
       <c r="H767" s="3"/>
       <c r="I767" s="3"/>
@@ -25199,7 +25208,7 @@
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
       <c r="E768" s="13"/>
-      <c r="F768" s="3"/>
+      <c r="F768" s="14"/>
       <c r="G768" s="4"/>
       <c r="H768" s="3"/>
       <c r="I768" s="3"/>
@@ -25229,7 +25238,7 @@
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
       <c r="E769" s="13"/>
-      <c r="F769" s="3"/>
+      <c r="F769" s="14"/>
       <c r="G769" s="4"/>
       <c r="H769" s="3"/>
       <c r="I769" s="3"/>
@@ -25259,7 +25268,7 @@
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
       <c r="E770" s="13"/>
-      <c r="F770" s="3"/>
+      <c r="F770" s="14"/>
       <c r="G770" s="4"/>
       <c r="H770" s="3"/>
       <c r="I770" s="3"/>
@@ -25289,7 +25298,7 @@
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
       <c r="E771" s="13"/>
-      <c r="F771" s="3"/>
+      <c r="F771" s="14"/>
       <c r="G771" s="4"/>
       <c r="H771" s="3"/>
       <c r="I771" s="3"/>
@@ -25319,7 +25328,7 @@
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
       <c r="E772" s="13"/>
-      <c r="F772" s="3"/>
+      <c r="F772" s="14"/>
       <c r="G772" s="4"/>
       <c r="H772" s="3"/>
       <c r="I772" s="3"/>
@@ -25349,7 +25358,7 @@
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
       <c r="E773" s="13"/>
-      <c r="F773" s="3"/>
+      <c r="F773" s="14"/>
       <c r="G773" s="4"/>
       <c r="H773" s="3"/>
       <c r="I773" s="3"/>
@@ -25379,7 +25388,7 @@
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
       <c r="E774" s="13"/>
-      <c r="F774" s="3"/>
+      <c r="F774" s="14"/>
       <c r="G774" s="4"/>
       <c r="H774" s="3"/>
       <c r="I774" s="3"/>
@@ -25409,7 +25418,7 @@
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
       <c r="E775" s="13"/>
-      <c r="F775" s="3"/>
+      <c r="F775" s="14"/>
       <c r="G775" s="4"/>
       <c r="H775" s="3"/>
       <c r="I775" s="3"/>
@@ -25439,7 +25448,7 @@
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
       <c r="E776" s="13"/>
-      <c r="F776" s="3"/>
+      <c r="F776" s="14"/>
       <c r="G776" s="4"/>
       <c r="H776" s="3"/>
       <c r="I776" s="3"/>
@@ -25469,7 +25478,7 @@
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
       <c r="E777" s="13"/>
-      <c r="F777" s="3"/>
+      <c r="F777" s="14"/>
       <c r="G777" s="4"/>
       <c r="H777" s="3"/>
       <c r="I777" s="3"/>
@@ -25499,7 +25508,7 @@
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
       <c r="E778" s="13"/>
-      <c r="F778" s="3"/>
+      <c r="F778" s="14"/>
       <c r="G778" s="4"/>
       <c r="H778" s="3"/>
       <c r="I778" s="3"/>
@@ -25529,7 +25538,7 @@
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
       <c r="E779" s="13"/>
-      <c r="F779" s="3"/>
+      <c r="F779" s="14"/>
       <c r="G779" s="4"/>
       <c r="H779" s="3"/>
       <c r="I779" s="3"/>
@@ -25559,7 +25568,7 @@
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
       <c r="E780" s="13"/>
-      <c r="F780" s="3"/>
+      <c r="F780" s="14"/>
       <c r="G780" s="4"/>
       <c r="H780" s="3"/>
       <c r="I780" s="3"/>
@@ -25589,7 +25598,7 @@
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
       <c r="E781" s="13"/>
-      <c r="F781" s="3"/>
+      <c r="F781" s="14"/>
       <c r="G781" s="4"/>
       <c r="H781" s="3"/>
       <c r="I781" s="3"/>
@@ -25619,7 +25628,7 @@
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
       <c r="E782" s="13"/>
-      <c r="F782" s="3"/>
+      <c r="F782" s="14"/>
       <c r="G782" s="4"/>
       <c r="H782" s="3"/>
       <c r="I782" s="3"/>
@@ -25649,7 +25658,7 @@
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
       <c r="E783" s="13"/>
-      <c r="F783" s="3"/>
+      <c r="F783" s="14"/>
       <c r="G783" s="4"/>
       <c r="H783" s="3"/>
       <c r="I783" s="3"/>
@@ -25679,7 +25688,7 @@
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
       <c r="E784" s="13"/>
-      <c r="F784" s="3"/>
+      <c r="F784" s="14"/>
       <c r="G784" s="4"/>
       <c r="H784" s="3"/>
       <c r="I784" s="3"/>
@@ -25709,7 +25718,7 @@
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
       <c r="E785" s="13"/>
-      <c r="F785" s="3"/>
+      <c r="F785" s="14"/>
       <c r="G785" s="4"/>
       <c r="H785" s="3"/>
       <c r="I785" s="3"/>
@@ -25739,7 +25748,7 @@
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
       <c r="E786" s="13"/>
-      <c r="F786" s="3"/>
+      <c r="F786" s="14"/>
       <c r="G786" s="4"/>
       <c r="H786" s="3"/>
       <c r="I786" s="3"/>
@@ -25769,7 +25778,7 @@
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
       <c r="E787" s="13"/>
-      <c r="F787" s="3"/>
+      <c r="F787" s="14"/>
       <c r="G787" s="4"/>
       <c r="H787" s="3"/>
       <c r="I787" s="3"/>
@@ -25799,7 +25808,7 @@
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
       <c r="E788" s="13"/>
-      <c r="F788" s="3"/>
+      <c r="F788" s="14"/>
       <c r="G788" s="4"/>
       <c r="H788" s="3"/>
       <c r="I788" s="3"/>
@@ -25829,7 +25838,7 @@
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
       <c r="E789" s="13"/>
-      <c r="F789" s="3"/>
+      <c r="F789" s="14"/>
       <c r="G789" s="4"/>
       <c r="H789" s="3"/>
       <c r="I789" s="3"/>
@@ -25859,7 +25868,7 @@
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
       <c r="E790" s="13"/>
-      <c r="F790" s="3"/>
+      <c r="F790" s="14"/>
       <c r="G790" s="4"/>
       <c r="H790" s="3"/>
       <c r="I790" s="3"/>
@@ -25889,7 +25898,7 @@
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
       <c r="E791" s="13"/>
-      <c r="F791" s="3"/>
+      <c r="F791" s="14"/>
       <c r="G791" s="4"/>
       <c r="H791" s="3"/>
       <c r="I791" s="3"/>
@@ -25919,7 +25928,7 @@
       <c r="C792" s="3"/>
       <c r="D792" s="3"/>
       <c r="E792" s="13"/>
-      <c r="F792" s="3"/>
+      <c r="F792" s="14"/>
       <c r="G792" s="4"/>
       <c r="H792" s="3"/>
       <c r="I792" s="3"/>
@@ -25949,7 +25958,7 @@
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
       <c r="E793" s="13"/>
-      <c r="F793" s="3"/>
+      <c r="F793" s="14"/>
       <c r="G793" s="4"/>
       <c r="H793" s="3"/>
       <c r="I793" s="3"/>
@@ -25979,7 +25988,7 @@
       <c r="C794" s="3"/>
       <c r="D794" s="3"/>
       <c r="E794" s="13"/>
-      <c r="F794" s="3"/>
+      <c r="F794" s="14"/>
       <c r="G794" s="4"/>
       <c r="H794" s="3"/>
       <c r="I794" s="3"/>
@@ -26009,7 +26018,7 @@
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
       <c r="E795" s="13"/>
-      <c r="F795" s="3"/>
+      <c r="F795" s="14"/>
       <c r="G795" s="4"/>
       <c r="H795" s="3"/>
       <c r="I795" s="3"/>
@@ -26039,7 +26048,7 @@
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
       <c r="E796" s="13"/>
-      <c r="F796" s="3"/>
+      <c r="F796" s="14"/>
       <c r="G796" s="4"/>
       <c r="H796" s="3"/>
       <c r="I796" s="3"/>
@@ -26069,7 +26078,7 @@
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
       <c r="E797" s="13"/>
-      <c r="F797" s="3"/>
+      <c r="F797" s="14"/>
       <c r="G797" s="4"/>
       <c r="H797" s="3"/>
       <c r="I797" s="3"/>
@@ -26099,7 +26108,7 @@
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
       <c r="E798" s="13"/>
-      <c r="F798" s="3"/>
+      <c r="F798" s="14"/>
       <c r="G798" s="4"/>
       <c r="H798" s="3"/>
       <c r="I798" s="3"/>
@@ -26129,7 +26138,7 @@
       <c r="C799" s="3"/>
       <c r="D799" s="3"/>
       <c r="E799" s="13"/>
-      <c r="F799" s="3"/>
+      <c r="F799" s="14"/>
       <c r="G799" s="4"/>
       <c r="H799" s="3"/>
       <c r="I799" s="3"/>
@@ -26159,7 +26168,7 @@
       <c r="C800" s="3"/>
       <c r="D800" s="3"/>
       <c r="E800" s="13"/>
-      <c r="F800" s="3"/>
+      <c r="F800" s="14"/>
       <c r="G800" s="4"/>
       <c r="H800" s="3"/>
       <c r="I800" s="3"/>
@@ -26189,7 +26198,7 @@
       <c r="C801" s="3"/>
       <c r="D801" s="3"/>
       <c r="E801" s="13"/>
-      <c r="F801" s="3"/>
+      <c r="F801" s="14"/>
       <c r="G801" s="4"/>
       <c r="H801" s="3"/>
       <c r="I801" s="3"/>
@@ -26219,7 +26228,7 @@
       <c r="C802" s="3"/>
       <c r="D802" s="3"/>
       <c r="E802" s="13"/>
-      <c r="F802" s="3"/>
+      <c r="F802" s="14"/>
       <c r="G802" s="4"/>
       <c r="H802" s="3"/>
       <c r="I802" s="3"/>
@@ -26249,7 +26258,7 @@
       <c r="C803" s="3"/>
       <c r="D803" s="3"/>
       <c r="E803" s="13"/>
-      <c r="F803" s="3"/>
+      <c r="F803" s="14"/>
       <c r="G803" s="4"/>
       <c r="H803" s="3"/>
       <c r="I803" s="3"/>
@@ -26279,7 +26288,7 @@
       <c r="C804" s="3"/>
       <c r="D804" s="3"/>
       <c r="E804" s="13"/>
-      <c r="F804" s="3"/>
+      <c r="F804" s="14"/>
       <c r="G804" s="4"/>
       <c r="H804" s="3"/>
       <c r="I804" s="3"/>
@@ -26309,7 +26318,7 @@
       <c r="C805" s="3"/>
       <c r="D805" s="3"/>
       <c r="E805" s="13"/>
-      <c r="F805" s="3"/>
+      <c r="F805" s="14"/>
       <c r="G805" s="4"/>
       <c r="H805" s="3"/>
       <c r="I805" s="3"/>
@@ -26339,7 +26348,7 @@
       <c r="C806" s="3"/>
       <c r="D806" s="3"/>
       <c r="E806" s="13"/>
-      <c r="F806" s="3"/>
+      <c r="F806" s="14"/>
       <c r="G806" s="4"/>
       <c r="H806" s="3"/>
       <c r="I806" s="3"/>
@@ -26369,7 +26378,7 @@
       <c r="C807" s="3"/>
       <c r="D807" s="3"/>
       <c r="E807" s="13"/>
-      <c r="F807" s="3"/>
+      <c r="F807" s="14"/>
       <c r="G807" s="4"/>
       <c r="H807" s="3"/>
       <c r="I807" s="3"/>
@@ -26399,7 +26408,7 @@
       <c r="C808" s="3"/>
       <c r="D808" s="3"/>
       <c r="E808" s="13"/>
-      <c r="F808" s="3"/>
+      <c r="F808" s="14"/>
       <c r="G808" s="4"/>
       <c r="H808" s="3"/>
       <c r="I808" s="3"/>
@@ -26429,7 +26438,7 @@
       <c r="C809" s="3"/>
       <c r="D809" s="3"/>
       <c r="E809" s="13"/>
-      <c r="F809" s="3"/>
+      <c r="F809" s="14"/>
       <c r="G809" s="4"/>
       <c r="H809" s="3"/>
       <c r="I809" s="3"/>
@@ -26459,7 +26468,7 @@
       <c r="C810" s="3"/>
       <c r="D810" s="3"/>
       <c r="E810" s="13"/>
-      <c r="F810" s="3"/>
+      <c r="F810" s="14"/>
       <c r="G810" s="4"/>
       <c r="H810" s="3"/>
       <c r="I810" s="3"/>
@@ -26489,7 +26498,7 @@
       <c r="C811" s="3"/>
       <c r="D811" s="3"/>
       <c r="E811" s="13"/>
-      <c r="F811" s="3"/>
+      <c r="F811" s="14"/>
       <c r="G811" s="4"/>
       <c r="H811" s="3"/>
       <c r="I811" s="3"/>
@@ -26519,7 +26528,7 @@
       <c r="C812" s="3"/>
       <c r="D812" s="3"/>
       <c r="E812" s="13"/>
-      <c r="F812" s="3"/>
+      <c r="F812" s="14"/>
       <c r="G812" s="4"/>
       <c r="H812" s="3"/>
       <c r="I812" s="3"/>
@@ -26549,7 +26558,7 @@
       <c r="C813" s="3"/>
       <c r="D813" s="3"/>
       <c r="E813" s="13"/>
-      <c r="F813" s="3"/>
+      <c r="F813" s="14"/>
       <c r="G813" s="4"/>
       <c r="H813" s="3"/>
       <c r="I813" s="3"/>
@@ -26579,7 +26588,7 @@
       <c r="C814" s="3"/>
       <c r="D814" s="3"/>
       <c r="E814" s="13"/>
-      <c r="F814" s="3"/>
+      <c r="F814" s="14"/>
       <c r="G814" s="4"/>
       <c r="H814" s="3"/>
       <c r="I814" s="3"/>
@@ -26609,7 +26618,7 @@
       <c r="C815" s="3"/>
       <c r="D815" s="3"/>
       <c r="E815" s="13"/>
-      <c r="F815" s="3"/>
+      <c r="F815" s="14"/>
       <c r="G815" s="4"/>
       <c r="H815" s="3"/>
       <c r="I815" s="3"/>
@@ -26639,7 +26648,7 @@
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
       <c r="E816" s="13"/>
-      <c r="F816" s="3"/>
+      <c r="F816" s="14"/>
       <c r="G816" s="4"/>
       <c r="H816" s="3"/>
       <c r="I816" s="3"/>
@@ -26669,7 +26678,7 @@
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
       <c r="E817" s="13"/>
-      <c r="F817" s="3"/>
+      <c r="F817" s="14"/>
       <c r="G817" s="4"/>
       <c r="H817" s="3"/>
       <c r="I817" s="3"/>
@@ -26699,7 +26708,7 @@
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
       <c r="E818" s="13"/>
-      <c r="F818" s="3"/>
+      <c r="F818" s="14"/>
       <c r="G818" s="4"/>
       <c r="H818" s="3"/>
       <c r="I818" s="3"/>
@@ -26729,7 +26738,7 @@
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
       <c r="E819" s="13"/>
-      <c r="F819" s="3"/>
+      <c r="F819" s="14"/>
       <c r="G819" s="4"/>
       <c r="H819" s="3"/>
       <c r="I819" s="3"/>
@@ -26759,7 +26768,7 @@
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
       <c r="E820" s="13"/>
-      <c r="F820" s="3"/>
+      <c r="F820" s="14"/>
       <c r="G820" s="4"/>
       <c r="H820" s="3"/>
       <c r="I820" s="3"/>
@@ -26789,7 +26798,7 @@
       <c r="C821" s="3"/>
       <c r="D821" s="3"/>
       <c r="E821" s="13"/>
-      <c r="F821" s="3"/>
+      <c r="F821" s="14"/>
       <c r="G821" s="4"/>
       <c r="H821" s="3"/>
       <c r="I821" s="3"/>
@@ -26819,7 +26828,7 @@
       <c r="C822" s="3"/>
       <c r="D822" s="3"/>
       <c r="E822" s="13"/>
-      <c r="F822" s="3"/>
+      <c r="F822" s="14"/>
       <c r="G822" s="4"/>
       <c r="H822" s="3"/>
       <c r="I822" s="3"/>
@@ -26849,7 +26858,7 @@
       <c r="C823" s="3"/>
       <c r="D823" s="3"/>
       <c r="E823" s="13"/>
-      <c r="F823" s="3"/>
+      <c r="F823" s="14"/>
       <c r="G823" s="4"/>
       <c r="H823" s="3"/>
       <c r="I823" s="3"/>
@@ -26879,7 +26888,7 @@
       <c r="C824" s="3"/>
       <c r="D824" s="3"/>
       <c r="E824" s="13"/>
-      <c r="F824" s="3"/>
+      <c r="F824" s="14"/>
       <c r="G824" s="4"/>
       <c r="H824" s="3"/>
       <c r="I824" s="3"/>
@@ -26909,7 +26918,7 @@
       <c r="C825" s="3"/>
       <c r="D825" s="3"/>
       <c r="E825" s="13"/>
-      <c r="F825" s="3"/>
+      <c r="F825" s="14"/>
       <c r="G825" s="4"/>
       <c r="H825" s="3"/>
       <c r="I825" s="3"/>
@@ -26939,7 +26948,7 @@
       <c r="C826" s="3"/>
       <c r="D826" s="3"/>
       <c r="E826" s="13"/>
-      <c r="F826" s="3"/>
+      <c r="F826" s="14"/>
       <c r="G826" s="4"/>
       <c r="H826" s="3"/>
       <c r="I826" s="3"/>
@@ -26969,7 +26978,7 @@
       <c r="C827" s="3"/>
       <c r="D827" s="3"/>
       <c r="E827" s="13"/>
-      <c r="F827" s="3"/>
+      <c r="F827" s="14"/>
       <c r="G827" s="4"/>
       <c r="H827" s="3"/>
       <c r="I827" s="3"/>
@@ -26999,7 +27008,7 @@
       <c r="C828" s="3"/>
       <c r="D828" s="3"/>
       <c r="E828" s="13"/>
-      <c r="F828" s="3"/>
+      <c r="F828" s="14"/>
       <c r="G828" s="4"/>
       <c r="H828" s="3"/>
       <c r="I828" s="3"/>
@@ -27029,7 +27038,7 @@
       <c r="C829" s="3"/>
       <c r="D829" s="3"/>
       <c r="E829" s="13"/>
-      <c r="F829" s="3"/>
+      <c r="F829" s="14"/>
       <c r="G829" s="4"/>
       <c r="H829" s="3"/>
       <c r="I829" s="3"/>
@@ -27059,7 +27068,7 @@
       <c r="C830" s="3"/>
       <c r="D830" s="3"/>
       <c r="E830" s="13"/>
-      <c r="F830" s="3"/>
+      <c r="F830" s="14"/>
       <c r="G830" s="4"/>
       <c r="H830" s="3"/>
       <c r="I830" s="3"/>
@@ -27089,7 +27098,7 @@
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
       <c r="E831" s="13"/>
-      <c r="F831" s="3"/>
+      <c r="F831" s="14"/>
       <c r="G831" s="4"/>
       <c r="H831" s="3"/>
       <c r="I831" s="3"/>
@@ -27119,7 +27128,7 @@
       <c r="C832" s="3"/>
       <c r="D832" s="3"/>
       <c r="E832" s="13"/>
-      <c r="F832" s="3"/>
+      <c r="F832" s="14"/>
       <c r="G832" s="4"/>
       <c r="H832" s="3"/>
       <c r="I832" s="3"/>
@@ -27149,7 +27158,7 @@
       <c r="C833" s="3"/>
       <c r="D833" s="3"/>
       <c r="E833" s="13"/>
-      <c r="F833" s="3"/>
+      <c r="F833" s="14"/>
       <c r="G833" s="4"/>
       <c r="H833" s="3"/>
       <c r="I833" s="3"/>
@@ -27179,7 +27188,7 @@
       <c r="C834" s="3"/>
       <c r="D834" s="3"/>
       <c r="E834" s="13"/>
-      <c r="F834" s="3"/>
+      <c r="F834" s="14"/>
       <c r="G834" s="4"/>
       <c r="H834" s="3"/>
       <c r="I834" s="3"/>
@@ -27209,7 +27218,7 @@
       <c r="C835" s="3"/>
       <c r="D835" s="3"/>
       <c r="E835" s="13"/>
-      <c r="F835" s="3"/>
+      <c r="F835" s="14"/>
       <c r="G835" s="4"/>
       <c r="H835" s="3"/>
       <c r="I835" s="3"/>
@@ -27239,7 +27248,7 @@
       <c r="C836" s="3"/>
       <c r="D836" s="3"/>
       <c r="E836" s="13"/>
-      <c r="F836" s="3"/>
+      <c r="F836" s="14"/>
       <c r="G836" s="4"/>
       <c r="H836" s="3"/>
       <c r="I836" s="3"/>
@@ -27269,7 +27278,7 @@
       <c r="C837" s="3"/>
       <c r="D837" s="3"/>
       <c r="E837" s="13"/>
-      <c r="F837" s="3"/>
+      <c r="F837" s="14"/>
       <c r="G837" s="4"/>
       <c r="H837" s="3"/>
       <c r="I837" s="3"/>
@@ -27299,7 +27308,7 @@
       <c r="C838" s="3"/>
       <c r="D838" s="3"/>
       <c r="E838" s="13"/>
-      <c r="F838" s="3"/>
+      <c r="F838" s="14"/>
       <c r="G838" s="4"/>
       <c r="H838" s="3"/>
       <c r="I838" s="3"/>
@@ -27329,7 +27338,7 @@
       <c r="C839" s="3"/>
       <c r="D839" s="3"/>
       <c r="E839" s="13"/>
-      <c r="F839" s="3"/>
+      <c r="F839" s="14"/>
       <c r="G839" s="4"/>
       <c r="H839" s="3"/>
       <c r="I839" s="3"/>
@@ -27359,7 +27368,7 @@
       <c r="C840" s="3"/>
       <c r="D840" s="3"/>
       <c r="E840" s="13"/>
-      <c r="F840" s="3"/>
+      <c r="F840" s="14"/>
       <c r="G840" s="4"/>
       <c r="H840" s="3"/>
       <c r="I840" s="3"/>
@@ -27389,7 +27398,7 @@
       <c r="C841" s="3"/>
       <c r="D841" s="3"/>
       <c r="E841" s="13"/>
-      <c r="F841" s="3"/>
+      <c r="F841" s="14"/>
       <c r="G841" s="4"/>
       <c r="H841" s="3"/>
       <c r="I841" s="3"/>
@@ -27419,7 +27428,7 @@
       <c r="C842" s="3"/>
       <c r="D842" s="3"/>
       <c r="E842" s="13"/>
-      <c r="F842" s="3"/>
+      <c r="F842" s="14"/>
       <c r="G842" s="4"/>
       <c r="H842" s="3"/>
       <c r="I842" s="3"/>
@@ -27449,7 +27458,7 @@
       <c r="C843" s="3"/>
       <c r="D843" s="3"/>
       <c r="E843" s="13"/>
-      <c r="F843" s="3"/>
+      <c r="F843" s="14"/>
       <c r="G843" s="4"/>
       <c r="H843" s="3"/>
       <c r="I843" s="3"/>
@@ -27479,7 +27488,7 @@
       <c r="C844" s="3"/>
       <c r="D844" s="3"/>
       <c r="E844" s="13"/>
-      <c r="F844" s="3"/>
+      <c r="F844" s="14"/>
       <c r="G844" s="4"/>
       <c r="H844" s="3"/>
       <c r="I844" s="3"/>
@@ -27509,7 +27518,7 @@
       <c r="C845" s="3"/>
       <c r="D845" s="3"/>
       <c r="E845" s="13"/>
-      <c r="F845" s="3"/>
+      <c r="F845" s="14"/>
       <c r="G845" s="4"/>
       <c r="H845" s="3"/>
       <c r="I845" s="3"/>
@@ -27539,7 +27548,7 @@
       <c r="C846" s="3"/>
       <c r="D846" s="3"/>
       <c r="E846" s="13"/>
-      <c r="F846" s="3"/>
+      <c r="F846" s="14"/>
       <c r="G846" s="4"/>
       <c r="H846" s="3"/>
       <c r="I846" s="3"/>
@@ -27569,7 +27578,7 @@
       <c r="C847" s="3"/>
       <c r="D847" s="3"/>
       <c r="E847" s="13"/>
-      <c r="F847" s="3"/>
+      <c r="F847" s="14"/>
       <c r="G847" s="4"/>
       <c r="H847" s="3"/>
       <c r="I847" s="3"/>
@@ -27599,7 +27608,7 @@
       <c r="C848" s="3"/>
       <c r="D848" s="3"/>
       <c r="E848" s="13"/>
-      <c r="F848" s="3"/>
+      <c r="F848" s="14"/>
       <c r="G848" s="4"/>
       <c r="H848" s="3"/>
       <c r="I848" s="3"/>
@@ -27629,7 +27638,7 @@
       <c r="C849" s="3"/>
       <c r="D849" s="3"/>
       <c r="E849" s="13"/>
-      <c r="F849" s="3"/>
+      <c r="F849" s="14"/>
       <c r="G849" s="4"/>
       <c r="H849" s="3"/>
       <c r="I849" s="3"/>
@@ -27659,7 +27668,7 @@
       <c r="C850" s="3"/>
       <c r="D850" s="3"/>
       <c r="E850" s="13"/>
-      <c r="F850" s="3"/>
+      <c r="F850" s="14"/>
       <c r="G850" s="4"/>
       <c r="H850" s="3"/>
       <c r="I850" s="3"/>
@@ -27689,7 +27698,7 @@
       <c r="C851" s="3"/>
       <c r="D851" s="3"/>
       <c r="E851" s="13"/>
-      <c r="F851" s="3"/>
+      <c r="F851" s="14"/>
       <c r="G851" s="4"/>
       <c r="H851" s="3"/>
       <c r="I851" s="3"/>
@@ -27719,7 +27728,7 @@
       <c r="C852" s="3"/>
       <c r="D852" s="3"/>
       <c r="E852" s="13"/>
-      <c r="F852" s="3"/>
+      <c r="F852" s="14"/>
       <c r="G852" s="4"/>
       <c r="H852" s="3"/>
       <c r="I852" s="3"/>
@@ -27749,7 +27758,7 @@
       <c r="C853" s="3"/>
       <c r="D853" s="3"/>
       <c r="E853" s="13"/>
-      <c r="F853" s="3"/>
+      <c r="F853" s="14"/>
       <c r="G853" s="4"/>
       <c r="H853" s="3"/>
       <c r="I853" s="3"/>
@@ -27779,7 +27788,7 @@
       <c r="C854" s="3"/>
       <c r="D854" s="3"/>
       <c r="E854" s="13"/>
-      <c r="F854" s="3"/>
+      <c r="F854" s="14"/>
       <c r="G854" s="4"/>
       <c r="H854" s="3"/>
       <c r="I854" s="3"/>
@@ -27809,7 +27818,7 @@
       <c r="C855" s="3"/>
       <c r="D855" s="3"/>
       <c r="E855" s="13"/>
-      <c r="F855" s="3"/>
+      <c r="F855" s="14"/>
       <c r="G855" s="4"/>
       <c r="H855" s="3"/>
       <c r="I855" s="3"/>
@@ -27839,7 +27848,7 @@
       <c r="C856" s="3"/>
       <c r="D856" s="3"/>
       <c r="E856" s="13"/>
-      <c r="F856" s="3"/>
+      <c r="F856" s="14"/>
       <c r="G856" s="4"/>
       <c r="H856" s="3"/>
       <c r="I856" s="3"/>
@@ -27869,7 +27878,7 @@
       <c r="C857" s="3"/>
       <c r="D857" s="3"/>
       <c r="E857" s="13"/>
-      <c r="F857" s="3"/>
+      <c r="F857" s="14"/>
       <c r="G857" s="4"/>
       <c r="H857" s="3"/>
       <c r="I857" s="3"/>
@@ -27899,7 +27908,7 @@
       <c r="C858" s="3"/>
       <c r="D858" s="3"/>
       <c r="E858" s="13"/>
-      <c r="F858" s="3"/>
+      <c r="F858" s="14"/>
       <c r="G858" s="4"/>
       <c r="H858" s="3"/>
       <c r="I858" s="3"/>
@@ -27929,7 +27938,7 @@
       <c r="C859" s="3"/>
       <c r="D859" s="3"/>
       <c r="E859" s="13"/>
-      <c r="F859" s="3"/>
+      <c r="F859" s="14"/>
       <c r="G859" s="4"/>
       <c r="H859" s="3"/>
       <c r="I859" s="3"/>
@@ -27959,7 +27968,7 @@
       <c r="C860" s="3"/>
       <c r="D860" s="3"/>
       <c r="E860" s="13"/>
-      <c r="F860" s="3"/>
+      <c r="F860" s="14"/>
       <c r="G860" s="4"/>
       <c r="H860" s="3"/>
       <c r="I860" s="3"/>
@@ -27989,7 +27998,7 @@
       <c r="C861" s="3"/>
       <c r="D861" s="3"/>
       <c r="E861" s="13"/>
-      <c r="F861" s="3"/>
+      <c r="F861" s="14"/>
       <c r="G861" s="4"/>
       <c r="H861" s="3"/>
       <c r="I861" s="3"/>
@@ -28019,7 +28028,7 @@
       <c r="C862" s="3"/>
       <c r="D862" s="3"/>
       <c r="E862" s="13"/>
-      <c r="F862" s="3"/>
+      <c r="F862" s="14"/>
       <c r="G862" s="4"/>
       <c r="H862" s="3"/>
       <c r="I862" s="3"/>
@@ -28049,7 +28058,7 @@
       <c r="C863" s="3"/>
       <c r="D863" s="3"/>
       <c r="E863" s="13"/>
-      <c r="F863" s="3"/>
+      <c r="F863" s="14"/>
       <c r="G863" s="4"/>
       <c r="H863" s="3"/>
       <c r="I863" s="3"/>
@@ -28079,7 +28088,7 @@
       <c r="C864" s="3"/>
       <c r="D864" s="3"/>
       <c r="E864" s="13"/>
-      <c r="F864" s="3"/>
+      <c r="F864" s="14"/>
       <c r="G864" s="4"/>
       <c r="H864" s="3"/>
       <c r="I864" s="3"/>
@@ -28109,7 +28118,7 @@
       <c r="C865" s="3"/>
       <c r="D865" s="3"/>
       <c r="E865" s="13"/>
-      <c r="F865" s="3"/>
+      <c r="F865" s="14"/>
       <c r="G865" s="4"/>
       <c r="H865" s="3"/>
       <c r="I865" s="3"/>
@@ -28139,7 +28148,7 @@
       <c r="C866" s="3"/>
       <c r="D866" s="3"/>
       <c r="E866" s="13"/>
-      <c r="F866" s="3"/>
+      <c r="F866" s="14"/>
       <c r="G866" s="4"/>
       <c r="H866" s="3"/>
       <c r="I866" s="3"/>
@@ -28169,7 +28178,7 @@
       <c r="C867" s="3"/>
       <c r="D867" s="3"/>
       <c r="E867" s="13"/>
-      <c r="F867" s="3"/>
+      <c r="F867" s="14"/>
       <c r="G867" s="4"/>
       <c r="H867" s="3"/>
       <c r="I867" s="3"/>
@@ -28199,7 +28208,7 @@
       <c r="C868" s="3"/>
       <c r="D868" s="3"/>
       <c r="E868" s="13"/>
-      <c r="F868" s="3"/>
+      <c r="F868" s="14"/>
       <c r="G868" s="4"/>
       <c r="H868" s="3"/>
       <c r="I868" s="3"/>
@@ -28229,7 +28238,7 @@
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
       <c r="E869" s="13"/>
-      <c r="F869" s="3"/>
+      <c r="F869" s="14"/>
       <c r="G869" s="4"/>
       <c r="H869" s="3"/>
       <c r="I869" s="3"/>
@@ -28259,7 +28268,7 @@
       <c r="C870" s="3"/>
       <c r="D870" s="3"/>
       <c r="E870" s="13"/>
-      <c r="F870" s="3"/>
+      <c r="F870" s="14"/>
       <c r="G870" s="4"/>
       <c r="H870" s="3"/>
       <c r="I870" s="3"/>
@@ -28289,7 +28298,7 @@
       <c r="C871" s="3"/>
       <c r="D871" s="3"/>
       <c r="E871" s="13"/>
-      <c r="F871" s="3"/>
+      <c r="F871" s="14"/>
       <c r="G871" s="4"/>
       <c r="H871" s="3"/>
       <c r="I871" s="3"/>
@@ -28319,7 +28328,7 @@
       <c r="C872" s="3"/>
       <c r="D872" s="3"/>
       <c r="E872" s="13"/>
-      <c r="F872" s="3"/>
+      <c r="F872" s="14"/>
       <c r="G872" s="4"/>
       <c r="H872" s="3"/>
       <c r="I872" s="3"/>
@@ -28349,7 +28358,7 @@
       <c r="C873" s="3"/>
       <c r="D873" s="3"/>
       <c r="E873" s="13"/>
-      <c r="F873" s="3"/>
+      <c r="F873" s="14"/>
       <c r="G873" s="4"/>
       <c r="H873" s="3"/>
       <c r="I873" s="3"/>
@@ -28379,7 +28388,7 @@
       <c r="C874" s="3"/>
       <c r="D874" s="3"/>
       <c r="E874" s="13"/>
-      <c r="F874" s="3"/>
+      <c r="F874" s="14"/>
       <c r="G874" s="4"/>
       <c r="H874" s="3"/>
       <c r="I874" s="3"/>
@@ -28409,7 +28418,7 @@
       <c r="C875" s="3"/>
       <c r="D875" s="3"/>
       <c r="E875" s="13"/>
-      <c r="F875" s="3"/>
+      <c r="F875" s="14"/>
       <c r="G875" s="4"/>
       <c r="H875" s="3"/>
       <c r="I875" s="3"/>
@@ -28439,7 +28448,7 @@
       <c r="C876" s="3"/>
       <c r="D876" s="3"/>
       <c r="E876" s="13"/>
-      <c r="F876" s="3"/>
+      <c r="F876" s="14"/>
       <c r="G876" s="4"/>
       <c r="H876" s="3"/>
       <c r="I876" s="3"/>
@@ -28469,7 +28478,7 @@
       <c r="C877" s="3"/>
       <c r="D877" s="3"/>
       <c r="E877" s="13"/>
-      <c r="F877" s="3"/>
+      <c r="F877" s="14"/>
       <c r="G877" s="4"/>
       <c r="H877" s="3"/>
       <c r="I877" s="3"/>
@@ -28499,7 +28508,7 @@
       <c r="C878" s="3"/>
       <c r="D878" s="3"/>
       <c r="E878" s="13"/>
-      <c r="F878" s="3"/>
+      <c r="F878" s="14"/>
       <c r="G878" s="4"/>
       <c r="H878" s="3"/>
       <c r="I878" s="3"/>
@@ -28529,7 +28538,7 @@
       <c r="C879" s="3"/>
       <c r="D879" s="3"/>
       <c r="E879" s="13"/>
-      <c r="F879" s="3"/>
+      <c r="F879" s="14"/>
       <c r="G879" s="4"/>
       <c r="H879" s="3"/>
       <c r="I879" s="3"/>
@@ -28559,7 +28568,7 @@
       <c r="C880" s="3"/>
       <c r="D880" s="3"/>
       <c r="E880" s="13"/>
-      <c r="F880" s="3"/>
+      <c r="F880" s="14"/>
       <c r="G880" s="4"/>
       <c r="H880" s="3"/>
       <c r="I880" s="3"/>
@@ -28589,7 +28598,7 @@
       <c r="C881" s="3"/>
       <c r="D881" s="3"/>
       <c r="E881" s="13"/>
-      <c r="F881" s="3"/>
+      <c r="F881" s="14"/>
       <c r="G881" s="4"/>
       <c r="H881" s="3"/>
       <c r="I881" s="3"/>
@@ -28619,7 +28628,7 @@
       <c r="C882" s="3"/>
       <c r="D882" s="3"/>
       <c r="E882" s="13"/>
-      <c r="F882" s="3"/>
+      <c r="F882" s="14"/>
       <c r="G882" s="4"/>
       <c r="H882" s="3"/>
       <c r="I882" s="3"/>
@@ -28649,7 +28658,7 @@
       <c r="C883" s="3"/>
       <c r="D883" s="3"/>
       <c r="E883" s="13"/>
-      <c r="F883" s="3"/>
+      <c r="F883" s="14"/>
       <c r="G883" s="4"/>
       <c r="H883" s="3"/>
       <c r="I883" s="3"/>
@@ -28679,7 +28688,7 @@
       <c r="C884" s="3"/>
       <c r="D884" s="3"/>
       <c r="E884" s="13"/>
-      <c r="F884" s="3"/>
+      <c r="F884" s="14"/>
       <c r="G884" s="4"/>
       <c r="H884" s="3"/>
       <c r="I884" s="3"/>
@@ -28709,7 +28718,7 @@
       <c r="C885" s="3"/>
       <c r="D885" s="3"/>
       <c r="E885" s="13"/>
-      <c r="F885" s="3"/>
+      <c r="F885" s="14"/>
       <c r="G885" s="4"/>
       <c r="H885" s="3"/>
       <c r="I885" s="3"/>
@@ -28739,7 +28748,7 @@
       <c r="C886" s="3"/>
       <c r="D886" s="3"/>
       <c r="E886" s="13"/>
-      <c r="F886" s="3"/>
+      <c r="F886" s="14"/>
       <c r="G886" s="4"/>
       <c r="H886" s="3"/>
       <c r="I886" s="3"/>
@@ -28769,7 +28778,7 @@
       <c r="C887" s="3"/>
       <c r="D887" s="3"/>
       <c r="E887" s="13"/>
-      <c r="F887" s="3"/>
+      <c r="F887" s="14"/>
       <c r="G887" s="4"/>
       <c r="H887" s="3"/>
       <c r="I887" s="3"/>
@@ -28799,7 +28808,7 @@
       <c r="C888" s="3"/>
       <c r="D888" s="3"/>
       <c r="E888" s="13"/>
-      <c r="F888" s="3"/>
+      <c r="F888" s="14"/>
       <c r="G888" s="4"/>
       <c r="H888" s="3"/>
       <c r="I888" s="3"/>
@@ -28829,7 +28838,7 @@
       <c r="C889" s="3"/>
       <c r="D889" s="3"/>
       <c r="E889" s="13"/>
-      <c r="F889" s="3"/>
+      <c r="F889" s="14"/>
       <c r="G889" s="4"/>
       <c r="H889" s="3"/>
       <c r="I889" s="3"/>
@@ -28859,7 +28868,7 @@
       <c r="C890" s="3"/>
       <c r="D890" s="3"/>
       <c r="E890" s="13"/>
-      <c r="F890" s="3"/>
+      <c r="F890" s="14"/>
       <c r="G890" s="4"/>
       <c r="H890" s="3"/>
       <c r="I890" s="3"/>
@@ -28889,7 +28898,7 @@
       <c r="C891" s="3"/>
       <c r="D891" s="3"/>
       <c r="E891" s="13"/>
-      <c r="F891" s="3"/>
+      <c r="F891" s="14"/>
       <c r="G891" s="4"/>
       <c r="H891" s="3"/>
       <c r="I891" s="3"/>
@@ -28919,7 +28928,7 @@
       <c r="C892" s="3"/>
       <c r="D892" s="3"/>
       <c r="E892" s="13"/>
-      <c r="F892" s="3"/>
+      <c r="F892" s="14"/>
       <c r="G892" s="4"/>
       <c r="H892" s="3"/>
       <c r="I892" s="3"/>
@@ -28949,7 +28958,7 @@
       <c r="C893" s="3"/>
       <c r="D893" s="3"/>
       <c r="E893" s="13"/>
-      <c r="F893" s="3"/>
+      <c r="F893" s="14"/>
       <c r="G893" s="4"/>
       <c r="H893" s="3"/>
       <c r="I893" s="3"/>
@@ -28979,7 +28988,7 @@
       <c r="C894" s="3"/>
       <c r="D894" s="3"/>
       <c r="E894" s="13"/>
-      <c r="F894" s="3"/>
+      <c r="F894" s="14"/>
       <c r="G894" s="4"/>
       <c r="H894" s="3"/>
       <c r="I894" s="3"/>
@@ -29009,7 +29018,7 @@
       <c r="C895" s="3"/>
       <c r="D895" s="3"/>
       <c r="E895" s="13"/>
-      <c r="F895" s="3"/>
+      <c r="F895" s="14"/>
       <c r="G895" s="4"/>
       <c r="H895" s="3"/>
       <c r="I895" s="3"/>
@@ -29039,7 +29048,7 @@
       <c r="C896" s="3"/>
       <c r="D896" s="3"/>
       <c r="E896" s="13"/>
-      <c r="F896" s="3"/>
+      <c r="F896" s="14"/>
       <c r="G896" s="4"/>
       <c r="H896" s="3"/>
       <c r="I896" s="3"/>
@@ -29069,7 +29078,7 @@
       <c r="C897" s="3"/>
       <c r="D897" s="3"/>
       <c r="E897" s="13"/>
-      <c r="F897" s="3"/>
+      <c r="F897" s="14"/>
       <c r="G897" s="4"/>
       <c r="H897" s="3"/>
       <c r="I897" s="3"/>
@@ -29099,7 +29108,7 @@
       <c r="C898" s="3"/>
       <c r="D898" s="3"/>
       <c r="E898" s="13"/>
-      <c r="F898" s="3"/>
+      <c r="F898" s="14"/>
       <c r="G898" s="4"/>
       <c r="H898" s="3"/>
       <c r="I898" s="3"/>
@@ -29129,7 +29138,7 @@
       <c r="C899" s="3"/>
       <c r="D899" s="3"/>
       <c r="E899" s="13"/>
-      <c r="F899" s="3"/>
+      <c r="F899" s="14"/>
       <c r="G899" s="4"/>
       <c r="H899" s="3"/>
       <c r="I899" s="3"/>
@@ -29159,7 +29168,7 @@
       <c r="C900" s="3"/>
       <c r="D900" s="3"/>
       <c r="E900" s="13"/>
-      <c r="F900" s="3"/>
+      <c r="F900" s="14"/>
       <c r="G900" s="4"/>
       <c r="H900" s="3"/>
       <c r="I900" s="3"/>
@@ -29189,7 +29198,7 @@
       <c r="C901" s="3"/>
       <c r="D901" s="3"/>
       <c r="E901" s="13"/>
-      <c r="F901" s="3"/>
+      <c r="F901" s="14"/>
       <c r="G901" s="4"/>
       <c r="H901" s="3"/>
       <c r="I901" s="3"/>
@@ -29219,7 +29228,7 @@
       <c r="C902" s="3"/>
       <c r="D902" s="3"/>
       <c r="E902" s="13"/>
-      <c r="F902" s="3"/>
+      <c r="F902" s="14"/>
       <c r="G902" s="4"/>
       <c r="H902" s="3"/>
       <c r="I902" s="3"/>
@@ -29249,7 +29258,7 @@
       <c r="C903" s="3"/>
       <c r="D903" s="3"/>
       <c r="E903" s="13"/>
-      <c r="F903" s="3"/>
+      <c r="F903" s="14"/>
       <c r="G903" s="4"/>
       <c r="H903" s="3"/>
       <c r="I903" s="3"/>
@@ -29279,7 +29288,7 @@
       <c r="C904" s="3"/>
       <c r="D904" s="3"/>
       <c r="E904" s="13"/>
-      <c r="F904" s="3"/>
+      <c r="F904" s="14"/>
       <c r="G904" s="4"/>
       <c r="H904" s="3"/>
       <c r="I904" s="3"/>
@@ -29309,7 +29318,7 @@
       <c r="C905" s="3"/>
       <c r="D905" s="3"/>
       <c r="E905" s="13"/>
-      <c r="F905" s="3"/>
+      <c r="F905" s="14"/>
       <c r="G905" s="4"/>
       <c r="H905" s="3"/>
       <c r="I905" s="3"/>
@@ -29339,7 +29348,7 @@
       <c r="C906" s="3"/>
       <c r="D906" s="3"/>
       <c r="E906" s="13"/>
-      <c r="F906" s="3"/>
+      <c r="F906" s="14"/>
       <c r="G906" s="4"/>
       <c r="H906" s="3"/>
       <c r="I906" s="3"/>
@@ -29369,7 +29378,7 @@
       <c r="C907" s="3"/>
       <c r="D907" s="3"/>
       <c r="E907" s="13"/>
-      <c r="F907" s="3"/>
+      <c r="F907" s="14"/>
       <c r="G907" s="4"/>
       <c r="H907" s="3"/>
       <c r="I907" s="3"/>
@@ -29399,7 +29408,7 @@
       <c r="C908" s="3"/>
       <c r="D908" s="3"/>
       <c r="E908" s="13"/>
-      <c r="F908" s="3"/>
+      <c r="F908" s="14"/>
       <c r="G908" s="4"/>
       <c r="H908" s="3"/>
       <c r="I908" s="3"/>
@@ -29429,7 +29438,7 @@
       <c r="C909" s="3"/>
       <c r="D909" s="3"/>
       <c r="E909" s="13"/>
-      <c r="F909" s="3"/>
+      <c r="F909" s="14"/>
       <c r="G909" s="4"/>
       <c r="H909" s="3"/>
       <c r="I909" s="3"/>
@@ -29459,7 +29468,7 @@
       <c r="C910" s="3"/>
       <c r="D910" s="3"/>
       <c r="E910" s="13"/>
-      <c r="F910" s="3"/>
+      <c r="F910" s="14"/>
       <c r="G910" s="4"/>
       <c r="H910" s="3"/>
       <c r="I910" s="3"/>
@@ -29489,7 +29498,7 @@
       <c r="C911" s="3"/>
       <c r="D911" s="3"/>
       <c r="E911" s="13"/>
-      <c r="F911" s="3"/>
+      <c r="F911" s="14"/>
       <c r="G911" s="4"/>
       <c r="H911" s="3"/>
       <c r="I911" s="3"/>
@@ -29519,7 +29528,7 @@
       <c r="C912" s="3"/>
       <c r="D912" s="3"/>
       <c r="E912" s="13"/>
-      <c r="F912" s="3"/>
+      <c r="F912" s="14"/>
       <c r="G912" s="4"/>
       <c r="H912" s="3"/>
       <c r="I912" s="3"/>
@@ -29549,7 +29558,7 @@
       <c r="C913" s="3"/>
       <c r="D913" s="3"/>
       <c r="E913" s="13"/>
-      <c r="F913" s="3"/>
+      <c r="F913" s="14"/>
       <c r="G913" s="4"/>
       <c r="H913" s="3"/>
       <c r="I913" s="3"/>
@@ -29579,7 +29588,7 @@
       <c r="C914" s="3"/>
       <c r="D914" s="3"/>
       <c r="E914" s="13"/>
-      <c r="F914" s="3"/>
+      <c r="F914" s="14"/>
       <c r="G914" s="4"/>
       <c r="H914" s="3"/>
       <c r="I914" s="3"/>
@@ -29609,7 +29618,7 @@
       <c r="C915" s="3"/>
       <c r="D915" s="3"/>
       <c r="E915" s="13"/>
-      <c r="F915" s="3"/>
+      <c r="F915" s="14"/>
       <c r="G915" s="4"/>
       <c r="H915" s="3"/>
       <c r="I915" s="3"/>
@@ -29639,7 +29648,7 @@
       <c r="C916" s="3"/>
       <c r="D916" s="3"/>
       <c r="E916" s="13"/>
-      <c r="F916" s="3"/>
+      <c r="F916" s="14"/>
       <c r="G916" s="4"/>
       <c r="H916" s="3"/>
       <c r="I916" s="3"/>
@@ -29669,7 +29678,7 @@
       <c r="C917" s="3"/>
       <c r="D917" s="3"/>
       <c r="E917" s="13"/>
-      <c r="F917" s="3"/>
+      <c r="F917" s="14"/>
       <c r="G917" s="4"/>
       <c r="H917" s="3"/>
       <c r="I917" s="3"/>
@@ -29699,7 +29708,7 @@
       <c r="C918" s="3"/>
       <c r="D918" s="3"/>
       <c r="E918" s="13"/>
-      <c r="F918" s="3"/>
+      <c r="F918" s="14"/>
       <c r="G918" s="4"/>
       <c r="H918" s="3"/>
       <c r="I918" s="3"/>
@@ -29729,7 +29738,7 @@
       <c r="C919" s="3"/>
       <c r="D919" s="3"/>
       <c r="E919" s="13"/>
-      <c r="F919" s="3"/>
+      <c r="F919" s="14"/>
       <c r="G919" s="4"/>
       <c r="H919" s="3"/>
       <c r="I919" s="3"/>
@@ -29759,7 +29768,7 @@
       <c r="C920" s="3"/>
       <c r="D920" s="3"/>
       <c r="E920" s="13"/>
-      <c r="F920" s="3"/>
+      <c r="F920" s="14"/>
       <c r="G920" s="4"/>
       <c r="H920" s="3"/>
       <c r="I920" s="3"/>
@@ -29789,7 +29798,7 @@
       <c r="C921" s="3"/>
       <c r="D921" s="3"/>
       <c r="E921" s="13"/>
-      <c r="F921" s="3"/>
+      <c r="F921" s="14"/>
       <c r="G921" s="4"/>
       <c r="H921" s="3"/>
       <c r="I921" s="3"/>
@@ -29819,7 +29828,7 @@
       <c r="C922" s="3"/>
       <c r="D922" s="3"/>
       <c r="E922" s="13"/>
-      <c r="F922" s="3"/>
+      <c r="F922" s="14"/>
       <c r="G922" s="4"/>
       <c r="H922" s="3"/>
       <c r="I922" s="3"/>
@@ -29849,7 +29858,7 @@
       <c r="C923" s="3"/>
       <c r="D923" s="3"/>
       <c r="E923" s="13"/>
-      <c r="F923" s="3"/>
+      <c r="F923" s="14"/>
       <c r="G923" s="4"/>
       <c r="H923" s="3"/>
       <c r="I923" s="3"/>
@@ -29879,7 +29888,7 @@
       <c r="C924" s="3"/>
       <c r="D924" s="3"/>
       <c r="E924" s="13"/>
-      <c r="F924" s="3"/>
+      <c r="F924" s="14"/>
       <c r="G924" s="4"/>
       <c r="H924" s="3"/>
       <c r="I924" s="3"/>
@@ -29909,7 +29918,7 @@
       <c r="C925" s="3"/>
       <c r="D925" s="3"/>
       <c r="E925" s="13"/>
-      <c r="F925" s="3"/>
+      <c r="F925" s="14"/>
       <c r="G925" s="4"/>
       <c r="H925" s="3"/>
       <c r="I925" s="3"/>
@@ -29939,7 +29948,7 @@
       <c r="C926" s="3"/>
       <c r="D926" s="3"/>
       <c r="E926" s="13"/>
-      <c r="F926" s="3"/>
+      <c r="F926" s="14"/>
       <c r="G926" s="4"/>
       <c r="H926" s="3"/>
       <c r="I926" s="3"/>
@@ -29969,7 +29978,7 @@
       <c r="C927" s="3"/>
       <c r="D927" s="3"/>
       <c r="E927" s="13"/>
-      <c r="F927" s="3"/>
+      <c r="F927" s="14"/>
       <c r="G927" s="4"/>
       <c r="H927" s="3"/>
       <c r="I927" s="3"/>
@@ -29999,7 +30008,7 @@
       <c r="C928" s="3"/>
       <c r="D928" s="3"/>
       <c r="E928" s="13"/>
-      <c r="F928" s="3"/>
+      <c r="F928" s="14"/>
       <c r="G928" s="4"/>
       <c r="H928" s="3"/>
       <c r="I928" s="3"/>
@@ -30029,7 +30038,7 @@
       <c r="C929" s="3"/>
       <c r="D929" s="3"/>
       <c r="E929" s="13"/>
-      <c r="F929" s="3"/>
+      <c r="F929" s="14"/>
       <c r="G929" s="4"/>
       <c r="H929" s="3"/>
       <c r="I929" s="3"/>
@@ -30059,7 +30068,7 @@
       <c r="C930" s="3"/>
       <c r="D930" s="3"/>
       <c r="E930" s="13"/>
-      <c r="F930" s="3"/>
+      <c r="F930" s="14"/>
       <c r="G930" s="4"/>
       <c r="H930" s="3"/>
       <c r="I930" s="3"/>
@@ -30089,7 +30098,7 @@
       <c r="C931" s="3"/>
       <c r="D931" s="3"/>
       <c r="E931" s="13"/>
-      <c r="F931" s="3"/>
+      <c r="F931" s="14"/>
       <c r="G931" s="4"/>
       <c r="H931" s="3"/>
       <c r="I931" s="3"/>
@@ -30119,7 +30128,7 @@
       <c r="C932" s="3"/>
       <c r="D932" s="3"/>
       <c r="E932" s="13"/>
-      <c r="F932" s="3"/>
+      <c r="F932" s="14"/>
       <c r="G932" s="4"/>
       <c r="H932" s="3"/>
       <c r="I932" s="3"/>
@@ -30149,7 +30158,7 @@
       <c r="C933" s="3"/>
       <c r="D933" s="3"/>
       <c r="E933" s="13"/>
-      <c r="F933" s="3"/>
+      <c r="F933" s="14"/>
       <c r="G933" s="4"/>
       <c r="H933" s="3"/>
       <c r="I933" s="3"/>
@@ -30179,7 +30188,7 @@
       <c r="C934" s="3"/>
       <c r="D934" s="3"/>
       <c r="E934" s="13"/>
-      <c r="F934" s="3"/>
+      <c r="F934" s="14"/>
       <c r="G934" s="4"/>
       <c r="H934" s="3"/>
       <c r="I934" s="3"/>
@@ -30209,7 +30218,7 @@
       <c r="C935" s="3"/>
       <c r="D935" s="3"/>
       <c r="E935" s="13"/>
-      <c r="F935" s="3"/>
+      <c r="F935" s="14"/>
       <c r="G935" s="4"/>
       <c r="H935" s="3"/>
       <c r="I935" s="3"/>
@@ -30239,7 +30248,7 @@
       <c r="C936" s="3"/>
       <c r="D936" s="3"/>
       <c r="E936" s="13"/>
-      <c r="F936" s="3"/>
+      <c r="F936" s="14"/>
       <c r="G936" s="4"/>
       <c r="H936" s="3"/>
       <c r="I936" s="3"/>
@@ -30269,7 +30278,7 @@
       <c r="C937" s="3"/>
       <c r="D937" s="3"/>
       <c r="E937" s="13"/>
-      <c r="F937" s="3"/>
+      <c r="F937" s="14"/>
       <c r="G937" s="4"/>
       <c r="H937" s="3"/>
       <c r="I937" s="3"/>
@@ -30299,7 +30308,7 @@
       <c r="C938" s="3"/>
       <c r="D938" s="3"/>
       <c r="E938" s="13"/>
-      <c r="F938" s="3"/>
+      <c r="F938" s="14"/>
       <c r="G938" s="4"/>
       <c r="H938" s="3"/>
       <c r="I938" s="3"/>
@@ -30329,7 +30338,7 @@
       <c r="C939" s="3"/>
       <c r="D939" s="3"/>
       <c r="E939" s="13"/>
-      <c r="F939" s="3"/>
+      <c r="F939" s="14"/>
       <c r="G939" s="4"/>
       <c r="H939" s="3"/>
       <c r="I939" s="3"/>
@@ -30359,7 +30368,7 @@
       <c r="C940" s="3"/>
       <c r="D940" s="3"/>
       <c r="E940" s="13"/>
-      <c r="F940" s="3"/>
+      <c r="F940" s="14"/>
       <c r="G940" s="4"/>
       <c r="H940" s="3"/>
       <c r="I940" s="3"/>
@@ -30389,7 +30398,7 @@
       <c r="C941" s="3"/>
       <c r="D941" s="3"/>
       <c r="E941" s="13"/>
-      <c r="F941" s="3"/>
+      <c r="F941" s="14"/>
       <c r="G941" s="4"/>
       <c r="H941" s="3"/>
       <c r="I941" s="3"/>
@@ -30419,7 +30428,7 @@
       <c r="C942" s="3"/>
       <c r="D942" s="3"/>
       <c r="E942" s="13"/>
-      <c r="F942" s="3"/>
+      <c r="F942" s="14"/>
       <c r="G942" s="4"/>
       <c r="H942" s="3"/>
       <c r="I942" s="3"/>
@@ -30449,7 +30458,7 @@
       <c r="C943" s="3"/>
       <c r="D943" s="3"/>
       <c r="E943" s="13"/>
-      <c r="F943" s="3"/>
+      <c r="F943" s="14"/>
       <c r="G943" s="4"/>
       <c r="H943" s="3"/>
       <c r="I943" s="3"/>
@@ -30479,7 +30488,7 @@
       <c r="C944" s="3"/>
       <c r="D944" s="3"/>
       <c r="E944" s="13"/>
-      <c r="F944" s="3"/>
+      <c r="F944" s="14"/>
       <c r="G944" s="4"/>
       <c r="H944" s="3"/>
       <c r="I944" s="3"/>
@@ -30509,7 +30518,7 @@
       <c r="C945" s="3"/>
       <c r="D945" s="3"/>
       <c r="E945" s="13"/>
-      <c r="F945" s="3"/>
+      <c r="F945" s="14"/>
       <c r="G945" s="4"/>
       <c r="H945" s="3"/>
       <c r="I945" s="3"/>
@@ -30539,7 +30548,7 @@
       <c r="C946" s="3"/>
       <c r="D946" s="3"/>
       <c r="E946" s="13"/>
-      <c r="F946" s="3"/>
+      <c r="F946" s="14"/>
       <c r="G946" s="4"/>
       <c r="H946" s="3"/>
       <c r="I946" s="3"/>
@@ -30569,7 +30578,7 @@
       <c r="C947" s="3"/>
       <c r="D947" s="3"/>
       <c r="E947" s="13"/>
-      <c r="F947" s="3"/>
+      <c r="F947" s="14"/>
       <c r="G947" s="4"/>
       <c r="H947" s="3"/>
       <c r="I947" s="3"/>
@@ -30599,7 +30608,7 @@
       <c r="C948" s="3"/>
       <c r="D948" s="3"/>
       <c r="E948" s="13"/>
-      <c r="F948" s="3"/>
+      <c r="F948" s="14"/>
       <c r="G948" s="4"/>
       <c r="H948" s="3"/>
       <c r="I948" s="3"/>
@@ -30629,7 +30638,7 @@
       <c r="C949" s="3"/>
       <c r="D949" s="3"/>
       <c r="E949" s="13"/>
-      <c r="F949" s="3"/>
+      <c r="F949" s="14"/>
       <c r="G949" s="4"/>
       <c r="H949" s="3"/>
       <c r="I949" s="3"/>
@@ -30659,7 +30668,7 @@
       <c r="C950" s="3"/>
       <c r="D950" s="3"/>
       <c r="E950" s="13"/>
-      <c r="F950" s="3"/>
+      <c r="F950" s="14"/>
       <c r="G950" s="4"/>
       <c r="H950" s="3"/>
       <c r="I950" s="3"/>
@@ -30689,7 +30698,7 @@
       <c r="C951" s="3"/>
       <c r="D951" s="3"/>
       <c r="E951" s="13"/>
-      <c r="F951" s="3"/>
+      <c r="F951" s="14"/>
       <c r="G951" s="4"/>
       <c r="H951" s="3"/>
       <c r="I951" s="3"/>
@@ -30719,7 +30728,7 @@
       <c r="C952" s="3"/>
       <c r="D952" s="3"/>
       <c r="E952" s="13"/>
-      <c r="F952" s="3"/>
+      <c r="F952" s="14"/>
       <c r="G952" s="4"/>
       <c r="H952" s="3"/>
       <c r="I952" s="3"/>
@@ -30749,7 +30758,7 @@
       <c r="C953" s="3"/>
       <c r="D953" s="3"/>
       <c r="E953" s="13"/>
-      <c r="F953" s="3"/>
+      <c r="F953" s="14"/>
       <c r="G953" s="4"/>
       <c r="H953" s="3"/>
       <c r="I953" s="3"/>
@@ -30779,7 +30788,7 @@
       <c r="C954" s="3"/>
       <c r="D954" s="3"/>
       <c r="E954" s="13"/>
-      <c r="F954" s="3"/>
+      <c r="F954" s="14"/>
       <c r="G954" s="4"/>
       <c r="H954" s="3"/>
       <c r="I954" s="3"/>
@@ -30809,7 +30818,7 @@
       <c r="C955" s="3"/>
       <c r="D955" s="3"/>
       <c r="E955" s="13"/>
-      <c r="F955" s="3"/>
+      <c r="F955" s="14"/>
       <c r="G955" s="4"/>
       <c r="H955" s="3"/>
       <c r="I955" s="3"/>
@@ -30839,7 +30848,7 @@
       <c r="C956" s="3"/>
       <c r="D956" s="3"/>
       <c r="E956" s="13"/>
-      <c r="F956" s="3"/>
+      <c r="F956" s="14"/>
       <c r="G956" s="4"/>
       <c r="H956" s="3"/>
       <c r="I956" s="3"/>
@@ -30869,7 +30878,7 @@
       <c r="C957" s="3"/>
       <c r="D957" s="3"/>
       <c r="E957" s="13"/>
-      <c r="F957" s="3"/>
+      <c r="F957" s="14"/>
       <c r="G957" s="4"/>
       <c r="H957" s="3"/>
       <c r="I957" s="3"/>
@@ -30899,7 +30908,7 @@
       <c r="C958" s="3"/>
       <c r="D958" s="3"/>
       <c r="E958" s="13"/>
-      <c r="F958" s="3"/>
+      <c r="F958" s="14"/>
       <c r="G958" s="4"/>
       <c r="H958" s="3"/>
       <c r="I958" s="3"/>
@@ -30929,7 +30938,7 @@
       <c r="C959" s="3"/>
       <c r="D959" s="3"/>
       <c r="E959" s="13"/>
-      <c r="F959" s="3"/>
+      <c r="F959" s="14"/>
       <c r="G959" s="4"/>
       <c r="H959" s="3"/>
       <c r="I959" s="3"/>
@@ -30959,7 +30968,7 @@
       <c r="C960" s="3"/>
       <c r="D960" s="3"/>
       <c r="E960" s="13"/>
-      <c r="F960" s="3"/>
+      <c r="F960" s="14"/>
       <c r="G960" s="4"/>
       <c r="H960" s="3"/>
       <c r="I960" s="3"/>
@@ -30989,7 +30998,7 @@
       <c r="C961" s="3"/>
       <c r="D961" s="3"/>
       <c r="E961" s="13"/>
-      <c r="F961" s="3"/>
+      <c r="F961" s="14"/>
       <c r="G961" s="4"/>
       <c r="H961" s="3"/>
       <c r="I961" s="3"/>
@@ -31019,7 +31028,7 @@
       <c r="C962" s="3"/>
       <c r="D962" s="3"/>
       <c r="E962" s="13"/>
-      <c r="F962" s="3"/>
+      <c r="F962" s="14"/>
       <c r="G962" s="4"/>
       <c r="H962" s="3"/>
       <c r="I962" s="3"/>
@@ -31049,7 +31058,7 @@
       <c r="C963" s="3"/>
       <c r="D963" s="3"/>
       <c r="E963" s="13"/>
-      <c r="F963" s="3"/>
+      <c r="F963" s="14"/>
       <c r="G963" s="4"/>
       <c r="H963" s="3"/>
       <c r="I963" s="3"/>
@@ -31079,7 +31088,7 @@
       <c r="C964" s="3"/>
       <c r="D964" s="3"/>
       <c r="E964" s="13"/>
-      <c r="F964" s="3"/>
+      <c r="F964" s="14"/>
       <c r="G964" s="4"/>
       <c r="H964" s="3"/>
       <c r="I964" s="3"/>
@@ -31109,7 +31118,7 @@
       <c r="C965" s="3"/>
       <c r="D965" s="3"/>
       <c r="E965" s="13"/>
-      <c r="F965" s="3"/>
+      <c r="F965" s="14"/>
       <c r="G965" s="4"/>
       <c r="H965" s="3"/>
       <c r="I965" s="3"/>
@@ -31139,7 +31148,7 @@
       <c r="C966" s="3"/>
       <c r="D966" s="3"/>
       <c r="E966" s="13"/>
-      <c r="F966" s="3"/>
+      <c r="F966" s="14"/>
       <c r="G966" s="4"/>
       <c r="H966" s="3"/>
       <c r="I966" s="3"/>
@@ -31169,7 +31178,7 @@
       <c r="C967" s="3"/>
       <c r="D967" s="3"/>
       <c r="E967" s="13"/>
-      <c r="F967" s="3"/>
+      <c r="F967" s="14"/>
       <c r="G967" s="4"/>
       <c r="H967" s="3"/>
       <c r="I967" s="3"/>
@@ -31199,7 +31208,7 @@
       <c r="C968" s="3"/>
       <c r="D968" s="3"/>
       <c r="E968" s="13"/>
-      <c r="F968" s="3"/>
+      <c r="F968" s="14"/>
       <c r="G968" s="4"/>
       <c r="H968" s="3"/>
       <c r="I968" s="3"/>
@@ -31229,7 +31238,7 @@
       <c r="C969" s="3"/>
       <c r="D969" s="3"/>
       <c r="E969" s="13"/>
-      <c r="F969" s="3"/>
+      <c r="F969" s="14"/>
       <c r="G969" s="4"/>
       <c r="H969" s="3"/>
       <c r="I969" s="3"/>
@@ -31259,7 +31268,7 @@
       <c r="C970" s="3"/>
       <c r="D970" s="3"/>
       <c r="E970" s="13"/>
-      <c r="F970" s="3"/>
+      <c r="F970" s="14"/>
       <c r="G970" s="4"/>
       <c r="H970" s="3"/>
       <c r="I970" s="3"/>
@@ -31289,7 +31298,7 @@
       <c r="C971" s="3"/>
       <c r="D971" s="3"/>
       <c r="E971" s="13"/>
-      <c r="F971" s="3"/>
+      <c r="F971" s="14"/>
       <c r="G971" s="4"/>
       <c r="H971" s="3"/>
       <c r="I971" s="3"/>
@@ -31319,7 +31328,7 @@
       <c r="C972" s="3"/>
       <c r="D972" s="3"/>
       <c r="E972" s="13"/>
-      <c r="F972" s="3"/>
+      <c r="F972" s="14"/>
       <c r="G972" s="4"/>
       <c r="H972" s="3"/>
       <c r="I972" s="3"/>
@@ -31349,7 +31358,7 @@
       <c r="C973" s="3"/>
       <c r="D973" s="3"/>
       <c r="E973" s="13"/>
-      <c r="F973" s="3"/>
+      <c r="F973" s="14"/>
       <c r="G973" s="4"/>
       <c r="H973" s="3"/>
       <c r="I973" s="3"/>
@@ -31379,7 +31388,7 @@
       <c r="C974" s="3"/>
       <c r="D974" s="3"/>
       <c r="E974" s="13"/>
-      <c r="F974" s="3"/>
+      <c r="F974" s="14"/>
       <c r="G974" s="4"/>
       <c r="H974" s="3"/>
       <c r="I974" s="3"/>
@@ -31409,7 +31418,7 @@
       <c r="C975" s="3"/>
       <c r="D975" s="3"/>
       <c r="E975" s="13"/>
-      <c r="F975" s="3"/>
+      <c r="F975" s="14"/>
       <c r="G975" s="4"/>
       <c r="H975" s="3"/>
       <c r="I975" s="3"/>
@@ -31439,7 +31448,7 @@
       <c r="C976" s="3"/>
       <c r="D976" s="3"/>
       <c r="E976" s="13"/>
-      <c r="F976" s="3"/>
+      <c r="F976" s="14"/>
       <c r="G976" s="4"/>
       <c r="H976" s="3"/>
       <c r="I976" s="3"/>
@@ -31469,7 +31478,7 @@
       <c r="C977" s="3"/>
       <c r="D977" s="3"/>
       <c r="E977" s="13"/>
-      <c r="F977" s="3"/>
+      <c r="F977" s="14"/>
       <c r="G977" s="4"/>
       <c r="H977" s="3"/>
       <c r="I977" s="3"/>
@@ -31499,7 +31508,7 @@
       <c r="C978" s="3"/>
       <c r="D978" s="3"/>
       <c r="E978" s="13"/>
-      <c r="F978" s="3"/>
+      <c r="F978" s="14"/>
       <c r="G978" s="4"/>
       <c r="H978" s="3"/>
       <c r="I978" s="3"/>
@@ -31529,7 +31538,7 @@
       <c r="C979" s="3"/>
       <c r="D979" s="3"/>
       <c r="E979" s="13"/>
-      <c r="F979" s="3"/>
+      <c r="F979" s="14"/>
       <c r="G979" s="4"/>
       <c r="H979" s="3"/>
       <c r="I979" s="3"/>
@@ -31559,7 +31568,7 @@
       <c r="C980" s="3"/>
       <c r="D980" s="3"/>
       <c r="E980" s="13"/>
-      <c r="F980" s="3"/>
+      <c r="F980" s="14"/>
       <c r="G980" s="4"/>
       <c r="H980" s="3"/>
       <c r="I980" s="3"/>
@@ -31589,7 +31598,7 @@
       <c r="C981" s="3"/>
       <c r="D981" s="3"/>
       <c r="E981" s="13"/>
-      <c r="F981" s="3"/>
+      <c r="F981" s="14"/>
       <c r="G981" s="4"/>
       <c r="H981" s="3"/>
       <c r="I981" s="3"/>
@@ -31619,7 +31628,7 @@
       <c r="C982" s="3"/>
       <c r="D982" s="3"/>
       <c r="E982" s="13"/>
-      <c r="F982" s="3"/>
+      <c r="F982" s="14"/>
       <c r="G982" s="4"/>
       <c r="H982" s="3"/>
       <c r="I982" s="3"/>
@@ -31649,7 +31658,7 @@
       <c r="C983" s="3"/>
       <c r="D983" s="3"/>
       <c r="E983" s="13"/>
-      <c r="F983" s="3"/>
+      <c r="F983" s="14"/>
       <c r="G983" s="4"/>
       <c r="H983" s="3"/>
       <c r="I983" s="3"/>
@@ -31679,7 +31688,7 @@
       <c r="C984" s="3"/>
       <c r="D984" s="3"/>
       <c r="E984" s="13"/>
-      <c r="F984" s="3"/>
+      <c r="F984" s="14"/>
       <c r="G984" s="4"/>
       <c r="H984" s="3"/>
       <c r="I984" s="3"/>
@@ -31709,7 +31718,7 @@
       <c r="C985" s="3"/>
       <c r="D985" s="3"/>
       <c r="E985" s="13"/>
-      <c r="F985" s="3"/>
+      <c r="F985" s="14"/>
       <c r="G985" s="4"/>
       <c r="H985" s="3"/>
       <c r="I985" s="3"/>
@@ -31739,7 +31748,7 @@
       <c r="C986" s="3"/>
       <c r="D986" s="3"/>
       <c r="E986" s="13"/>
-      <c r="F986" s="3"/>
+      <c r="F986" s="14"/>
       <c r="G986" s="4"/>
       <c r="H986" s="3"/>
       <c r="I986" s="3"/>
@@ -31769,7 +31778,7 @@
       <c r="C987" s="3"/>
       <c r="D987" s="3"/>
       <c r="E987" s="13"/>
-      <c r="F987" s="3"/>
+      <c r="F987" s="14"/>
       <c r="G987" s="4"/>
       <c r="H987" s="3"/>
       <c r="I987" s="3"/>
@@ -31799,7 +31808,7 @@
       <c r="C988" s="3"/>
       <c r="D988" s="3"/>
       <c r="E988" s="13"/>
-      <c r="F988" s="3"/>
+      <c r="F988" s="14"/>
       <c r="G988" s="4"/>
       <c r="H988" s="3"/>
       <c r="I988" s="3"/>
@@ -31829,7 +31838,7 @@
       <c r="C989" s="3"/>
       <c r="D989" s="3"/>
       <c r="E989" s="13"/>
-      <c r="F989" s="3"/>
+      <c r="F989" s="14"/>
       <c r="G989" s="4"/>
       <c r="H989" s="3"/>
       <c r="I989" s="3"/>
@@ -31859,7 +31868,7 @@
       <c r="C990" s="3"/>
       <c r="D990" s="3"/>
       <c r="E990" s="13"/>
-      <c r="F990" s="3"/>
+      <c r="F990" s="14"/>
       <c r="G990" s="4"/>
       <c r="H990" s="3"/>
       <c r="I990" s="3"/>
@@ -31889,7 +31898,7 @@
       <c r="C991" s="3"/>
       <c r="D991" s="3"/>
       <c r="E991" s="13"/>
-      <c r="F991" s="3"/>
+      <c r="F991" s="14"/>
       <c r="G991" s="4"/>
       <c r="H991" s="3"/>
       <c r="I991" s="3"/>
@@ -31919,7 +31928,7 @@
       <c r="C992" s="3"/>
       <c r="D992" s="3"/>
       <c r="E992" s="13"/>
-      <c r="F992" s="3"/>
+      <c r="F992" s="14"/>
       <c r="G992" s="4"/>
       <c r="H992" s="3"/>
       <c r="I992" s="3"/>
@@ -31949,7 +31958,7 @@
       <c r="C993" s="3"/>
       <c r="D993" s="3"/>
       <c r="E993" s="13"/>
-      <c r="F993" s="3"/>
+      <c r="F993" s="14"/>
       <c r="G993" s="4"/>
       <c r="H993" s="3"/>
       <c r="I993" s="3"/>
@@ -31979,7 +31988,7 @@
       <c r="C994" s="3"/>
       <c r="D994" s="3"/>
       <c r="E994" s="13"/>
-      <c r="F994" s="3"/>
+      <c r="F994" s="14"/>
       <c r="G994" s="4"/>
       <c r="H994" s="3"/>
       <c r="I994" s="3"/>
@@ -32009,7 +32018,7 @@
       <c r="C995" s="3"/>
       <c r="D995" s="3"/>
       <c r="E995" s="13"/>
-      <c r="F995" s="3"/>
+      <c r="F995" s="14"/>
       <c r="G995" s="4"/>
       <c r="H995" s="3"/>
       <c r="I995" s="3"/>
@@ -32039,7 +32048,7 @@
       <c r="C996" s="3"/>
       <c r="D996" s="3"/>
       <c r="E996" s="13"/>
-      <c r="F996" s="3"/>
+      <c r="F996" s="14"/>
       <c r="G996" s="4"/>
       <c r="H996" s="3"/>
       <c r="I996" s="3"/>
@@ -32069,7 +32078,7 @@
       <c r="C997" s="3"/>
       <c r="D997" s="3"/>
       <c r="E997" s="13"/>
-      <c r="F997" s="3"/>
+      <c r="F997" s="14"/>
       <c r="G997" s="4"/>
       <c r="H997" s="3"/>
       <c r="I997" s="3"/>
@@ -32099,7 +32108,7 @@
       <c r="C998" s="3"/>
       <c r="D998" s="3"/>
       <c r="E998" s="13"/>
-      <c r="F998" s="3"/>
+      <c r="F998" s="14"/>
       <c r="G998" s="4"/>
       <c r="H998" s="3"/>
       <c r="I998" s="3"/>
@@ -32129,7 +32138,7 @@
       <c r="C999" s="3"/>
       <c r="D999" s="3"/>
       <c r="E999" s="13"/>
-      <c r="F999" s="3"/>
+      <c r="F999" s="14"/>
       <c r="G999" s="4"/>
       <c r="H999" s="3"/>
       <c r="I999" s="3"/>
@@ -32159,7 +32168,7 @@
       <c r="C1000" s="3"/>
       <c r="D1000" s="3"/>
       <c r="E1000" s="13"/>
-      <c r="F1000" s="3"/>
+      <c r="F1000" s="14"/>
       <c r="G1000" s="4"/>
       <c r="H1000" s="3"/>
       <c r="I1000" s="3"/>
